--- a/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF72188E-2625-41ED-98C5-2B3FFD894823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1960DE-A7FB-4FFB-BCD5-6ECE5BC58823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS 5.7" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 5.7'!$A$1:$V$2583</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6657" uniqueCount="1719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6658" uniqueCount="1719">
   <si>
     <t>Passage</t>
   </si>
@@ -5377,7 +5369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5532,6 +5524,18 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5815,10 +5819,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2436" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A2583" sqref="A2583"/>
+      <selection pane="bottomLeft" activeCell="V2525" sqref="V2525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -11891,18 +11895,18 @@
         <f t="shared" si="9"/>
         <v>148</v>
       </c>
-      <c r="N149" s="35" t="s">
+      <c r="N149" s="53" t="s">
         <v>566</v>
       </c>
-      <c r="O149" s="7"/>
-      <c r="P149" s="8" t="s">
+      <c r="O149" s="54"/>
+      <c r="P149" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="Q149" s="8"/>
-      <c r="R149" s="8"/>
-      <c r="S149" s="8"/>
-      <c r="T149" s="8"/>
-      <c r="U149" s="8"/>
+      <c r="Q149" s="55"/>
+      <c r="R149" s="55"/>
+      <c r="S149" s="55"/>
+      <c r="T149" s="55"/>
+      <c r="U149" s="55"/>
       <c r="V149" s="35" t="s">
         <v>1618</v>
       </c>
@@ -33932,7 +33936,9 @@
       <c r="N783" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="O783" s="7"/>
+      <c r="O783" s="50" t="s">
+        <v>81</v>
+      </c>
       <c r="P783" s="8"/>
       <c r="Q783" s="8"/>
       <c r="R783" s="8"/>
@@ -46178,18 +46184,19 @@
         <f t="shared" si="57"/>
         <v>345</v>
       </c>
-      <c r="N1172" s="35" t="s">
+      <c r="N1172" s="56" t="s">
         <v>770</v>
       </c>
-      <c r="O1172" s="8"/>
-      <c r="P1172" s="8" t="s">
+      <c r="O1172" s="52"/>
+      <c r="P1172" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="Q1172" s="8"/>
-      <c r="R1172" s="8"/>
-      <c r="S1172" s="8"/>
-      <c r="T1172" s="8"/>
-      <c r="V1172" s="35" t="s">
+      <c r="Q1172" s="52"/>
+      <c r="R1172" s="52"/>
+      <c r="S1172" s="52"/>
+      <c r="T1172" s="52"/>
+      <c r="U1172" s="52"/>
+      <c r="V1172" s="56" t="s">
         <v>1647</v>
       </c>
     </row>

--- a/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1960DE-A7FB-4FFB-BCD5-6ECE5BC58823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5C8F3B-E75E-4A4F-AC62-B34714828F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6658" uniqueCount="1719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6668" uniqueCount="1721">
   <si>
     <t>Passage</t>
   </si>
@@ -2991,9 +2991,6 @@
     <t>vRuqShNim</t>
   </si>
   <si>
-    <t>praqtya~g~g</t>
-  </si>
-  <si>
     <t>baqstam</t>
   </si>
   <si>
@@ -5103,9 +5100,6 @@
     <t>SiqSAqdhiq</t>
   </si>
   <si>
-    <t>uda~g~g#</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -5172,9 +5166,6 @@
     <t>2.39.33</t>
   </si>
   <si>
-    <t>NRSE</t>
-  </si>
-  <si>
     <t>2.56.14</t>
   </si>
   <si>
@@ -5184,14 +5175,29 @@
     <t>1.27.08</t>
   </si>
   <si>
-    <t>NSE+RSE</t>
+    <t>praqtya~g</t>
+  </si>
+  <si>
+    <t>uda~g#</t>
+  </si>
+  <si>
+    <t>upAyA ~jcitIByAm</t>
+  </si>
+  <si>
+    <t>gRuhNAmyagre agre - alopam</t>
+  </si>
+  <si>
+    <t>agni magre &amp;gre - lopam</t>
+  </si>
+  <si>
+    <t>rAyo &amp;gnim - lopam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5315,8 +5321,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5338,6 +5350,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5369,7 +5393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5522,20 +5546,38 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5819,10 +5861,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2436" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2038" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V2525" sqref="V2525"/>
+      <selection pane="bottomLeft" activeCell="N2045" sqref="N2045"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6459,7 +6501,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>78</v>
@@ -6471,7 +6513,7 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="35" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6827,7 +6869,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="35" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7504,7 +7546,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="35" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7664,7 +7706,7 @@
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
       <c r="V34" s="35" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="35" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8172,7 +8214,7 @@
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
       <c r="V47" s="35" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="48" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8288,7 +8330,7 @@
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
       <c r="V50" s="35" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="51" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8486,7 +8528,7 @@
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
       <c r="V55" s="35" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="56" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8529,7 +8571,7 @@
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
       <c r="V56" s="35" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="57" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8964,7 +9006,7 @@
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
       <c r="V67" s="35" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="68" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9119,7 +9161,7 @@
       <c r="T71" s="11"/>
       <c r="U71" s="11"/>
       <c r="V71" s="35" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="72" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9349,7 +9391,7 @@
       <c r="T77" s="11"/>
       <c r="U77" s="11"/>
       <c r="V77" s="35" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="78" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9431,7 +9473,7 @@
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
       <c r="V79" s="35" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="80" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9505,7 +9547,7 @@
       <c r="T81" s="11"/>
       <c r="U81" s="11"/>
       <c r="V81" s="35" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="82" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9579,7 +9621,7 @@
       <c r="T83" s="11"/>
       <c r="U83" s="11"/>
       <c r="V83" s="35" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="84" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9618,7 +9660,7 @@
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
       <c r="V84" s="35" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="85" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10454,7 +10496,7 @@
       <c r="T108" s="8"/>
       <c r="U108" s="8"/>
       <c r="V108" s="35" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="109" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10664,7 +10706,7 @@
       <c r="T114" s="8"/>
       <c r="U114" s="8"/>
       <c r="V114" s="35" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="115" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10742,7 +10784,7 @@
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
       <c r="V116" s="35" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="117" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10891,7 +10933,7 @@
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
       <c r="V120" s="35" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="121" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11169,7 +11211,7 @@
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
       <c r="V128" s="35" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="129" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11690,7 +11732,7 @@
       <c r="T143" s="8"/>
       <c r="U143" s="8"/>
       <c r="V143" s="35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="144" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11728,7 +11770,7 @@
       <c r="T144" s="8"/>
       <c r="U144" s="8"/>
       <c r="V144" s="35" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="145" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11868,7 +11910,7 @@
       <c r="T148" s="8"/>
       <c r="U148" s="8"/>
       <c r="V148" s="35" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="149" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11895,20 +11937,20 @@
         <f t="shared" si="9"/>
         <v>148</v>
       </c>
-      <c r="N149" s="53" t="s">
+      <c r="N149" s="35" t="s">
         <v>566</v>
       </c>
-      <c r="O149" s="54"/>
-      <c r="P149" s="55" t="s">
+      <c r="O149" s="7"/>
+      <c r="P149" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="Q149" s="55"/>
-      <c r="R149" s="55"/>
-      <c r="S149" s="55"/>
-      <c r="T149" s="55"/>
-      <c r="U149" s="55"/>
+      <c r="Q149" s="8"/>
+      <c r="R149" s="8"/>
+      <c r="S149" s="8"/>
+      <c r="T149" s="8"/>
+      <c r="U149" s="8"/>
       <c r="V149" s="35" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="150" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12080,7 +12122,7 @@
         <v>119</v>
       </c>
       <c r="T154" s="8" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="U154" s="8"/>
       <c r="V154" s="35"/>
@@ -12176,7 +12218,7 @@
         <v>8</v>
       </c>
       <c r="N157" s="35" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="O157" s="8" t="s">
         <v>78</v>
@@ -12190,7 +12232,7 @@
       <c r="T157" s="8"/>
       <c r="U157" s="8"/>
       <c r="V157" s="35" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="158" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12296,7 +12338,7 @@
       <c r="T160" s="8"/>
       <c r="U160" s="8"/>
       <c r="V160" s="35" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="161" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12494,7 +12536,7 @@
         <v>17</v>
       </c>
       <c r="N166" s="35" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="O166" s="7"/>
       <c r="P166" s="8" t="s">
@@ -12506,7 +12548,7 @@
       <c r="T166" s="8"/>
       <c r="U166" s="8"/>
       <c r="V166" s="35" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="167" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12717,7 +12759,7 @@
       <c r="T172" s="8"/>
       <c r="U172" s="8"/>
       <c r="V172" s="35" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="173" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12754,7 +12796,7 @@
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="N173" s="35" t="s">
+      <c r="N173" s="53" t="s">
         <v>268</v>
       </c>
       <c r="O173" s="7"/>
@@ -12802,7 +12844,7 @@
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="N174" s="35" t="s">
+      <c r="N174" s="53" t="s">
         <v>214</v>
       </c>
       <c r="O174" s="8" t="s">
@@ -13102,7 +13144,7 @@
       <c r="T182" s="8"/>
       <c r="U182" s="8"/>
       <c r="V182" s="35" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="183" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13176,7 +13218,7 @@
       <c r="T184" s="8"/>
       <c r="U184" s="8"/>
       <c r="V184" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="185" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13203,7 +13245,7 @@
         <v>36</v>
       </c>
       <c r="N185" s="35" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="O185" s="7"/>
       <c r="P185" s="8" t="s">
@@ -13215,7 +13257,7 @@
       <c r="T185" s="8"/>
       <c r="U185" s="8"/>
       <c r="V185" s="35" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="186" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13254,7 +13296,7 @@
       <c r="T186" s="8"/>
       <c r="U186" s="8"/>
       <c r="V186" s="35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="187" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13293,7 +13335,7 @@
       <c r="T187" s="8"/>
       <c r="U187" s="8"/>
       <c r="V187" s="35" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="188" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13421,7 +13463,7 @@
         <v>42</v>
       </c>
       <c r="N191" s="35" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="O191" s="8" t="s">
         <v>78</v>
@@ -13435,7 +13477,7 @@
       <c r="T191" s="8"/>
       <c r="U191" s="8"/>
       <c r="V191" s="35" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="192" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13473,7 +13515,7 @@
       <c r="T192" s="8"/>
       <c r="U192" s="8"/>
       <c r="V192" s="35" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="193" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13511,7 +13553,7 @@
       <c r="T193" s="8"/>
       <c r="U193" s="8"/>
       <c r="V193" s="35" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="194" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13675,7 +13717,7 @@
         <v>49</v>
       </c>
       <c r="N198" s="35" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="O198" s="7"/>
       <c r="P198" s="8" t="s">
@@ -13687,7 +13729,7 @@
       <c r="T198" s="8"/>
       <c r="U198" s="8"/>
       <c r="V198" s="35" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="199" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13725,7 +13767,7 @@
       <c r="T199" s="8"/>
       <c r="U199" s="8"/>
       <c r="V199" s="35" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="200" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13989,7 +14031,7 @@
       <c r="T206" s="8"/>
       <c r="U206" s="8"/>
       <c r="V206" s="35" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="207" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14104,7 +14146,7 @@
       <c r="T209" s="8"/>
       <c r="U209" s="8"/>
       <c r="V209" s="35" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="210" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14471,7 +14513,7 @@
       <c r="T219" s="8"/>
       <c r="U219" s="8"/>
       <c r="V219" s="35" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="220" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14509,7 +14551,7 @@
       <c r="T220" s="8"/>
       <c r="U220" s="8"/>
       <c r="V220" s="35" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="221" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14921,7 +14963,7 @@
       <c r="T232" s="8"/>
       <c r="U232" s="8"/>
       <c r="V232" s="35" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="233" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15083,7 +15125,7 @@
         <v>88</v>
       </c>
       <c r="N237" s="35" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="O237" s="7"/>
       <c r="P237" s="8" t="s">
@@ -15095,7 +15137,7 @@
       <c r="T237" s="8"/>
       <c r="U237" s="8"/>
       <c r="V237" s="35" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="238" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15365,7 +15407,7 @@
         <v>96</v>
       </c>
       <c r="N245" s="35" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="O245" s="7"/>
       <c r="P245" s="8" t="s">
@@ -15377,7 +15419,7 @@
       <c r="T245" s="8"/>
       <c r="U245" s="8"/>
       <c r="V245" s="35" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="246" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15415,7 +15457,7 @@
       <c r="T246" s="8"/>
       <c r="U246" s="8"/>
       <c r="V246" s="35" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="247" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15795,7 +15837,7 @@
       <c r="T257" s="8"/>
       <c r="U257" s="8"/>
       <c r="V257" s="35" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="258" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16183,7 +16225,7 @@
       <c r="T268" s="8"/>
       <c r="U268" s="8"/>
       <c r="V268" s="35" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="269" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16257,7 +16299,7 @@
       <c r="T270" s="8"/>
       <c r="U270" s="8"/>
       <c r="V270" s="35" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="271" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16295,7 +16337,7 @@
       <c r="T271" s="8"/>
       <c r="U271" s="8"/>
       <c r="V271" s="35" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="272" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16333,7 +16375,7 @@
       <c r="T272" s="8"/>
       <c r="U272" s="8"/>
       <c r="V272" s="35" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="273" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16371,7 +16413,7 @@
       <c r="T273" s="8"/>
       <c r="U273" s="8"/>
       <c r="V273" s="35" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="274" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16397,7 +16439,7 @@
         <v>125</v>
       </c>
       <c r="N274" s="35" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="O274" s="8" t="s">
         <v>78</v>
@@ -16411,7 +16453,7 @@
       <c r="T274" s="8"/>
       <c r="U274" s="8"/>
       <c r="V274" s="35" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="275" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16747,7 +16789,7 @@
       <c r="T283" s="8"/>
       <c r="U283" s="8"/>
       <c r="V283" s="35" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="284" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16773,7 +16815,7 @@
         <v>135</v>
       </c>
       <c r="N284" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="O284" s="7"/>
       <c r="P284" s="8" t="s">
@@ -16785,7 +16827,7 @@
       <c r="T284" s="8"/>
       <c r="U284" s="8"/>
       <c r="V284" s="35" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="285" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16927,7 +16969,7 @@
       <c r="T288" s="8"/>
       <c r="U288" s="8"/>
       <c r="V288" s="35" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="289" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17001,7 +17043,7 @@
       <c r="T290" s="8"/>
       <c r="U290" s="8"/>
       <c r="V290" s="35" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="291" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17028,7 +17070,7 @@
         <v>142</v>
       </c>
       <c r="N291" s="35" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="O291" s="8" t="s">
         <v>78</v>
@@ -17042,7 +17084,7 @@
       <c r="T291" s="8"/>
       <c r="U291" s="8"/>
       <c r="V291" s="35" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="292" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17218,7 +17260,7 @@
       <c r="T296" s="8"/>
       <c r="U296" s="8"/>
       <c r="V296" s="35" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="297" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17457,7 +17499,7 @@
         <v>154</v>
       </c>
       <c r="N303" s="35" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="O303" s="7"/>
       <c r="P303" s="8" t="s">
@@ -17469,7 +17511,7 @@
       <c r="T303" s="8"/>
       <c r="U303" s="8"/>
       <c r="V303" s="35" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="304" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17801,7 +17843,7 @@
         <v>164</v>
       </c>
       <c r="N313" s="35" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="O313" s="7"/>
       <c r="P313" s="8" t="s">
@@ -17815,7 +17857,7 @@
         <v>129</v>
       </c>
       <c r="V313" s="35" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="314" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17921,7 +17963,7 @@
       <c r="T316" s="8"/>
       <c r="U316" s="8"/>
       <c r="V316" s="35" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="317" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17959,7 +18001,7 @@
       <c r="T317" s="8"/>
       <c r="U317" s="8"/>
       <c r="V317" s="35" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="318" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18065,7 +18107,7 @@
       <c r="T320" s="8"/>
       <c r="U320" s="8"/>
       <c r="V320" s="35" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="321" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18103,7 +18145,7 @@
       <c r="T321" s="8"/>
       <c r="U321" s="8"/>
       <c r="V321" s="35" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="322" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18141,7 +18183,7 @@
       <c r="T322" s="8"/>
       <c r="U322" s="8"/>
       <c r="V322" s="35" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="323" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18179,7 +18221,7 @@
       <c r="T323" s="8"/>
       <c r="U323" s="8"/>
       <c r="V323" s="35" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="324" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18211,7 +18253,9 @@
       <c r="P324" s="8"/>
       <c r="Q324" s="8"/>
       <c r="R324" s="8"/>
-      <c r="S324" s="8"/>
+      <c r="S324" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="T324" s="8"/>
       <c r="U324" s="8"/>
       <c r="V324" s="35"/>
@@ -18273,7 +18317,7 @@
         <v>177</v>
       </c>
       <c r="N326" s="35" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="O326" s="7"/>
       <c r="P326" s="8" t="s">
@@ -18285,7 +18329,7 @@
       <c r="T326" s="8"/>
       <c r="U326" s="8"/>
       <c r="V326" s="35" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="327" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18391,7 +18435,7 @@
       <c r="T329" s="8"/>
       <c r="U329" s="8"/>
       <c r="V329" s="35" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="330" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18565,7 +18609,7 @@
       <c r="T334" s="8"/>
       <c r="U334" s="8"/>
       <c r="V334" s="35" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="335" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18947,7 +18991,7 @@
       <c r="T345" s="8"/>
       <c r="U345" s="8"/>
       <c r="V345" s="35" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="346" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19053,7 +19097,7 @@
       <c r="T348" s="8"/>
       <c r="U348" s="8"/>
       <c r="V348" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="349" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19091,7 +19135,7 @@
       <c r="T349" s="8"/>
       <c r="U349" s="8"/>
       <c r="V349" s="35" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="350" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19289,7 +19333,7 @@
         <v>206</v>
       </c>
       <c r="N355" s="35" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="O355" s="7"/>
       <c r="P355" s="8" t="s">
@@ -19301,7 +19345,7 @@
       <c r="T355" s="8"/>
       <c r="U355" s="8"/>
       <c r="V355" s="35" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="356" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19587,7 +19631,7 @@
       <c r="T363" s="8"/>
       <c r="U363" s="8"/>
       <c r="V363" s="35" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="364" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19873,7 +19917,7 @@
       <c r="T371" s="8"/>
       <c r="U371" s="8"/>
       <c r="V371" s="35" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="372" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19980,7 +20024,7 @@
       <c r="T374" s="8"/>
       <c r="U374" s="8"/>
       <c r="V374" s="35" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="375" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20086,7 +20130,7 @@
       <c r="T377" s="8"/>
       <c r="U377" s="8"/>
       <c r="V377" s="35" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="378" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20359,10 +20403,10 @@
       <c r="Q385" s="8"/>
       <c r="R385" s="8"/>
       <c r="S385" s="8" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="T385" s="8" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="U385" s="8"/>
       <c r="V385" s="35"/>
@@ -20621,7 +20665,7 @@
       <c r="T392" s="8"/>
       <c r="U392" s="8"/>
       <c r="V392" s="35" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="393" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20699,7 +20743,7 @@
       <c r="T394" s="8"/>
       <c r="U394" s="8"/>
       <c r="V394" s="35" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="395" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20737,7 +20781,7 @@
       <c r="T395" s="8"/>
       <c r="U395" s="8"/>
       <c r="V395" s="35" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="396" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20809,7 +20853,7 @@
       <c r="T397" s="8"/>
       <c r="U397" s="8"/>
       <c r="V397" s="35" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="398" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20915,7 +20959,7 @@
       <c r="T400" s="8"/>
       <c r="U400" s="8"/>
       <c r="V400" s="35" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="401" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20987,7 +21031,7 @@
       <c r="T402" s="8"/>
       <c r="U402" s="8"/>
       <c r="V402" s="35" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="403" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21059,7 +21103,7 @@
       <c r="T404" s="8"/>
       <c r="U404" s="8"/>
       <c r="V404" s="35" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="405" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21199,7 +21243,7 @@
       <c r="T408" s="8"/>
       <c r="U408" s="8"/>
       <c r="V408" s="35" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="409" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21339,7 +21383,7 @@
       <c r="T412" s="8"/>
       <c r="U412" s="8"/>
       <c r="V412" s="35" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="413" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21685,7 +21729,7 @@
       <c r="T422" s="8"/>
       <c r="U422" s="8"/>
       <c r="V422" s="35" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="423" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21747,7 +21791,7 @@
         <v>275</v>
       </c>
       <c r="N424" s="35" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="O424" s="8" t="s">
         <v>78</v>
@@ -21761,7 +21805,7 @@
       <c r="T424" s="8"/>
       <c r="U424" s="8"/>
       <c r="V424" s="35" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="425" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21899,7 +21943,7 @@
       <c r="T428" s="8"/>
       <c r="U428" s="8"/>
       <c r="V428" s="35" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="429" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21937,7 +21981,7 @@
       <c r="T429" s="8"/>
       <c r="U429" s="8"/>
       <c r="V429" s="35" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="430" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21997,7 +22041,7 @@
         <v>7</v>
       </c>
       <c r="N431" s="35" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="O431" s="8" t="s">
         <v>78</v>
@@ -22011,7 +22055,7 @@
       <c r="T431" s="8"/>
       <c r="U431" s="8"/>
       <c r="V431" s="35" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="432" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22221,7 +22265,7 @@
       <c r="T437" s="8"/>
       <c r="U437" s="8"/>
       <c r="V437" s="35" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="438" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22259,7 +22303,7 @@
       <c r="T438" s="8"/>
       <c r="U438" s="8"/>
       <c r="V438" s="35" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="439" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22297,7 +22341,7 @@
       <c r="T439" s="8"/>
       <c r="U439" s="8"/>
       <c r="V439" s="35" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="440" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22425,7 +22469,7 @@
         <v>19</v>
       </c>
       <c r="N443" s="35" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="O443" s="7"/>
       <c r="P443" s="8" t="s">
@@ -22437,7 +22481,7 @@
       <c r="T443" s="8"/>
       <c r="U443" s="8"/>
       <c r="V443" s="35" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="444" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22475,7 +22519,7 @@
       <c r="T444" s="8"/>
       <c r="U444" s="8"/>
       <c r="V444" s="35" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="445" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22513,7 +22557,7 @@
       <c r="T445" s="8"/>
       <c r="U445" s="8"/>
       <c r="V445" s="35" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="446" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22653,7 +22697,7 @@
       <c r="T449" s="8"/>
       <c r="U449" s="8"/>
       <c r="V449" s="35" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="450" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22759,7 +22803,7 @@
         <v>106</v>
       </c>
       <c r="T452" s="8" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="U452" s="8"/>
       <c r="V452" s="35"/>
@@ -23109,7 +23153,7 @@
       <c r="T462" s="8"/>
       <c r="U462" s="8"/>
       <c r="V462" s="35" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="463" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23616,7 +23660,7 @@
       <c r="T476" s="8"/>
       <c r="U476" s="8"/>
       <c r="V476" s="35" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="477" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23722,7 +23766,7 @@
       <c r="T479" s="8"/>
       <c r="U479" s="8"/>
       <c r="V479" s="35" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="480" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23830,7 +23874,7 @@
       <c r="T482" s="8"/>
       <c r="U482" s="8"/>
       <c r="V482" s="35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="483" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23868,7 +23912,7 @@
       <c r="T483" s="8"/>
       <c r="U483" s="8"/>
       <c r="V483" s="35" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="484" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23996,7 +24040,7 @@
         <v>63</v>
       </c>
       <c r="N487" s="35" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O487" s="7"/>
       <c r="P487" s="8" t="s">
@@ -24008,7 +24052,7 @@
       <c r="T487" s="8"/>
       <c r="U487" s="8"/>
       <c r="V487" s="35" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="488" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24138,7 +24182,7 @@
         <v>67</v>
       </c>
       <c r="N491" s="35" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="O491" s="7"/>
       <c r="P491" s="8" t="s">
@@ -24150,7 +24194,7 @@
       <c r="T491" s="8"/>
       <c r="U491" s="8"/>
       <c r="V491" s="35" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="492" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24188,7 +24232,7 @@
       <c r="T492" s="8"/>
       <c r="U492" s="8"/>
       <c r="V492" s="35" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="493" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24430,7 +24474,7 @@
       <c r="T499" s="8"/>
       <c r="U499" s="8"/>
       <c r="V499" s="36" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="500" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24928,7 +24972,7 @@
       <c r="T513" s="8"/>
       <c r="U513" s="8"/>
       <c r="V513" s="35" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="514" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25102,7 +25146,7 @@
       <c r="T518" s="8"/>
       <c r="U518" s="8"/>
       <c r="V518" s="35" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="519" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25278,7 +25322,7 @@
       <c r="T523" s="8"/>
       <c r="U523" s="8"/>
       <c r="V523" s="35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="524" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25383,7 +25427,7 @@
       <c r="T526" s="8"/>
       <c r="U526" s="8"/>
       <c r="V526" s="35" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="527" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25421,7 +25465,7 @@
       <c r="T527" s="8"/>
       <c r="U527" s="8"/>
       <c r="V527" s="35" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="528" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25493,7 +25537,7 @@
       <c r="T529" s="8"/>
       <c r="U529" s="8"/>
       <c r="V529" s="35" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="530" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25941,7 +25985,7 @@
       <c r="T542" s="8"/>
       <c r="U542" s="8"/>
       <c r="V542" s="35" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="543" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26183,7 +26227,7 @@
       <c r="T549" s="8"/>
       <c r="U549" s="8"/>
       <c r="V549" s="35" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="550" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26310,7 +26354,7 @@
         <f t="shared" si="27"/>
         <v>129</v>
       </c>
-      <c r="N553" s="51" t="s">
+      <c r="N553" s="53" t="s">
         <v>271</v>
       </c>
       <c r="O553" s="7"/>
@@ -26346,7 +26390,7 @@
         <f t="shared" si="27"/>
         <v>130</v>
       </c>
-      <c r="N554" s="35" t="s">
+      <c r="N554" s="53" t="s">
         <v>490</v>
       </c>
       <c r="O554" s="7"/>
@@ -27076,7 +27120,7 @@
       <c r="T575" s="8"/>
       <c r="U575" s="8"/>
       <c r="V575" s="35" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="576" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27320,7 +27364,7 @@
       <c r="T582" s="8"/>
       <c r="U582" s="8"/>
       <c r="V582" s="35" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="583" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27356,7 +27400,7 @@
         <v>106</v>
       </c>
       <c r="T583" s="8" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="U583" s="8"/>
       <c r="V583" s="35"/>
@@ -27384,7 +27428,7 @@
         <v>160</v>
       </c>
       <c r="N584" s="35" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="O584" s="8" t="s">
         <v>78</v>
@@ -27396,7 +27440,7 @@
       <c r="T584" s="8"/>
       <c r="U584" s="8"/>
       <c r="V584" s="35" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="585" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28284,10 +28328,10 @@
       <c r="Q610" s="8"/>
       <c r="R610" s="8"/>
       <c r="S610" s="8" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="T610" s="8" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="U610" s="8"/>
       <c r="V610" s="35"/>
@@ -28603,7 +28647,7 @@
     </row>
     <row r="620" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A620" s="8" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B620" s="45"/>
       <c r="D620" s="17"/>
@@ -28638,7 +28682,7 @@
       <c r="T620" s="8"/>
       <c r="U620" s="8"/>
       <c r="V620" s="35" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="621" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29036,7 +29080,7 @@
       <c r="T631" s="14"/>
       <c r="U631" s="14"/>
       <c r="V631" s="35" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="632" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29074,7 +29118,7 @@
       <c r="T632" s="8"/>
       <c r="U632" s="8"/>
       <c r="V632" s="35" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="633" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29282,7 +29326,7 @@
       <c r="T638" s="8"/>
       <c r="U638" s="8"/>
       <c r="V638" s="35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="639" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29700,7 +29744,7 @@
       <c r="T650" s="8"/>
       <c r="U650" s="8"/>
       <c r="V650" s="35" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="651" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29739,7 +29783,7 @@
       <c r="T651" s="8"/>
       <c r="U651" s="8"/>
       <c r="V651" s="36" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="652" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29961,7 +30005,7 @@
       <c r="T657" s="8"/>
       <c r="U657" s="8"/>
       <c r="V657" s="35" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="658" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30395,7 +30439,7 @@
       <c r="S670" s="8"/>
       <c r="T670" s="8"/>
       <c r="V670" s="35" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="671" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30518,7 +30562,7 @@
       <c r="S674" s="8"/>
       <c r="T674" s="8"/>
       <c r="V674" s="35" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="675" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30704,7 +30748,7 @@
       <c r="S680" s="8"/>
       <c r="T680" s="8"/>
       <c r="V680" s="35" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="681" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31340,7 +31384,7 @@
       <c r="S701" s="8"/>
       <c r="T701" s="8"/>
       <c r="V701" s="35" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="702" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31464,7 +31508,7 @@
       <c r="S705" s="8"/>
       <c r="T705" s="8"/>
       <c r="V705" s="35" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="706" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31535,7 +31579,7 @@
     </row>
     <row r="708" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A708" s="8" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="G708" s="46" t="s">
         <v>152</v>
@@ -31574,7 +31618,7 @@
     </row>
     <row r="709" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A709" s="8" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="G709" s="46" t="s">
         <v>152</v>
@@ -31648,7 +31692,7 @@
       <c r="S710" s="8"/>
       <c r="T710" s="8"/>
       <c r="V710" s="35" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="711" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32138,7 +32182,7 @@
       <c r="S726" s="8"/>
       <c r="T726" s="8"/>
       <c r="V726" s="35" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="727" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32421,7 +32465,7 @@
       <c r="S735" s="8"/>
       <c r="T735" s="8"/>
       <c r="V735" s="35" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="736" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32458,7 +32502,7 @@
       <c r="S736" s="8"/>
       <c r="T736" s="8"/>
       <c r="V736" s="35" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="737" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32563,7 +32607,7 @@
       <c r="S739" s="8"/>
       <c r="T739" s="8"/>
       <c r="V739" s="35" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="740" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32687,7 +32731,7 @@
       <c r="S743" s="8"/>
       <c r="T743" s="8"/>
       <c r="V743" s="35" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="744" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32751,7 +32795,7 @@
       <c r="S745" s="8"/>
       <c r="T745" s="8"/>
       <c r="V745" s="35" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="746" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32774,7 +32818,7 @@
         <v>322</v>
       </c>
       <c r="N746" s="35" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="O746" s="7"/>
       <c r="P746" s="8" t="s">
@@ -32788,7 +32832,7 @@
         <v>129</v>
       </c>
       <c r="V746" s="35" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="747" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33053,7 +33097,7 @@
         <v>331</v>
       </c>
       <c r="N755" s="35" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="O755" s="8" t="s">
         <v>78</v>
@@ -33066,7 +33110,7 @@
       <c r="S755" s="8"/>
       <c r="T755" s="8"/>
       <c r="V755" s="35" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="756" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33367,7 +33411,9 @@
       <c r="N765" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="O765" s="7"/>
+      <c r="O765" s="50" t="s">
+        <v>81</v>
+      </c>
       <c r="P765" s="8"/>
       <c r="Q765" s="8"/>
       <c r="R765" s="8"/>
@@ -33427,7 +33473,7 @@
         <v>343</v>
       </c>
       <c r="N767" s="35" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="O767" s="7"/>
       <c r="P767" s="8" t="s">
@@ -33438,7 +33484,7 @@
       <c r="S767" s="8"/>
       <c r="T767" s="8"/>
       <c r="V767" s="35" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="768" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33502,7 +33548,7 @@
       <c r="S769" s="8"/>
       <c r="T769" s="8"/>
       <c r="V769" s="35" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="770" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33597,7 +33643,7 @@
       <c r="S772" s="8"/>
       <c r="T772" s="8"/>
       <c r="V772" s="35" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="773" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33631,7 +33677,7 @@
       <c r="S773" s="8"/>
       <c r="T773" s="8"/>
       <c r="V773" s="35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="774" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33684,7 +33730,7 @@
         <v>351</v>
       </c>
       <c r="N775" s="35" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="O775" s="8" t="s">
         <v>78</v>
@@ -33697,7 +33743,7 @@
       <c r="S775" s="8"/>
       <c r="T775" s="8"/>
       <c r="V775" s="35" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="776" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33791,7 +33837,7 @@
       <c r="S778" s="8"/>
       <c r="T778" s="8"/>
       <c r="V778" s="35" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="779" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33998,7 +34044,7 @@
         <v>361</v>
       </c>
       <c r="N785" s="35" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="O785" s="7"/>
       <c r="P785" s="8" t="s">
@@ -34009,7 +34055,7 @@
       <c r="S785" s="8"/>
       <c r="T785" s="8"/>
       <c r="V785" s="35" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="786" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34046,7 +34092,7 @@
       <c r="S786" s="8"/>
       <c r="T786" s="8"/>
       <c r="V786" s="35" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="787" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34313,7 +34359,7 @@
       <c r="S794" s="8"/>
       <c r="T794" s="8"/>
       <c r="V794" s="35" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="795" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34366,7 +34412,7 @@
         <v>372</v>
       </c>
       <c r="N796" s="35" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="O796" s="7"/>
       <c r="P796" s="8" t="s">
@@ -34380,7 +34426,7 @@
         <v>129</v>
       </c>
       <c r="V796" s="35" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="797" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34444,7 +34490,7 @@
       <c r="S798" s="8"/>
       <c r="T798" s="8"/>
       <c r="V798" s="35" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="799" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34689,7 +34735,7 @@
         <v>382</v>
       </c>
       <c r="N806" s="35" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="O806" s="7"/>
       <c r="P806" s="8" t="s">
@@ -34700,7 +34746,7 @@
       <c r="S806" s="8"/>
       <c r="T806" s="8"/>
       <c r="V806" s="35" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="807" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34734,7 +34780,7 @@
       <c r="S807" s="8"/>
       <c r="T807" s="8"/>
       <c r="V807" s="35" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="808" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34980,7 +35026,7 @@
       <c r="S815" s="8"/>
       <c r="T815" s="8"/>
       <c r="V815" s="35" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="816" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35315,7 +35361,7 @@
     </row>
     <row r="827" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A827" s="8" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="I827" s="38" t="s">
         <v>35</v>
@@ -35336,7 +35382,7 @@
         <v>403</v>
       </c>
       <c r="N827" s="35" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="O827" s="7"/>
       <c r="P827" s="8" t="s">
@@ -35347,7 +35393,7 @@
       <c r="S827" s="8"/>
       <c r="T827" s="8"/>
       <c r="V827" s="35" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="828" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35739,7 +35785,7 @@
       <c r="S840" s="8"/>
       <c r="T840" s="8"/>
       <c r="V840" s="35" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="841" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35803,7 +35849,7 @@
       <c r="S842" s="8"/>
       <c r="T842" s="8"/>
       <c r="V842" s="35" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="843" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35899,7 +35945,7 @@
         <v>163</v>
       </c>
       <c r="T845" s="8" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="V845" s="35"/>
     </row>
@@ -36087,7 +36133,7 @@
         <v>119</v>
       </c>
       <c r="T851" s="8" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="V851" s="35"/>
     </row>
@@ -36122,7 +36168,7 @@
       <c r="S852" s="8"/>
       <c r="T852" s="8"/>
       <c r="V852" s="35" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="853" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36636,7 +36682,7 @@
       <c r="S869" s="8"/>
       <c r="T869" s="8"/>
       <c r="V869" s="35" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="870" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37364,7 +37410,7 @@
       <c r="S893" s="8"/>
       <c r="T893" s="8"/>
       <c r="V893" s="35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="894" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37608,7 +37654,7 @@
         <v>119</v>
       </c>
       <c r="T901" s="8" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="V901" s="35"/>
     </row>
@@ -37736,7 +37782,7 @@
         <v>119</v>
       </c>
       <c r="T905" s="8" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="V905" s="35"/>
     </row>
@@ -37866,7 +37912,7 @@
         <v>119</v>
       </c>
       <c r="T909" s="8" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="V909" s="35"/>
     </row>
@@ -37993,7 +38039,7 @@
         <v>119</v>
       </c>
       <c r="T913" s="8" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="V913" s="35"/>
     </row>
@@ -38117,7 +38163,7 @@
         <v>119</v>
       </c>
       <c r="T917" s="8" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="V917" s="35"/>
     </row>
@@ -38451,7 +38497,7 @@
       <c r="S928" s="8"/>
       <c r="T928" s="8"/>
       <c r="V928" s="35" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="929" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38545,7 +38591,7 @@
       <c r="S931" s="8"/>
       <c r="T931" s="8"/>
       <c r="V931" s="35" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="932" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38609,7 +38655,7 @@
       <c r="S933" s="8"/>
       <c r="T933" s="8"/>
       <c r="V933" s="35" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="934" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38833,10 +38879,10 @@
       <c r="Q940" s="8"/>
       <c r="R940" s="8"/>
       <c r="S940" s="8" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="T940" s="8" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="V940" s="35"/>
     </row>
@@ -38910,7 +38956,7 @@
       <c r="S942" s="8"/>
       <c r="T942" s="8"/>
       <c r="V942" s="35" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="943" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39307,7 +39353,7 @@
       <c r="S955" s="8"/>
       <c r="T955" s="8"/>
       <c r="V955" s="35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="956" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39643,7 +39689,7 @@
       <c r="S966" s="8"/>
       <c r="T966" s="8"/>
       <c r="V966" s="35" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="967" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40464,7 +40510,7 @@
       <c r="S992" s="8"/>
       <c r="T992" s="8"/>
       <c r="V992" s="35" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="993" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40922,7 +40968,7 @@
       <c r="S1006" s="8"/>
       <c r="T1006" s="8"/>
       <c r="V1006" s="35" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1007" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41218,7 +41264,7 @@
       <c r="S1015" s="8"/>
       <c r="T1015" s="8"/>
       <c r="V1015" s="35" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1016" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41440,7 +41486,7 @@
       <c r="S1022" s="8"/>
       <c r="T1022" s="8"/>
       <c r="V1022" s="35" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1023" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41720,7 +41766,7 @@
       <c r="S1031" s="8"/>
       <c r="T1031" s="8"/>
       <c r="V1031" s="35" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1032" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42152,7 +42198,7 @@
       <c r="S1045" s="8"/>
       <c r="T1045" s="8"/>
       <c r="V1045" s="35" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1046" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43053,7 +43099,7 @@
       <c r="S1074" s="8"/>
       <c r="T1074" s="8"/>
       <c r="V1074" s="35" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1075" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43488,7 +43534,7 @@
       <c r="S1088" s="8"/>
       <c r="T1088" s="8"/>
       <c r="V1088" s="35" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1089" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44295,7 +44341,7 @@
       <c r="S1114" s="8"/>
       <c r="T1114" s="8"/>
       <c r="V1114" s="35" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1115" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44359,7 +44405,7 @@
       <c r="S1116" s="8"/>
       <c r="T1116" s="8"/>
       <c r="V1116" s="35" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1117" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44484,7 +44530,7 @@
       <c r="S1120" s="8"/>
       <c r="T1120" s="8"/>
       <c r="V1120" s="35" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1121" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44519,7 +44565,7 @@
       <c r="S1121" s="8"/>
       <c r="T1121" s="8"/>
       <c r="V1121" s="35" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1122" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44587,7 +44633,7 @@
       <c r="S1123" s="8"/>
       <c r="T1123" s="8"/>
       <c r="V1123" s="35" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1124" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44624,7 +44670,7 @@
       <c r="S1124" s="8"/>
       <c r="T1124" s="8"/>
       <c r="V1124" s="35" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1125" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44661,7 +44707,7 @@
       <c r="S1125" s="8"/>
       <c r="T1125" s="8"/>
       <c r="V1125" s="35" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1126" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44795,7 +44841,7 @@
         <v>106</v>
       </c>
       <c r="T1129" s="8" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="V1129" s="35"/>
     </row>
@@ -45031,7 +45077,7 @@
       <c r="T1136" s="8"/>
       <c r="V1136" s="35"/>
     </row>
-    <row r="1137" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1137" s="42" t="s">
         <v>107</v>
       </c>
@@ -45064,7 +45110,7 @@
       <c r="T1137" s="8"/>
       <c r="V1137" s="35"/>
     </row>
-    <row r="1138" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1138" s="42" t="s">
         <v>107</v>
       </c>
@@ -45097,7 +45143,7 @@
       <c r="T1138" s="8"/>
       <c r="V1138" s="35"/>
     </row>
-    <row r="1139" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1139" s="42" t="s">
         <v>107</v>
       </c>
@@ -45131,10 +45177,10 @@
       <c r="S1139" s="8"/>
       <c r="T1139" s="8"/>
       <c r="V1139" s="35" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="1140" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1140" s="42" t="s">
         <v>107</v>
       </c>
@@ -45167,7 +45213,7 @@
       <c r="T1140" s="8"/>
       <c r="V1140" s="35"/>
     </row>
-    <row r="1141" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1141" s="42" t="s">
         <v>107</v>
       </c>
@@ -45200,7 +45246,7 @@
       <c r="T1141" s="8"/>
       <c r="V1141" s="35"/>
     </row>
-    <row r="1142" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1142" s="42" t="s">
         <v>107</v>
       </c>
@@ -45233,7 +45279,7 @@
       <c r="T1142" s="8"/>
       <c r="V1142" s="35"/>
     </row>
-    <row r="1143" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1143" s="42" t="s">
         <v>107</v>
       </c>
@@ -45266,7 +45312,7 @@
       <c r="T1143" s="8"/>
       <c r="V1143" s="35"/>
     </row>
-    <row r="1144" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1144" s="38" t="s">
         <v>42</v>
       </c>
@@ -45296,11 +45342,11 @@
         <v>106</v>
       </c>
       <c r="T1144" s="8" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="V1144" s="35"/>
     </row>
-    <row r="1145" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1145" s="38" t="s">
         <v>42</v>
       </c>
@@ -45330,7 +45376,7 @@
       <c r="T1145" s="8"/>
       <c r="V1145" s="35"/>
     </row>
-    <row r="1146" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1146" s="42" t="s">
         <v>108</v>
       </c>
@@ -45352,7 +45398,7 @@
         <f t="shared" si="54"/>
         <v>319</v>
       </c>
-      <c r="N1146" s="35" t="s">
+      <c r="N1146" s="54" t="s">
         <v>698</v>
       </c>
       <c r="O1146" s="8" t="s">
@@ -45364,10 +45410,13 @@
       <c r="S1146" s="8"/>
       <c r="T1146" s="8"/>
       <c r="V1146" s="35" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="1147" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1147" s="55" t="s">
+        <v>1717</v>
+      </c>
       <c r="H1147" s="42" t="s">
         <v>108</v>
       </c>
@@ -45389,7 +45438,7 @@
         <f t="shared" si="54"/>
         <v>320</v>
       </c>
-      <c r="N1147" s="35" t="s">
+      <c r="N1147" s="54" t="s">
         <v>699</v>
       </c>
       <c r="O1147" s="8" t="s">
@@ -45401,10 +45450,10 @@
       <c r="S1147" s="8"/>
       <c r="T1147" s="8"/>
       <c r="V1147" s="35" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1148" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1148" s="23"/>
       <c r="I1148" s="38" t="s">
         <v>42</v>
@@ -45435,7 +45484,7 @@
       <c r="T1148" s="8"/>
       <c r="V1148" s="35"/>
     </row>
-    <row r="1149" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1149" s="23"/>
       <c r="I1149" s="38" t="s">
         <v>42</v>
@@ -45467,10 +45516,10 @@
       <c r="S1149" s="8"/>
       <c r="T1149" s="8"/>
       <c r="V1149" s="35" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="1150" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1150" s="23"/>
       <c r="I1150" s="38" t="s">
         <v>42</v>
@@ -45503,7 +45552,7 @@
       <c r="T1150" s="8"/>
       <c r="V1150" s="35"/>
     </row>
-    <row r="1151" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1151" s="23"/>
       <c r="I1151" s="38" t="s">
         <v>42</v>
@@ -45534,7 +45583,7 @@
       <c r="T1151" s="8"/>
       <c r="V1151" s="35"/>
     </row>
-    <row r="1152" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="D1152" s="29"/>
       <c r="H1152" s="23"/>
       <c r="I1152" s="38" t="s">
@@ -46039,7 +46088,7 @@
       <c r="S1167" s="8"/>
       <c r="T1167" s="8"/>
       <c r="V1167" s="35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1168" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46164,7 +46213,7 @@
     </row>
     <row r="1172" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1172" s="8" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="I1172" s="38" t="s">
         <v>42</v>
@@ -46184,20 +46233,19 @@
         <f t="shared" si="57"/>
         <v>345</v>
       </c>
-      <c r="N1172" s="56" t="s">
+      <c r="N1172" s="35" t="s">
         <v>770</v>
       </c>
-      <c r="O1172" s="52"/>
-      <c r="P1172" s="52" t="s">
+      <c r="O1172" s="8"/>
+      <c r="P1172" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="Q1172" s="52"/>
-      <c r="R1172" s="52"/>
-      <c r="S1172" s="52"/>
-      <c r="T1172" s="52"/>
-      <c r="U1172" s="52"/>
-      <c r="V1172" s="56" t="s">
-        <v>1647</v>
+      <c r="Q1172" s="8"/>
+      <c r="R1172" s="8"/>
+      <c r="S1172" s="8"/>
+      <c r="T1172" s="8"/>
+      <c r="V1172" s="35" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="1173" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46349,7 +46397,7 @@
       <c r="S1177" s="8"/>
       <c r="T1177" s="8"/>
       <c r="V1177" s="35" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1178" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46655,7 +46703,7 @@
       <c r="S1187" s="8"/>
       <c r="T1187" s="8"/>
       <c r="V1187" s="35" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1188" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46749,7 +46797,7 @@
       <c r="S1190" s="8"/>
       <c r="T1190" s="8"/>
       <c r="V1190" s="35" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1191" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47325,7 +47373,7 @@
       <c r="S1209" s="8"/>
       <c r="T1209" s="8"/>
       <c r="V1209" s="35" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1210" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47449,7 +47497,7 @@
       <c r="S1213" s="8"/>
       <c r="T1213" s="8"/>
       <c r="V1213" s="35" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1214" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48146,7 +48194,7 @@
         <v>119</v>
       </c>
       <c r="T1236" s="8" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="V1236" s="35"/>
     </row>
@@ -48210,7 +48258,7 @@
         <v>119</v>
       </c>
       <c r="T1238" s="8" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="V1238" s="35"/>
     </row>
@@ -48635,7 +48683,7 @@
       <c r="S1252" s="8"/>
       <c r="T1252" s="8"/>
       <c r="V1252" s="35" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1253" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48729,7 +48777,7 @@
       <c r="S1255" s="8"/>
       <c r="T1255" s="8"/>
       <c r="V1255" s="35" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1256" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48823,7 +48871,7 @@
       <c r="S1258" s="8"/>
       <c r="T1258" s="8"/>
       <c r="V1258" s="35" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1259" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48857,7 +48905,7 @@
       <c r="S1259" s="8"/>
       <c r="T1259" s="8"/>
       <c r="V1259" s="35" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1260" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48891,7 +48939,7 @@
       <c r="S1260" s="8"/>
       <c r="T1260" s="8"/>
       <c r="V1260" s="35" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1261" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48925,7 +48973,7 @@
       <c r="S1261" s="8"/>
       <c r="T1261" s="8"/>
       <c r="V1261" s="35" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1262" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49111,7 +49159,7 @@
       <c r="S1267" s="8"/>
       <c r="T1267" s="8"/>
       <c r="V1267" s="35" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1268" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49240,7 +49288,7 @@
       <c r="S1271" s="8"/>
       <c r="T1271" s="8"/>
       <c r="V1271" s="35" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1272" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49274,7 +49322,7 @@
       <c r="S1272" s="8"/>
       <c r="T1272" s="8"/>
       <c r="V1272" s="35" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1273" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49307,7 +49355,7 @@
       <c r="S1273" s="8"/>
       <c r="T1273" s="8"/>
       <c r="V1273" s="35" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1274" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49341,7 +49389,7 @@
       <c r="S1274" s="8"/>
       <c r="T1274" s="8"/>
       <c r="V1274" s="35" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1275" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49555,7 +49603,7 @@
       <c r="S1281" s="8"/>
       <c r="T1281" s="8"/>
       <c r="V1281" s="35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1282" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49867,7 +49915,7 @@
         <f t="shared" si="63"/>
         <v>119</v>
       </c>
-      <c r="N1291" s="35" t="s">
+      <c r="N1291" s="53" t="s">
         <v>253</v>
       </c>
       <c r="O1291" s="8"/>
@@ -49877,7 +49925,7 @@
       <c r="S1291" s="8"/>
       <c r="T1291" s="8"/>
       <c r="U1291" s="8" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="V1291" s="35"/>
     </row>
@@ -49909,7 +49957,7 @@
         <f t="shared" si="63"/>
         <v>120</v>
       </c>
-      <c r="N1292" s="35" t="s">
+      <c r="N1292" s="53" t="s">
         <v>747</v>
       </c>
       <c r="O1292" s="7"/>
@@ -49981,7 +50029,7 @@
       <c r="S1294" s="8"/>
       <c r="T1294" s="8"/>
       <c r="V1294" s="35" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1295" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50045,7 +50093,7 @@
       <c r="S1296" s="8"/>
       <c r="T1296" s="8"/>
       <c r="V1296" s="35" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1297" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50068,7 +50116,7 @@
         <v>125</v>
       </c>
       <c r="N1297" s="35" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="O1297" s="8" t="s">
         <v>78</v>
@@ -50081,7 +50129,7 @@
       <c r="S1297" s="8"/>
       <c r="T1297" s="8"/>
       <c r="V1297" s="35" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1298" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50258,7 +50306,7 @@
         <v>131</v>
       </c>
       <c r="N1303" s="35" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="O1303" s="7"/>
       <c r="P1303" s="8" t="s">
@@ -50269,7 +50317,7 @@
       <c r="S1303" s="8"/>
       <c r="T1303" s="8"/>
       <c r="V1303" s="35" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1304" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50554,7 +50602,7 @@
       <c r="S1312" s="8"/>
       <c r="T1312" s="8"/>
       <c r="V1312" s="35" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1313" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50589,7 +50637,7 @@
       <c r="S1313" s="8"/>
       <c r="T1313" s="8"/>
       <c r="V1313" s="35" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1314" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50768,7 +50816,7 @@
         <v>147</v>
       </c>
       <c r="N1319" s="35" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="O1319" s="7"/>
       <c r="P1319" s="8" t="s">
@@ -50779,7 +50827,7 @@
       <c r="S1319" s="8"/>
       <c r="T1319" s="8"/>
       <c r="V1319" s="35" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1320" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50969,7 +51017,7 @@
       <c r="S1325" s="8"/>
       <c r="T1325" s="8"/>
       <c r="V1325" s="35" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1326" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51030,7 +51078,7 @@
         <v>155</v>
       </c>
       <c r="N1327" s="35" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="O1327" s="8"/>
       <c r="P1327" s="8" t="s">
@@ -51041,7 +51089,7 @@
       <c r="S1327" s="8"/>
       <c r="T1327" s="8"/>
       <c r="V1327" s="35" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1328" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51278,7 +51326,7 @@
       <c r="S1334" s="8"/>
       <c r="T1334" s="8"/>
       <c r="V1334" s="35" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1335" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51747,7 +51795,7 @@
       <c r="S1349" s="8"/>
       <c r="T1349" s="8"/>
       <c r="V1349" s="35" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1350" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52095,7 +52143,7 @@
       <c r="S1360" s="8"/>
       <c r="T1360" s="8"/>
       <c r="V1360" s="35" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1361" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52239,7 +52287,7 @@
       <c r="S1364" s="8"/>
       <c r="T1364" s="8"/>
       <c r="V1364" s="35" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1365" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52747,7 +52795,7 @@
       <c r="S1380" s="8"/>
       <c r="T1380" s="8"/>
       <c r="V1380" s="35" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1381" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53312,7 +53360,7 @@
       <c r="S1398" s="8"/>
       <c r="T1398" s="8"/>
       <c r="V1398" s="35" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1399" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53347,7 +53395,7 @@
       <c r="S1399" s="8"/>
       <c r="T1399" s="8"/>
       <c r="V1399" s="35" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1400" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53445,7 +53493,7 @@
       <c r="S1402" s="8"/>
       <c r="T1402" s="8"/>
       <c r="V1402" s="36" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1403" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53735,7 +53783,7 @@
       <c r="S1411" s="8"/>
       <c r="T1411" s="8"/>
       <c r="V1411" s="35" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1412" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53807,7 +53855,7 @@
       <c r="S1413" s="8"/>
       <c r="T1413" s="8"/>
       <c r="V1413" s="35" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1414" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54039,7 +54087,7 @@
       <c r="S1420" s="8"/>
       <c r="T1420" s="8"/>
       <c r="V1420" s="35" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1421" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54135,7 +54183,7 @@
       <c r="S1423" s="8"/>
       <c r="T1423" s="8"/>
       <c r="V1423" s="35" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1424" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54449,7 +54497,7 @@
       <c r="S1433" s="8"/>
       <c r="T1433" s="8"/>
       <c r="V1433" s="35" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1434" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54577,7 +54625,7 @@
       <c r="S1437" s="8"/>
       <c r="T1437" s="8"/>
       <c r="V1437" s="35" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1438" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54643,7 +54691,7 @@
       <c r="S1439" s="8"/>
       <c r="T1439" s="8"/>
       <c r="V1439" s="35" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1440" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54709,7 +54757,7 @@
       <c r="S1441" s="8"/>
       <c r="T1441" s="8"/>
       <c r="V1441" s="35" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1442" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54868,7 +54916,7 @@
       <c r="S1446" s="8"/>
       <c r="T1446" s="8"/>
       <c r="V1446" s="35" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1447" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54996,7 +55044,7 @@
       <c r="S1450" s="8"/>
       <c r="T1450" s="8"/>
       <c r="V1450" s="35" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1451" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55219,7 +55267,7 @@
       <c r="S1457" s="8"/>
       <c r="T1457" s="8"/>
       <c r="V1457" s="35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1458" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55323,7 +55371,7 @@
       <c r="S1460" s="11"/>
       <c r="T1460" s="11"/>
       <c r="V1460" s="35" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1461" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55768,7 +55816,7 @@
     </row>
     <row r="1475" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1475" s="8" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C1475" s="30"/>
       <c r="H1475" s="26"/>
@@ -55802,7 +55850,7 @@
       <c r="S1475" s="8"/>
       <c r="T1475" s="8"/>
       <c r="V1475" s="35" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1476" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55868,7 +55916,7 @@
       <c r="S1477" s="8"/>
       <c r="T1477" s="8"/>
       <c r="V1477" s="35" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1478" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55904,7 +55952,7 @@
       <c r="S1478" s="8"/>
       <c r="T1478" s="8"/>
       <c r="V1478" s="35" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1479" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56066,7 +56114,7 @@
       <c r="S1483" s="8"/>
       <c r="T1483" s="8"/>
       <c r="V1483" s="35" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1484" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56132,7 +56180,7 @@
       <c r="S1485" s="8"/>
       <c r="T1485" s="8"/>
       <c r="V1485" s="35" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1486" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56196,10 +56244,10 @@
       <c r="Q1487" s="8"/>
       <c r="R1487" s="8"/>
       <c r="S1487" s="8" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="T1487" s="8" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="V1487" s="35"/>
     </row>
@@ -56299,7 +56347,7 @@
       <c r="S1490" s="8"/>
       <c r="T1490" s="8"/>
       <c r="V1490" s="35" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1491" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56427,7 +56475,7 @@
       <c r="S1494" s="8"/>
       <c r="T1494" s="8"/>
       <c r="V1494" s="35" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1495" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56482,7 +56530,7 @@
         <v>21</v>
       </c>
       <c r="N1496" s="35" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="O1496" s="7"/>
       <c r="P1496" s="8" t="s">
@@ -56493,7 +56541,7 @@
       <c r="S1496" s="8"/>
       <c r="T1496" s="8"/>
       <c r="V1496" s="35" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1497" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56565,7 +56613,7 @@
       <c r="S1498" s="8"/>
       <c r="T1498" s="8"/>
       <c r="V1498" s="35" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1499" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56734,7 +56782,7 @@
       <c r="S1503" s="8"/>
       <c r="T1503" s="8"/>
       <c r="V1503" s="35" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1504" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56769,7 +56817,7 @@
       <c r="S1504" s="8"/>
       <c r="T1504" s="8"/>
       <c r="V1504" s="35" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1505" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56793,7 +56841,7 @@
         <v>30</v>
       </c>
       <c r="N1505" s="35" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="O1505" s="8" t="s">
         <v>78</v>
@@ -56806,7 +56854,7 @@
       <c r="S1505" s="8"/>
       <c r="T1505" s="8"/>
       <c r="V1505" s="35" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1506" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56841,7 +56889,7 @@
       <c r="S1506" s="8"/>
       <c r="T1506" s="8"/>
       <c r="V1506" s="35" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1507" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56876,7 +56924,7 @@
       <c r="S1507" s="8"/>
       <c r="T1507" s="8"/>
       <c r="V1507" s="35" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1508" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57091,7 +57139,7 @@
         <v>39</v>
       </c>
       <c r="N1514" s="35" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="O1514" s="8" t="s">
         <v>78</v>
@@ -57104,7 +57152,7 @@
       <c r="S1514" s="8"/>
       <c r="T1514" s="8"/>
       <c r="V1514" s="35" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1515" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57223,7 +57271,7 @@
         <v>43</v>
       </c>
       <c r="N1518" s="35" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="O1518" s="8" t="s">
         <v>78</v>
@@ -57234,7 +57282,7 @@
       <c r="S1518" s="8"/>
       <c r="T1518" s="8"/>
       <c r="V1518" s="35" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1519" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57300,7 +57348,7 @@
       <c r="S1520" s="8"/>
       <c r="T1520" s="8"/>
       <c r="V1520" s="35" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1521" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57397,7 +57445,7 @@
       <c r="S1523" s="8"/>
       <c r="T1523" s="8"/>
       <c r="V1523" s="35" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1524" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57463,7 +57511,7 @@
       <c r="S1525" s="8"/>
       <c r="T1525" s="8"/>
       <c r="V1525" s="35" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1526" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57497,7 +57545,7 @@
       <c r="S1526" s="8"/>
       <c r="T1526" s="8"/>
       <c r="V1526" s="35" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1527" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57532,7 +57580,7 @@
       <c r="S1527" s="8"/>
       <c r="T1527" s="8"/>
       <c r="V1527" s="35" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1528" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57567,7 +57615,7 @@
       <c r="S1528" s="8"/>
       <c r="T1528" s="8"/>
       <c r="V1528" s="35" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1529" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57676,7 +57724,7 @@
       <c r="S1531" s="8"/>
       <c r="T1531" s="8"/>
       <c r="V1531" s="35" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1532" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57990,7 +58038,7 @@
       <c r="S1541" s="8"/>
       <c r="T1541" s="8"/>
       <c r="V1541" s="35" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1542" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58013,7 +58061,7 @@
         <v>67</v>
       </c>
       <c r="N1542" s="35" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="O1542" s="7"/>
       <c r="P1542" s="8" t="s">
@@ -58024,7 +58072,7 @@
       <c r="S1542" s="8"/>
       <c r="T1542" s="8"/>
       <c r="V1542" s="35" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1543" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58055,7 +58103,7 @@
         <f t="shared" si="75"/>
         <v>68</v>
       </c>
-      <c r="N1543" s="51" t="s">
+      <c r="N1543" s="35" t="s">
         <v>851</v>
       </c>
       <c r="O1543" s="7"/>
@@ -58097,7 +58145,7 @@
         <f t="shared" si="75"/>
         <v>69</v>
       </c>
-      <c r="N1544" s="51" t="s">
+      <c r="N1544" s="35" t="s">
         <v>852</v>
       </c>
       <c r="O1544" s="8" t="s">
@@ -58109,7 +58157,7 @@
       <c r="S1544" s="8"/>
       <c r="T1544" s="8"/>
       <c r="V1544" s="35" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1545" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58137,7 +58185,7 @@
         <f t="shared" si="75"/>
         <v>70</v>
       </c>
-      <c r="N1545" s="51" t="s">
+      <c r="N1545" s="35" t="s">
         <v>853</v>
       </c>
       <c r="O1545" s="8" t="s">
@@ -58184,7 +58232,7 @@
       <c r="S1546" s="8"/>
       <c r="T1546" s="8"/>
       <c r="V1546" s="35" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1547" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58327,7 +58375,7 @@
         <v>76</v>
       </c>
       <c r="N1551" s="35" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="O1551" s="7"/>
       <c r="P1551" s="8" t="s">
@@ -58338,7 +58386,7 @@
       <c r="S1551" s="8"/>
       <c r="T1551" s="8"/>
       <c r="V1551" s="35" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1552" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58372,7 +58420,7 @@
       <c r="S1552" s="8"/>
       <c r="T1552" s="8"/>
       <c r="V1552" s="35" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1553" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58406,7 +58454,7 @@
       <c r="S1553" s="8"/>
       <c r="T1553" s="8"/>
       <c r="V1553" s="35" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1554" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58519,7 +58567,7 @@
         <v>82</v>
       </c>
       <c r="N1557" s="35" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="O1557" s="7"/>
       <c r="P1557" s="8" t="s">
@@ -58530,7 +58578,7 @@
       <c r="S1557" s="8"/>
       <c r="T1557" s="8"/>
       <c r="V1557" s="35" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1558" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58713,7 +58761,7 @@
         <v>119</v>
       </c>
       <c r="T1563" s="8" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="V1563" s="35"/>
     </row>
@@ -58767,7 +58815,7 @@
         <v>90</v>
       </c>
       <c r="N1565" s="35" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="O1565" s="7"/>
       <c r="P1565" s="8" t="s">
@@ -58778,7 +58826,7 @@
       <c r="S1565" s="8"/>
       <c r="T1565" s="8"/>
       <c r="V1565" s="35" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1566" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58903,7 +58951,7 @@
       <c r="S1569" s="8"/>
       <c r="T1569" s="8"/>
       <c r="V1569" s="35" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1570" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59057,7 +59105,7 @@
       <c r="S1574" s="8"/>
       <c r="T1574" s="8"/>
       <c r="V1574" s="35" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1575" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59150,7 +59198,7 @@
       <c r="S1577" s="8"/>
       <c r="T1577" s="8"/>
       <c r="V1577" s="35" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1578" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59183,7 +59231,7 @@
         <v>119</v>
       </c>
       <c r="T1578" s="8" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="V1578" s="35"/>
     </row>
@@ -59261,13 +59309,13 @@
         <v>106</v>
       </c>
       <c r="N1581" s="35" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="P1581" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1581" s="35" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1582" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59449,7 +59497,7 @@
         <v>112</v>
       </c>
       <c r="N1587" s="35" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="O1587" s="8" t="s">
         <v>78</v>
@@ -59458,7 +59506,7 @@
         <v>79</v>
       </c>
       <c r="V1587" s="35" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1588" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59607,7 +59655,7 @@
         <v>119</v>
       </c>
       <c r="T1593" s="8" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="V1593" s="35"/>
     </row>
@@ -59655,13 +59703,13 @@
         <v>120</v>
       </c>
       <c r="N1595" s="35" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="P1595" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1595" s="35" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1596" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59710,11 +59758,11 @@
         <f t="shared" si="75"/>
         <v>122</v>
       </c>
-      <c r="N1597" s="35" t="s">
+      <c r="N1597" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="U1597" s="52" t="s">
-        <v>1714</v>
+      <c r="U1597" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="V1597" s="35"/>
     </row>
@@ -59837,13 +59885,13 @@
         <v>127</v>
       </c>
       <c r="N1602" s="35" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="P1602" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1602" s="35" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1603" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59992,7 +60040,7 @@
         <v>119</v>
       </c>
       <c r="T1608" s="8" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="V1608" s="35"/>
     </row>
@@ -60040,13 +60088,13 @@
         <v>135</v>
       </c>
       <c r="N1610" s="35" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="P1610" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1610" s="35" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1611" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60095,8 +60143,11 @@
         <f t="shared" si="78"/>
         <v>137</v>
       </c>
-      <c r="N1612" s="35" t="s">
+      <c r="N1612" s="53" t="s">
         <v>253</v>
+      </c>
+      <c r="U1612" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="V1612" s="35"/>
     </row>
@@ -60129,7 +60180,7 @@
         <v>78</v>
       </c>
       <c r="V1613" s="35" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1614" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60224,7 +60275,7 @@
         <v>142</v>
       </c>
       <c r="N1617" s="35" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="O1617" s="8" t="s">
         <v>78</v>
@@ -60233,7 +60284,7 @@
         <v>79</v>
       </c>
       <c r="V1617" s="35" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1618" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60382,7 +60433,7 @@
         <v>119</v>
       </c>
       <c r="T1623" s="8" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="V1623" s="35"/>
     </row>
@@ -60430,13 +60481,13 @@
         <v>150</v>
       </c>
       <c r="N1625" s="35" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="P1625" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1625" s="35" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1626" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60513,7 +60564,7 @@
         <v>78</v>
       </c>
       <c r="V1628" s="35" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1629" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60614,7 +60665,7 @@
         <v>79</v>
       </c>
       <c r="V1632" s="35" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1633" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60691,7 +60742,7 @@
         <v>78</v>
       </c>
       <c r="V1635" s="35" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1636" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60720,7 +60771,7 @@
         <v>119</v>
       </c>
       <c r="T1636" s="8" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="V1636" s="35"/>
     </row>
@@ -60774,7 +60825,7 @@
     </row>
     <row r="1639" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1639" s="8" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="I1639" s="38" t="s">
         <v>51</v>
@@ -60795,13 +60846,13 @@
         <v>164</v>
       </c>
       <c r="N1639" s="35" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="P1639" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1639" s="35" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1640" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60903,7 +60954,7 @@
         <v>78</v>
       </c>
       <c r="V1643" s="35" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1644" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61028,7 +61079,7 @@
         <v>78</v>
       </c>
       <c r="V1648" s="35" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1649" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61075,7 +61126,7 @@
         <v>11</v>
       </c>
       <c r="N1650" s="35" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="P1650" s="8" t="s">
         <v>79</v>
@@ -61084,7 +61135,7 @@
         <v>129</v>
       </c>
       <c r="V1650" s="35" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1651" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61310,44 +61361,47 @@
       <c r="V1659" s="35"/>
     </row>
     <row r="1660" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="H1660" s="43" t="s">
+      <c r="H1660" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="I1660" s="38" t="s">
+      <c r="I1660" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="J1660" s="9">
+      <c r="J1660" s="58">
         <v>33</v>
       </c>
-      <c r="K1660" s="38">
+      <c r="K1660" s="57">
         <f t="shared" si="76"/>
         <v>1659</v>
       </c>
-      <c r="L1660" s="38">
+      <c r="L1660" s="57">
         <f t="shared" si="77"/>
         <v>21</v>
       </c>
-      <c r="M1660" s="38">
+      <c r="M1660" s="57">
         <f t="shared" si="78"/>
         <v>21</v>
       </c>
-      <c r="N1660" s="35" t="s">
+      <c r="N1660" s="59" t="s">
         <v>906</v>
       </c>
-      <c r="O1660" s="8" t="s">
+      <c r="O1660" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="P1660" s="8" t="s">
+      <c r="P1660" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="S1660" s="8" t="s">
+      <c r="Q1660" s="61"/>
+      <c r="R1660" s="61"/>
+      <c r="S1660" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="T1660" s="8" t="s">
+      <c r="T1660" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="V1660" s="35" t="s">
-        <v>1463</v>
+      <c r="U1660" s="60"/>
+      <c r="V1660" s="59" t="s">
+        <v>1462</v>
       </c>
     </row>
     <row r="1661" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61376,7 +61430,7 @@
         <v>78</v>
       </c>
       <c r="V1661" s="35" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1662" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61828,7 +61882,7 @@
         <v>78</v>
       </c>
       <c r="V1679" s="35" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1680" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61935,7 +61989,7 @@
         <v>119</v>
       </c>
       <c r="T1683" s="8" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="V1683" s="35"/>
     </row>
@@ -62082,7 +62136,7 @@
         <v>78</v>
       </c>
       <c r="V1688" s="35" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1689" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62275,13 +62329,13 @@
         <v>57</v>
       </c>
       <c r="N1696" s="35" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="O1696" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1696" s="35" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1697" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62648,7 +62702,7 @@
         <f t="shared" si="81"/>
         <v>72</v>
       </c>
-      <c r="N1711" s="35" t="s">
+      <c r="N1711" s="53" t="s">
         <v>894</v>
       </c>
       <c r="U1711" s="8" t="s">
@@ -62781,7 +62835,7 @@
         <v>79</v>
       </c>
       <c r="V1716" s="35" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1717" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62882,7 +62936,7 @@
         <v>78</v>
       </c>
       <c r="V1720" s="35" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1721" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62935,7 +62989,7 @@
         <v>78</v>
       </c>
       <c r="V1722" s="35" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1723" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62991,7 +63045,7 @@
         <v>79</v>
       </c>
       <c r="V1724" s="35" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1725" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63020,7 +63074,7 @@
         <v>78</v>
       </c>
       <c r="V1725" s="35" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1726" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63312,7 +63366,7 @@
         <f t="shared" si="84"/>
         <v>98</v>
       </c>
-      <c r="N1737" s="35" t="s">
+      <c r="N1737" s="53" t="s">
         <v>894</v>
       </c>
       <c r="U1737" s="8" t="s">
@@ -63612,7 +63666,7 @@
         <v>78</v>
       </c>
       <c r="V1749" s="35" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1750" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63689,7 +63743,7 @@
         <v>78</v>
       </c>
       <c r="V1752" s="35" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1753" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63742,7 +63796,7 @@
         <v>78</v>
       </c>
       <c r="V1754" s="35" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1755" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63795,7 +63849,7 @@
         <v>78</v>
       </c>
       <c r="V1756" s="35" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1757" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63848,7 +63902,7 @@
         <v>78</v>
       </c>
       <c r="V1758" s="35" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1759" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63997,7 +64051,7 @@
         <v>78</v>
       </c>
       <c r="V1764" s="35" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1765" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64098,7 +64152,7 @@
         <v>78</v>
       </c>
       <c r="V1768" s="35" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1769" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64127,7 +64181,7 @@
         <v>78</v>
       </c>
       <c r="V1769" s="35" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1770" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64252,7 +64306,7 @@
         <v>78</v>
       </c>
       <c r="V1774" s="35" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1775" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64329,7 +64383,7 @@
         <v>78</v>
       </c>
       <c r="V1777" s="35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1778" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64478,7 +64532,7 @@
         <v>78</v>
       </c>
       <c r="V1783" s="35" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1784" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64697,7 +64751,7 @@
       </c>
       <c r="V1792" s="35"/>
     </row>
-    <row r="1793" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1793" s="38" t="s">
         <v>54</v>
       </c>
@@ -64723,10 +64777,10 @@
         <v>78</v>
       </c>
       <c r="V1793" s="35" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="1794" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1794" s="38" t="s">
         <v>54</v>
       </c>
@@ -64750,7 +64804,7 @@
       </c>
       <c r="V1794" s="35"/>
     </row>
-    <row r="1795" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1795" s="43" t="s">
         <v>126</v>
       </c>
@@ -64783,7 +64837,7 @@
       </c>
       <c r="V1795" s="35"/>
     </row>
-    <row r="1796" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1796" s="43" t="s">
         <v>126</v>
       </c>
@@ -64813,7 +64867,7 @@
       </c>
       <c r="V1796" s="35"/>
     </row>
-    <row r="1797" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1797" s="43" t="s">
         <v>126</v>
       </c>
@@ -64840,7 +64894,7 @@
       </c>
       <c r="V1797" s="35"/>
     </row>
-    <row r="1798" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1798" s="43" t="s">
         <v>126</v>
       </c>
@@ -64869,10 +64923,10 @@
         <v>80</v>
       </c>
       <c r="V1798" s="35" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="1799" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1799" s="38" t="s">
         <v>54</v>
       </c>
@@ -64898,10 +64952,10 @@
         <v>78</v>
       </c>
       <c r="V1799" s="35" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="1800" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1800" s="38" t="s">
         <v>54</v>
       </c>
@@ -64925,7 +64979,7 @@
       </c>
       <c r="V1800" s="35"/>
     </row>
-    <row r="1801" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1801" s="38" t="s">
         <v>54</v>
       </c>
@@ -64949,7 +65003,7 @@
       </c>
       <c r="V1801" s="35"/>
     </row>
-    <row r="1802" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1802" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1802" s="38" t="s">
         <v>54</v>
       </c>
@@ -64975,10 +65029,10 @@
         <v>78</v>
       </c>
       <c r="V1802" s="35" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="1803" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1803" s="38" t="s">
         <v>54</v>
       </c>
@@ -65004,10 +65058,10 @@
         <v>78</v>
       </c>
       <c r="V1803" s="35" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="1804" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1804" s="38" t="s">
         <v>54</v>
       </c>
@@ -65033,10 +65087,10 @@
         <v>78</v>
       </c>
       <c r="V1804" s="35" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="1805" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1805" s="38" t="s">
         <v>54</v>
       </c>
@@ -65062,10 +65116,10 @@
         <v>79</v>
       </c>
       <c r="V1805" s="35" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="1806" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1806" s="43" t="s">
         <v>127</v>
       </c>
@@ -65090,7 +65144,7 @@
       </c>
       <c r="V1806" s="35"/>
     </row>
-    <row r="1807" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1807" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="G1807" s="46"/>
       <c r="H1807" s="43" t="s">
         <v>127</v>
@@ -65113,12 +65167,15 @@
         <f t="shared" si="87"/>
         <v>2</v>
       </c>
-      <c r="N1807" s="35" t="s">
+      <c r="N1807" s="54" t="s">
         <v>923</v>
       </c>
       <c r="V1807" s="35"/>
     </row>
-    <row r="1808" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1808" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1808" s="8" t="s">
+        <v>1718</v>
+      </c>
       <c r="G1808" s="46" t="s">
         <v>153</v>
       </c>
@@ -65143,15 +65200,18 @@
         <f t="shared" si="87"/>
         <v>3</v>
       </c>
-      <c r="N1808" s="35" t="s">
+      <c r="N1808" s="54" t="s">
         <v>582</v>
       </c>
-      <c r="U1808" s="52" t="s">
-        <v>1718</v>
+      <c r="U1808" s="62" t="s">
+        <v>128</v>
       </c>
       <c r="V1808" s="35"/>
     </row>
-    <row r="1809" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1809" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1809" s="8" t="s">
+        <v>1719</v>
+      </c>
       <c r="G1809" s="46" t="s">
         <v>153</v>
       </c>
@@ -65176,15 +65236,18 @@
         <f t="shared" si="87"/>
         <v>4</v>
       </c>
-      <c r="N1809" s="35" t="s">
+      <c r="N1809" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="U1809" s="8" t="s">
+      <c r="U1809" s="55" t="s">
         <v>129</v>
       </c>
       <c r="V1809" s="35"/>
     </row>
-    <row r="1810" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1810" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1810" s="8" t="s">
+        <v>1720</v>
+      </c>
       <c r="G1810" s="46" t="s">
         <v>153</v>
       </c>
@@ -65220,7 +65283,7 @@
       </c>
       <c r="V1810" s="35"/>
     </row>
-    <row r="1811" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1811" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1811" s="38" t="s">
         <v>55</v>
       </c>
@@ -65244,7 +65307,7 @@
       </c>
       <c r="V1811" s="35"/>
     </row>
-    <row r="1812" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1812" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1812" s="38" t="s">
         <v>55</v>
       </c>
@@ -65270,10 +65333,10 @@
         <v>78</v>
       </c>
       <c r="V1812" s="35" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="1813" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1813" s="38" t="s">
         <v>55</v>
       </c>
@@ -65293,7 +65356,7 @@
         <v>8</v>
       </c>
       <c r="N1813" s="35" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="O1813" s="8" t="s">
         <v>78</v>
@@ -65302,10 +65365,10 @@
         <v>79</v>
       </c>
       <c r="V1813" s="35" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="1814" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1814" s="38" t="s">
         <v>55</v>
       </c>
@@ -65329,7 +65392,7 @@
       </c>
       <c r="V1814" s="35"/>
     </row>
-    <row r="1815" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1815" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1815" s="38" t="s">
         <v>55</v>
       </c>
@@ -65355,10 +65418,10 @@
         <v>78</v>
       </c>
       <c r="V1815" s="35" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="1816" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1816" s="38" t="s">
         <v>55</v>
       </c>
@@ -65382,7 +65445,7 @@
       </c>
       <c r="V1816" s="35"/>
     </row>
-    <row r="1817" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1817" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1817" s="38" t="s">
         <v>55</v>
       </c>
@@ -65406,7 +65469,7 @@
       </c>
       <c r="V1817" s="35"/>
     </row>
-    <row r="1818" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1818" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1818" s="38" t="s">
         <v>55</v>
       </c>
@@ -65430,7 +65493,7 @@
       </c>
       <c r="V1818" s="35"/>
     </row>
-    <row r="1819" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1819" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1819" s="38" t="s">
         <v>55</v>
       </c>
@@ -65454,7 +65517,7 @@
       </c>
       <c r="V1819" s="35"/>
     </row>
-    <row r="1820" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1820" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1820" s="38" t="s">
         <v>55</v>
       </c>
@@ -65478,7 +65541,7 @@
       </c>
       <c r="V1820" s="35"/>
     </row>
-    <row r="1821" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1821" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1821" s="38" t="s">
         <v>55</v>
       </c>
@@ -65502,7 +65565,7 @@
       </c>
       <c r="V1821" s="35"/>
     </row>
-    <row r="1822" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1822" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1822" s="38" t="s">
         <v>55</v>
       </c>
@@ -65522,7 +65585,7 @@
         <v>17</v>
       </c>
       <c r="N1822" s="35" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="O1822" s="8" t="s">
         <v>78</v>
@@ -65531,10 +65594,10 @@
         <v>79</v>
       </c>
       <c r="V1822" s="35" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="1823" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1823" s="38" t="s">
         <v>55</v>
       </c>
@@ -65558,7 +65621,7 @@
       </c>
       <c r="V1823" s="35"/>
     </row>
-    <row r="1824" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1824" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1824" s="38" t="s">
         <v>55</v>
       </c>
@@ -65662,7 +65725,7 @@
         <v>78</v>
       </c>
       <c r="V1827" s="35" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1828" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65783,7 +65846,7 @@
         <v>26</v>
       </c>
       <c r="N1831" s="35" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="O1831" s="8" t="s">
         <v>78</v>
@@ -65794,7 +65857,7 @@
       <c r="S1831" s="8"/>
       <c r="T1831" s="8"/>
       <c r="V1831" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1832" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66039,7 +66102,7 @@
         <v>78</v>
       </c>
       <c r="V1840" s="35" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1841" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66089,13 +66152,13 @@
         <v>37</v>
       </c>
       <c r="N1842" s="35" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="P1842" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1842" s="35" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1843" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66570,7 +66633,7 @@
     </row>
     <row r="1862" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1862" s="8" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="I1862" s="38" t="s">
         <v>56</v>
@@ -66675,7 +66738,7 @@
         <v>78</v>
       </c>
       <c r="V1865" s="35" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1866" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66793,12 +66856,15 @@
         <f t="shared" si="90"/>
         <v>65</v>
       </c>
-      <c r="N1870" s="35" t="s">
+      <c r="N1870" s="54" t="s">
         <v>923</v>
       </c>
       <c r="V1870" s="35"/>
     </row>
     <row r="1871" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1871" s="8" t="s">
+        <v>1718</v>
+      </c>
       <c r="I1871" s="38" t="s">
         <v>56</v>
       </c>
@@ -66817,7 +66883,7 @@
         <f t="shared" si="90"/>
         <v>66</v>
       </c>
-      <c r="N1871" s="35" t="s">
+      <c r="N1871" s="54" t="s">
         <v>582</v>
       </c>
       <c r="U1871" s="8" t="s">
@@ -66826,6 +66892,9 @@
       <c r="V1871" s="35"/>
     </row>
     <row r="1872" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1872" s="8" t="s">
+        <v>1719</v>
+      </c>
       <c r="I1872" s="38" t="s">
         <v>56</v>
       </c>
@@ -66844,7 +66913,7 @@
         <f t="shared" si="90"/>
         <v>67</v>
       </c>
-      <c r="N1872" s="35" t="s">
+      <c r="N1872" s="54" t="s">
         <v>167</v>
       </c>
       <c r="U1872" s="8" t="s">
@@ -66852,7 +66921,10 @@
       </c>
       <c r="V1872" s="35"/>
     </row>
-    <row r="1873" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1873" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1873" s="8" t="s">
+        <v>1720</v>
+      </c>
       <c r="I1873" s="38" t="s">
         <v>56</v>
       </c>
@@ -66876,7 +66948,7 @@
       </c>
       <c r="V1873" s="35"/>
     </row>
-    <row r="1874" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1874" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1874" s="38" t="s">
         <v>56</v>
       </c>
@@ -66900,7 +66972,7 @@
       </c>
       <c r="V1874" s="35"/>
     </row>
-    <row r="1875" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1875" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1875" s="38" t="s">
         <v>56</v>
       </c>
@@ -66924,7 +66996,7 @@
       </c>
       <c r="V1875" s="35"/>
     </row>
-    <row r="1876" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1876" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1876" s="38" t="s">
         <v>56</v>
       </c>
@@ -66948,7 +67020,7 @@
       </c>
       <c r="V1876" s="35"/>
     </row>
-    <row r="1877" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1877" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1877" s="38" t="s">
         <v>56</v>
       </c>
@@ -66972,7 +67044,7 @@
       </c>
       <c r="V1877" s="35"/>
     </row>
-    <row r="1878" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1878" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1878" s="38" t="s">
         <v>56</v>
       </c>
@@ -66996,7 +67068,7 @@
       </c>
       <c r="V1878" s="35"/>
     </row>
-    <row r="1879" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1879" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1879" s="38" t="s">
         <v>56</v>
       </c>
@@ -67020,7 +67092,7 @@
       </c>
       <c r="V1879" s="35"/>
     </row>
-    <row r="1880" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1880" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1880" s="38" t="s">
         <v>56</v>
       </c>
@@ -67044,7 +67116,7 @@
       </c>
       <c r="V1880" s="35"/>
     </row>
-    <row r="1881" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1881" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1881" s="38" t="s">
         <v>56</v>
       </c>
@@ -67068,7 +67140,7 @@
       </c>
       <c r="V1881" s="35"/>
     </row>
-    <row r="1882" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1882" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1882" s="38" t="s">
         <v>56</v>
       </c>
@@ -67092,7 +67164,7 @@
       </c>
       <c r="V1882" s="35"/>
     </row>
-    <row r="1883" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1883" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1883" s="38" t="s">
         <v>56</v>
       </c>
@@ -67119,7 +67191,7 @@
       </c>
       <c r="V1883" s="35"/>
     </row>
-    <row r="1884" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1884" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1884" s="38" t="s">
         <v>56</v>
       </c>
@@ -67143,7 +67215,7 @@
       </c>
       <c r="V1884" s="35"/>
     </row>
-    <row r="1885" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1885" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1885" s="38" t="s">
         <v>56</v>
       </c>
@@ -67169,10 +67241,10 @@
         <v>78</v>
       </c>
       <c r="V1885" s="35" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="1886" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1886" s="38" t="s">
         <v>56</v>
       </c>
@@ -67196,7 +67268,7 @@
       </c>
       <c r="V1886" s="35"/>
     </row>
-    <row r="1887" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1887" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1887" s="43" t="s">
         <v>137</v>
       </c>
@@ -67223,7 +67295,7 @@
       </c>
       <c r="V1887" s="35"/>
     </row>
-    <row r="1888" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1888" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1888" s="43" t="s">
         <v>137</v>
       </c>
@@ -67513,7 +67585,7 @@
         <v>78</v>
       </c>
       <c r="V1898" s="35" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1899" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67662,7 +67734,7 @@
         <v>78</v>
       </c>
       <c r="V1904" s="35" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1905" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67691,7 +67763,7 @@
         <v>78</v>
       </c>
       <c r="V1905" s="35" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1906" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68226,7 +68298,7 @@
         <v>78</v>
       </c>
       <c r="V1927" s="35" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1928" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68351,7 +68423,7 @@
         <v>78</v>
       </c>
       <c r="V1932" s="35" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1933" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68596,7 +68668,7 @@
         <v>78</v>
       </c>
       <c r="V1942" s="35" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1943" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68793,7 +68865,7 @@
         <v>80</v>
       </c>
       <c r="V1950" s="35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1951" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69061,7 +69133,7 @@
         <v>78</v>
       </c>
       <c r="V1961" s="35" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1962" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69309,7 +69381,7 @@
         <v>80</v>
       </c>
       <c r="V1971" s="35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1972" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69578,7 +69650,7 @@
         <v>78</v>
       </c>
       <c r="V1982" s="35" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1983" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69655,7 +69727,7 @@
         <v>78</v>
       </c>
       <c r="V1985" s="35" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1986" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70026,7 +70098,7 @@
         <v>78</v>
       </c>
       <c r="V2000" s="35" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="2001" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70055,7 +70127,7 @@
         <v>78</v>
       </c>
       <c r="V2001" s="35" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2002" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70204,7 +70276,7 @@
         <v>78</v>
       </c>
       <c r="V2007" s="35" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="2008" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70377,7 +70449,7 @@
         <v>78</v>
       </c>
       <c r="V2014" s="35" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="2015" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70553,7 +70625,7 @@
         <v>80</v>
       </c>
       <c r="V2021" s="35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="2022" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70774,7 +70846,7 @@
         <v>225</v>
       </c>
       <c r="N2030" s="35" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="O2030" s="8" t="s">
         <v>78</v>
@@ -70783,7 +70855,7 @@
         <v>79</v>
       </c>
       <c r="V2030" s="35" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="2031" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70810,7 +70882,7 @@
         <v>78</v>
       </c>
       <c r="V2031" s="35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="2032" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71399,8 +71471,8 @@
         <f t="shared" si="99"/>
         <v>23</v>
       </c>
-      <c r="N2053" s="35" t="s">
-        <v>987</v>
+      <c r="N2053" s="36" t="s">
+        <v>1715</v>
       </c>
       <c r="V2053" s="35"/>
     </row>
@@ -71603,8 +71675,8 @@
         <f t="shared" si="99"/>
         <v>31</v>
       </c>
-      <c r="N2061" s="35" t="s">
-        <v>1691</v>
+      <c r="N2061" s="36" t="s">
+        <v>1716</v>
       </c>
       <c r="V2061" s="35"/>
     </row>
@@ -71703,7 +71775,7 @@
         <v>35</v>
       </c>
       <c r="N2065" s="35" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="V2065" s="35"/>
     </row>
@@ -71802,7 +71874,7 @@
         <v>39</v>
       </c>
       <c r="N2069" s="35" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="V2069" s="35"/>
     </row>
@@ -71874,7 +71946,7 @@
         <v>42</v>
       </c>
       <c r="N2072" s="35" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="V2072" s="35"/>
     </row>
@@ -71973,13 +72045,13 @@
         <v>46</v>
       </c>
       <c r="N2076" s="35" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O2076" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2076" s="35" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="2077" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72008,7 +72080,7 @@
         <v>78</v>
       </c>
       <c r="V2077" s="35" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="2078" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72031,7 +72103,7 @@
         <v>48</v>
       </c>
       <c r="N2078" s="35" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="V2078" s="35"/>
     </row>
@@ -72108,7 +72180,7 @@
         <v>78</v>
       </c>
       <c r="V2081" s="35" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="2082" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72203,13 +72275,13 @@
         <v>55</v>
       </c>
       <c r="N2085" s="35" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O2085" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2085" s="35" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2086" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72232,7 +72304,7 @@
         <v>56</v>
       </c>
       <c r="N2086" s="35" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="V2086" s="35"/>
     </row>
@@ -72304,13 +72376,13 @@
         <v>59</v>
       </c>
       <c r="N2089" s="35" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O2089" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2089" s="35" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2090" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72357,13 +72429,13 @@
         <v>61</v>
       </c>
       <c r="N2091" s="35" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O2091" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2091" s="35" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2092" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72392,7 +72464,7 @@
         <v>78</v>
       </c>
       <c r="V2092" s="35" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="2093" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72562,13 +72634,13 @@
         <v>69</v>
       </c>
       <c r="N2099" s="35" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="S2099" s="8" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="T2099" s="8" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="V2099" s="35"/>
     </row>
@@ -72598,7 +72670,7 @@
         <v>80</v>
       </c>
       <c r="V2100" s="35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="2101" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72816,13 +72888,13 @@
         <v>79</v>
       </c>
       <c r="N2109" s="35" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O2109" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2109" s="35" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2110" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72896,13 +72968,13 @@
         <v>82</v>
       </c>
       <c r="N2112" s="35" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O2112" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2112" s="35" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2113" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73213,13 +73285,13 @@
         <v>95</v>
       </c>
       <c r="N2125" s="35" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O2125" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2125" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2126" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73266,7 +73338,7 @@
         <v>97</v>
       </c>
       <c r="N2127" s="35" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="V2127" s="35"/>
     </row>
@@ -73290,7 +73362,7 @@
         <v>98</v>
       </c>
       <c r="N2128" s="35" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="V2128" s="35"/>
     </row>
@@ -73361,7 +73433,7 @@
         <v>101</v>
       </c>
       <c r="N2131" s="35" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="V2131" s="35"/>
     </row>
@@ -73409,13 +73481,13 @@
         <v>103</v>
       </c>
       <c r="N2133" s="35" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O2133" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2133" s="35" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="2134" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73462,13 +73534,13 @@
         <v>105</v>
       </c>
       <c r="N2135" s="35" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O2135" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2135" s="35" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2136" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73542,7 +73614,7 @@
         <v>108</v>
       </c>
       <c r="N2138" s="35" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="V2138" s="35"/>
     </row>
@@ -73686,7 +73758,7 @@
         <v>114</v>
       </c>
       <c r="N2144" s="35" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="V2144" s="35"/>
     </row>
@@ -73710,7 +73782,7 @@
         <v>115</v>
       </c>
       <c r="N2145" s="35" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="V2145" s="35"/>
     </row>
@@ -73782,7 +73854,7 @@
         <v>118</v>
       </c>
       <c r="N2148" s="35" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="V2148" s="35"/>
     </row>
@@ -73830,7 +73902,7 @@
         <v>120</v>
       </c>
       <c r="N2150" s="35" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="V2150" s="35"/>
     </row>
@@ -73929,7 +74001,7 @@
         <v>124</v>
       </c>
       <c r="N2154" s="35" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="V2154" s="35"/>
     </row>
@@ -74073,7 +74145,7 @@
         <v>130</v>
       </c>
       <c r="N2160" s="35" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="V2160" s="35"/>
     </row>
@@ -74097,7 +74169,7 @@
         <v>131</v>
       </c>
       <c r="N2161" s="35" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="V2161" s="35"/>
     </row>
@@ -74169,7 +74241,7 @@
         <v>134</v>
       </c>
       <c r="N2164" s="35" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="V2164" s="35"/>
     </row>
@@ -74217,7 +74289,7 @@
         <v>136</v>
       </c>
       <c r="N2166" s="35" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="V2166" s="35"/>
     </row>
@@ -74265,13 +74337,13 @@
         <v>138</v>
       </c>
       <c r="N2168" s="35" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O2168" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2168" s="35" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2169" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74345,7 +74417,7 @@
         <v>141</v>
       </c>
       <c r="N2171" s="35" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="V2171" s="35"/>
     </row>
@@ -74492,7 +74564,7 @@
         <v>147</v>
       </c>
       <c r="N2177" s="35" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="V2177" s="35"/>
     </row>
@@ -74567,13 +74639,13 @@
         <v>150</v>
       </c>
       <c r="N2180" s="35" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="P2180" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2180" s="35" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="2181" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74594,7 +74666,7 @@
         <v>1</v>
       </c>
       <c r="N2181" s="35" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="V2181" s="35"/>
     </row>
@@ -74618,7 +74690,7 @@
         <v>2</v>
       </c>
       <c r="N2182" s="35" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="V2182" s="35"/>
     </row>
@@ -74642,7 +74714,7 @@
         <v>3</v>
       </c>
       <c r="N2183" s="35" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="V2183" s="35"/>
     </row>
@@ -74666,7 +74738,7 @@
         <v>4</v>
       </c>
       <c r="N2184" s="35" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="V2184" s="35"/>
     </row>
@@ -74690,7 +74762,7 @@
         <v>5</v>
       </c>
       <c r="N2185" s="35" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V2185" s="35"/>
     </row>
@@ -74714,7 +74786,7 @@
         <v>6</v>
       </c>
       <c r="N2186" s="35" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V2186" s="35"/>
     </row>
@@ -74738,7 +74810,7 @@
         <v>7</v>
       </c>
       <c r="N2187" s="35" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="V2187" s="35"/>
     </row>
@@ -74762,13 +74834,13 @@
         <v>8</v>
       </c>
       <c r="N2188" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O2188" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2188" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="2189" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74791,7 +74863,7 @@
         <v>9</v>
       </c>
       <c r="N2189" s="35" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V2189" s="35"/>
     </row>
@@ -74815,7 +74887,7 @@
         <v>10</v>
       </c>
       <c r="N2190" s="35" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V2190" s="35"/>
     </row>
@@ -74839,7 +74911,7 @@
         <v>11</v>
       </c>
       <c r="N2191" s="35" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V2191" s="35"/>
     </row>
@@ -74863,7 +74935,7 @@
         <v>12</v>
       </c>
       <c r="N2192" s="35" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="V2192" s="35"/>
     </row>
@@ -74887,7 +74959,7 @@
         <v>13</v>
       </c>
       <c r="N2193" s="35" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V2193" s="35"/>
     </row>
@@ -74911,7 +74983,7 @@
         <v>14</v>
       </c>
       <c r="N2194" s="35" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="V2194" s="35"/>
     </row>
@@ -74935,7 +75007,7 @@
         <v>15</v>
       </c>
       <c r="N2195" s="35" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="V2195" s="35"/>
     </row>
@@ -74959,7 +75031,7 @@
         <v>16</v>
       </c>
       <c r="N2196" s="35" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="V2196" s="35"/>
     </row>
@@ -74983,13 +75055,13 @@
         <v>17</v>
       </c>
       <c r="N2197" s="35" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O2197" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2197" s="35" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2198" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75012,7 +75084,7 @@
         <v>18</v>
       </c>
       <c r="N2198" s="35" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="V2198" s="35"/>
     </row>
@@ -75036,13 +75108,13 @@
         <v>19</v>
       </c>
       <c r="N2199" s="35" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="O2199" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2199" s="35" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2200" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75065,7 +75137,7 @@
         <v>20</v>
       </c>
       <c r="N2200" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="V2200" s="35"/>
     </row>
@@ -75089,7 +75161,7 @@
         <v>21</v>
       </c>
       <c r="N2201" s="35" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="V2201" s="35"/>
     </row>
@@ -75113,7 +75185,7 @@
         <v>22</v>
       </c>
       <c r="N2202" s="35" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="O2202" s="8" t="s">
         <v>78</v>
@@ -75122,7 +75194,7 @@
         <v>79</v>
       </c>
       <c r="V2202" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="2203" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75143,7 +75215,7 @@
         <v>1</v>
       </c>
       <c r="N2203" s="35" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="V2203" s="35"/>
     </row>
@@ -75167,13 +75239,13 @@
         <v>2</v>
       </c>
       <c r="N2204" s="35" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O2204" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2204" s="35" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2205" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75196,7 +75268,7 @@
         <v>3</v>
       </c>
       <c r="N2205" s="35" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="V2205" s="35"/>
     </row>
@@ -75220,7 +75292,7 @@
         <v>4</v>
       </c>
       <c r="N2206" s="35" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="V2206" s="35"/>
     </row>
@@ -75244,7 +75316,7 @@
         <v>5</v>
       </c>
       <c r="N2207" s="35" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="V2207" s="35"/>
     </row>
@@ -75268,13 +75340,13 @@
         <v>6</v>
       </c>
       <c r="N2208" s="35" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O2208" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2208" s="35" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="2209" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75300,13 +75372,13 @@
         <v>7</v>
       </c>
       <c r="N2209" s="35" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O2209" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2209" s="35" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="2210" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75332,7 +75404,7 @@
         <v>8</v>
       </c>
       <c r="N2210" s="35" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V2210" s="35"/>
     </row>
@@ -75359,7 +75431,7 @@
         <v>9</v>
       </c>
       <c r="N2211" s="35" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V2211" s="35"/>
     </row>
@@ -75386,7 +75458,7 @@
         <v>10</v>
       </c>
       <c r="N2212" s="35" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="V2212" s="35"/>
     </row>
@@ -75413,13 +75485,13 @@
         <v>11</v>
       </c>
       <c r="N2213" s="35" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O2213" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2213" s="35" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="2214" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75445,7 +75517,7 @@
         <v>12</v>
       </c>
       <c r="N2214" s="35" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V2214" s="35"/>
     </row>
@@ -75469,13 +75541,13 @@
         <v>13</v>
       </c>
       <c r="N2215" s="35" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="O2215" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2215" s="35" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="2216" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75498,13 +75570,13 @@
         <v>14</v>
       </c>
       <c r="N2216" s="35" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O2216" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2216" s="35" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2217" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75527,7 +75599,7 @@
         <v>15</v>
       </c>
       <c r="N2217" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="V2217" s="35"/>
     </row>
@@ -75551,7 +75623,7 @@
         <v>16</v>
       </c>
       <c r="N2218" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V2218" s="35"/>
     </row>
@@ -75575,13 +75647,13 @@
         <v>17</v>
       </c>
       <c r="N2219" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O2219" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2219" s="35" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="2220" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75604,13 +75676,13 @@
         <v>18</v>
       </c>
       <c r="N2220" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="O2220" s="8" t="s">
         <v>82</v>
       </c>
       <c r="V2220" s="35" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="2221" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75633,13 +75705,13 @@
         <v>19</v>
       </c>
       <c r="N2221" s="35" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O2221" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2221" s="35" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="2222" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75662,13 +75734,13 @@
         <v>20</v>
       </c>
       <c r="N2222" s="35" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O2222" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2222" s="35" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="2223" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75691,7 +75763,7 @@
         <v>21</v>
       </c>
       <c r="N2223" s="35" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="V2223" s="35"/>
     </row>
@@ -75715,7 +75787,7 @@
         <v>22</v>
       </c>
       <c r="N2224" s="35" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="V2224" s="35"/>
     </row>
@@ -75739,7 +75811,7 @@
         <v>23</v>
       </c>
       <c r="N2225" s="35" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="V2225" s="35"/>
     </row>
@@ -75787,7 +75859,7 @@
         <v>25</v>
       </c>
       <c r="N2227" s="35" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="O2227" s="8" t="s">
         <v>78</v>
@@ -75796,7 +75868,7 @@
         <v>79</v>
       </c>
       <c r="V2227" s="35" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="2228" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75817,7 +75889,7 @@
         <v>1</v>
       </c>
       <c r="N2228" s="35" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="V2228" s="35"/>
     </row>
@@ -75841,7 +75913,7 @@
         <v>2</v>
       </c>
       <c r="N2229" s="35" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="V2229" s="35"/>
     </row>
@@ -75865,7 +75937,7 @@
         <v>3</v>
       </c>
       <c r="N2230" s="35" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="V2230" s="35"/>
     </row>
@@ -75889,7 +75961,7 @@
         <v>4</v>
       </c>
       <c r="N2231" s="35" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="V2231" s="35"/>
     </row>
@@ -75913,7 +75985,7 @@
         <v>5</v>
       </c>
       <c r="N2232" s="35" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="V2232" s="35"/>
     </row>
@@ -75937,7 +76009,7 @@
         <v>6</v>
       </c>
       <c r="N2233" s="35" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="V2233" s="35"/>
     </row>
@@ -75961,7 +76033,7 @@
         <v>7</v>
       </c>
       <c r="N2234" s="35" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="V2234" s="35"/>
     </row>
@@ -75985,7 +76057,7 @@
         <v>8</v>
       </c>
       <c r="N2235" s="35" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="V2235" s="35"/>
     </row>
@@ -76009,7 +76081,7 @@
         <v>9</v>
       </c>
       <c r="N2236" s="35" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="V2236" s="35"/>
     </row>
@@ -76033,13 +76105,13 @@
         <v>10</v>
       </c>
       <c r="N2237" s="35" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="O2237" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2237" s="35" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="2238" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76062,7 +76134,7 @@
         <v>11</v>
       </c>
       <c r="N2238" s="35" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="V2238" s="35"/>
     </row>
@@ -76086,7 +76158,7 @@
         <v>12</v>
       </c>
       <c r="N2239" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="V2239" s="35"/>
     </row>
@@ -76110,7 +76182,7 @@
         <v>13</v>
       </c>
       <c r="N2240" s="35" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="V2240" s="35"/>
     </row>
@@ -76134,13 +76206,13 @@
         <v>14</v>
       </c>
       <c r="N2241" s="35" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="O2241" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2241" s="35" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="2242" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76163,7 +76235,7 @@
         <v>15</v>
       </c>
       <c r="N2242" s="35" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="V2242" s="35"/>
     </row>
@@ -76187,13 +76259,13 @@
         <v>16</v>
       </c>
       <c r="N2243" s="35" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="O2243" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2243" s="35" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="2244" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76216,7 +76288,7 @@
         <v>17</v>
       </c>
       <c r="N2244" s="35" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="V2244" s="35"/>
     </row>
@@ -76240,7 +76312,7 @@
         <v>18</v>
       </c>
       <c r="N2245" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="V2245" s="35"/>
     </row>
@@ -76264,7 +76336,7 @@
         <v>19</v>
       </c>
       <c r="N2246" s="35" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="V2246" s="35"/>
     </row>
@@ -76288,7 +76360,7 @@
         <v>20</v>
       </c>
       <c r="N2247" s="35" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="V2247" s="35"/>
     </row>
@@ -76312,13 +76384,13 @@
         <v>21</v>
       </c>
       <c r="N2248" s="35" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="O2248" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2248" s="35" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="2249" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76341,13 +76413,13 @@
         <v>22</v>
       </c>
       <c r="N2249" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="O2249" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2249" s="35" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="2250" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76370,13 +76442,13 @@
         <v>23</v>
       </c>
       <c r="N2250" s="35" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="P2250" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2250" s="35" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="2251" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76397,7 +76469,7 @@
         <v>1</v>
       </c>
       <c r="N2251" s="35" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="V2251" s="35"/>
     </row>
@@ -76421,7 +76493,7 @@
         <v>2</v>
       </c>
       <c r="N2252" s="35" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="V2252" s="35"/>
     </row>
@@ -76445,7 +76517,7 @@
         <v>3</v>
       </c>
       <c r="N2253" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="V2253" s="35"/>
     </row>
@@ -76469,13 +76541,13 @@
         <v>4</v>
       </c>
       <c r="N2254" s="35" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="O2254" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2254" s="35" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="2255" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76498,7 +76570,7 @@
         <v>5</v>
       </c>
       <c r="N2255" s="35" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="V2255" s="35"/>
     </row>
@@ -76522,7 +76594,7 @@
         <v>6</v>
       </c>
       <c r="N2256" s="35" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="V2256" s="35"/>
     </row>
@@ -76546,13 +76618,13 @@
         <v>7</v>
       </c>
       <c r="N2257" s="35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="O2257" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2257" s="35" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="2258" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76575,13 +76647,13 @@
         <v>8</v>
       </c>
       <c r="N2258" s="35" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="O2258" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2258" s="35" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="2259" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76604,13 +76676,13 @@
         <v>9</v>
       </c>
       <c r="N2259" s="35" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O2259" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2259" s="35" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2260" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76633,7 +76705,7 @@
         <v>10</v>
       </c>
       <c r="N2260" s="35" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="V2260" s="35"/>
     </row>
@@ -76657,13 +76729,13 @@
         <v>11</v>
       </c>
       <c r="N2261" s="35" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O2261" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2261" s="35" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="2262" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76686,7 +76758,7 @@
         <v>12</v>
       </c>
       <c r="N2262" s="35" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V2262" s="35"/>
     </row>
@@ -76710,7 +76782,7 @@
         <v>13</v>
       </c>
       <c r="N2263" s="35" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="V2263" s="35"/>
     </row>
@@ -76734,7 +76806,7 @@
         <v>14</v>
       </c>
       <c r="N2264" s="35" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="V2264" s="35"/>
     </row>
@@ -76758,7 +76830,7 @@
         <v>15</v>
       </c>
       <c r="N2265" s="35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="V2265" s="35"/>
     </row>
@@ -76782,13 +76854,13 @@
         <v>16</v>
       </c>
       <c r="N2266" s="35" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="O2266" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2266" s="35" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="2267" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76811,7 +76883,7 @@
         <v>17</v>
       </c>
       <c r="N2267" s="35" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="V2267" s="35"/>
     </row>
@@ -76835,7 +76907,7 @@
         <v>18</v>
       </c>
       <c r="N2268" s="35" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="V2268" s="35"/>
     </row>
@@ -76859,13 +76931,13 @@
         <v>19</v>
       </c>
       <c r="N2269" s="35" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="O2269" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2269" s="35" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="2270" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76891,7 +76963,7 @@
         <v>20</v>
       </c>
       <c r="N2270" s="35" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="V2270" s="35"/>
     </row>
@@ -76918,13 +76990,13 @@
         <v>21</v>
       </c>
       <c r="N2271" s="35" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="P2271" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2271" s="35" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="2272" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76945,13 +77017,13 @@
         <v>1</v>
       </c>
       <c r="N2272" s="35" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="O2272" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2272" s="35" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="2273" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76974,13 +77046,13 @@
         <v>2</v>
       </c>
       <c r="N2273" s="35" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="O2273" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2273" s="35" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="2274" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77003,13 +77075,13 @@
         <v>3</v>
       </c>
       <c r="N2274" s="35" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="O2274" s="8" t="s">
         <v>82</v>
       </c>
       <c r="V2274" s="35" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="2275" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77032,7 +77104,7 @@
         <v>4</v>
       </c>
       <c r="N2275" s="35" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="V2275" s="35"/>
     </row>
@@ -77056,13 +77128,13 @@
         <v>5</v>
       </c>
       <c r="N2276" s="35" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="O2276" s="8" t="s">
         <v>82</v>
       </c>
       <c r="V2276" s="35" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="2277" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77085,13 +77157,13 @@
         <v>6</v>
       </c>
       <c r="N2277" s="35" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="O2277" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2277" s="35" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="2278" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77114,13 +77186,13 @@
         <v>7</v>
       </c>
       <c r="N2278" s="35" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="O2278" s="8" t="s">
         <v>82</v>
       </c>
       <c r="V2278" s="35" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="2279" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77143,13 +77215,13 @@
         <v>8</v>
       </c>
       <c r="N2279" s="35" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="O2279" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2279" s="35" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2280" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77172,7 +77244,7 @@
         <v>9</v>
       </c>
       <c r="N2280" s="35" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="V2280" s="35"/>
     </row>
@@ -77196,7 +77268,7 @@
         <v>10</v>
       </c>
       <c r="N2281" s="35" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V2281" s="35"/>
     </row>
@@ -77220,7 +77292,7 @@
         <v>11</v>
       </c>
       <c r="N2282" s="35" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="V2282" s="35"/>
     </row>
@@ -77244,7 +77316,7 @@
         <v>12</v>
       </c>
       <c r="N2283" s="35" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="V2283" s="35"/>
     </row>
@@ -77268,7 +77340,7 @@
         <v>13</v>
       </c>
       <c r="N2284" s="35" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="V2284" s="35"/>
     </row>
@@ -77292,7 +77364,7 @@
         <v>14</v>
       </c>
       <c r="N2285" s="35" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="V2285" s="35"/>
     </row>
@@ -77316,7 +77388,7 @@
         <v>15</v>
       </c>
       <c r="N2286" s="35" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="V2286" s="35"/>
     </row>
@@ -77340,7 +77412,7 @@
         <v>16</v>
       </c>
       <c r="N2287" s="35" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="V2287" s="35"/>
     </row>
@@ -77364,7 +77436,7 @@
         <v>17</v>
       </c>
       <c r="N2288" s="35" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="V2288" s="35"/>
     </row>
@@ -77388,7 +77460,7 @@
         <v>18</v>
       </c>
       <c r="N2289" s="35" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="V2289" s="35"/>
     </row>
@@ -77412,13 +77484,13 @@
         <v>19</v>
       </c>
       <c r="N2290" s="35" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="O2290" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2290" s="35" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="2291" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77441,7 +77513,7 @@
         <v>20</v>
       </c>
       <c r="N2291" s="35" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V2291" s="35"/>
     </row>
@@ -77465,13 +77537,13 @@
         <v>21</v>
       </c>
       <c r="N2292" s="35" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="O2292" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2292" s="35" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="2293" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77494,13 +77566,13 @@
         <v>22</v>
       </c>
       <c r="N2293" s="35" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="P2293" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2293" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="2294" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77545,7 +77617,7 @@
         <v>2</v>
       </c>
       <c r="N2295" s="35" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="V2295" s="35"/>
     </row>
@@ -77569,7 +77641,7 @@
         <v>3</v>
       </c>
       <c r="N2296" s="35" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="V2296" s="35"/>
     </row>
@@ -77593,7 +77665,7 @@
         <v>4</v>
       </c>
       <c r="N2297" s="35" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="V2297" s="35"/>
     </row>
@@ -77617,7 +77689,7 @@
         <v>5</v>
       </c>
       <c r="N2298" s="35" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="V2298" s="35"/>
     </row>
@@ -77641,7 +77713,7 @@
         <v>6</v>
       </c>
       <c r="N2299" s="35" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="V2299" s="35"/>
     </row>
@@ -77668,7 +77740,7 @@
         <v>7</v>
       </c>
       <c r="N2300" s="35" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="V2300" s="35"/>
     </row>
@@ -77695,13 +77767,13 @@
         <v>8</v>
       </c>
       <c r="N2301" s="35" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="O2301" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2301" s="35" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="2302" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77748,7 +77820,7 @@
         <v>10</v>
       </c>
       <c r="N2303" s="35" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="V2303" s="35"/>
     </row>
@@ -77772,7 +77844,7 @@
         <v>11</v>
       </c>
       <c r="N2304" s="35" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="V2304" s="35"/>
     </row>
@@ -77796,7 +77868,7 @@
         <v>12</v>
       </c>
       <c r="N2305" s="35" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="V2305" s="35"/>
     </row>
@@ -77820,7 +77892,7 @@
         <v>13</v>
       </c>
       <c r="N2306" s="35" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="V2306" s="35"/>
     </row>
@@ -77844,7 +77916,7 @@
         <v>14</v>
       </c>
       <c r="N2307" s="35" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="V2307" s="35"/>
     </row>
@@ -77868,7 +77940,7 @@
         <v>15</v>
       </c>
       <c r="N2308" s="35" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="V2308" s="35"/>
     </row>
@@ -77892,7 +77964,7 @@
         <v>16</v>
       </c>
       <c r="N2309" s="35" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V2309" s="35"/>
     </row>
@@ -77916,7 +77988,7 @@
         <v>17</v>
       </c>
       <c r="N2310" s="35" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V2310" s="35"/>
     </row>
@@ -77940,13 +78012,13 @@
         <v>18</v>
       </c>
       <c r="N2311" s="35" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O2311" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2311" s="35" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2312" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77969,7 +78041,7 @@
         <v>19</v>
       </c>
       <c r="N2312" s="35" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="V2312" s="35"/>
     </row>
@@ -77993,7 +78065,7 @@
         <v>20</v>
       </c>
       <c r="N2313" s="35" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="V2313" s="35"/>
     </row>
@@ -78017,13 +78089,13 @@
         <v>21</v>
       </c>
       <c r="N2314" s="35" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="V2314" s="35"/>
     </row>
     <row r="2315" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2315" s="8" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="I2315" s="38" t="s">
         <v>67</v>
@@ -78044,13 +78116,13 @@
         <v>22</v>
       </c>
       <c r="N2315" s="35" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="P2315" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2315" s="35" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="2316" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78071,7 +78143,7 @@
         <v>1</v>
       </c>
       <c r="N2316" s="35" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="V2316" s="35"/>
     </row>
@@ -78095,7 +78167,7 @@
         <v>2</v>
       </c>
       <c r="N2317" s="35" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="V2317" s="35"/>
     </row>
@@ -78119,13 +78191,13 @@
         <v>3</v>
       </c>
       <c r="N2318" s="35" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O2318" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2318" s="35" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="2319" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78148,13 +78220,13 @@
         <v>4</v>
       </c>
       <c r="N2319" s="35" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="O2319" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2319" s="35" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="2320" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78177,7 +78249,7 @@
         <v>5</v>
       </c>
       <c r="N2320" s="35" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="V2320" s="35"/>
     </row>
@@ -78201,7 +78273,7 @@
         <v>6</v>
       </c>
       <c r="N2321" s="35" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="V2321" s="35"/>
     </row>
@@ -78249,13 +78321,13 @@
         <v>8</v>
       </c>
       <c r="N2323" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="O2323" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2323" s="35" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="2324" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78302,7 +78374,7 @@
         <v>10</v>
       </c>
       <c r="N2325" s="35" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="V2325" s="35"/>
     </row>
@@ -78326,7 +78398,7 @@
         <v>11</v>
       </c>
       <c r="N2326" s="35" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="V2326" s="35"/>
     </row>
@@ -78350,7 +78422,7 @@
         <v>12</v>
       </c>
       <c r="N2327" s="35" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="V2327" s="35"/>
     </row>
@@ -78374,7 +78446,7 @@
         <v>13</v>
       </c>
       <c r="N2328" s="35" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="V2328" s="35"/>
     </row>
@@ -78398,7 +78470,7 @@
         <v>14</v>
       </c>
       <c r="N2329" s="35" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="V2329" s="35"/>
     </row>
@@ -78422,7 +78494,7 @@
         <v>15</v>
       </c>
       <c r="N2330" s="35" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="V2330" s="35"/>
     </row>
@@ -78446,7 +78518,7 @@
         <v>16</v>
       </c>
       <c r="N2331" s="35" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="V2331" s="35"/>
     </row>
@@ -78470,7 +78542,7 @@
         <v>17</v>
       </c>
       <c r="N2332" s="35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="V2332" s="35"/>
     </row>
@@ -78494,7 +78566,7 @@
         <v>18</v>
       </c>
       <c r="N2333" s="35" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="V2333" s="35"/>
     </row>
@@ -78518,7 +78590,7 @@
         <v>19</v>
       </c>
       <c r="N2334" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="V2334" s="35"/>
     </row>
@@ -78542,7 +78614,7 @@
         <v>20</v>
       </c>
       <c r="N2335" s="35" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="V2335" s="35"/>
     </row>
@@ -78566,7 +78638,7 @@
         <v>21</v>
       </c>
       <c r="N2336" s="35" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="V2336" s="35"/>
     </row>
@@ -78590,7 +78662,7 @@
         <v>22</v>
       </c>
       <c r="N2337" s="35" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="V2337" s="35"/>
     </row>
@@ -78614,7 +78686,7 @@
         <v>23</v>
       </c>
       <c r="N2338" s="35" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="V2338" s="35"/>
     </row>
@@ -78638,13 +78710,13 @@
         <v>24</v>
       </c>
       <c r="N2339" s="35" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="P2339" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2339" s="35" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="2340" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78689,7 +78761,7 @@
         <v>2</v>
       </c>
       <c r="N2341" s="35" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="V2341" s="35"/>
     </row>
@@ -78713,13 +78785,13 @@
         <v>3</v>
       </c>
       <c r="N2342" s="35" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="O2342" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2342" s="35" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="2343" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78742,13 +78814,13 @@
         <v>4</v>
       </c>
       <c r="N2343" s="35" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="O2343" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2343" s="35" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="2344" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78771,7 +78843,7 @@
         <v>5</v>
       </c>
       <c r="N2344" s="35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="V2344" s="35"/>
     </row>
@@ -78795,13 +78867,13 @@
         <v>6</v>
       </c>
       <c r="N2345" s="35" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="O2345" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2345" s="35" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="2346" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78824,7 +78896,7 @@
         <v>7</v>
       </c>
       <c r="N2346" s="35" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="V2346" s="35"/>
     </row>
@@ -78848,7 +78920,7 @@
         <v>8</v>
       </c>
       <c r="N2347" s="35" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="V2347" s="35"/>
     </row>
@@ -78872,13 +78944,13 @@
         <v>9</v>
       </c>
       <c r="N2348" s="35" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="O2348" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2348" s="35" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="2349" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78901,7 +78973,7 @@
         <v>10</v>
       </c>
       <c r="N2349" s="35" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="V2349" s="35"/>
     </row>
@@ -78925,13 +78997,13 @@
         <v>11</v>
       </c>
       <c r="N2350" s="35" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="O2350" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2350" s="35" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="2351" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78954,7 +79026,7 @@
         <v>12</v>
       </c>
       <c r="N2351" s="35" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V2351" s="35"/>
     </row>
@@ -78978,13 +79050,13 @@
         <v>13</v>
       </c>
       <c r="N2352" s="35" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="O2352" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2352" s="35" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="2353" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79007,7 +79079,7 @@
         <v>14</v>
       </c>
       <c r="N2353" s="35" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="V2353" s="35"/>
     </row>
@@ -79031,7 +79103,7 @@
         <v>15</v>
       </c>
       <c r="N2354" s="35" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="V2354" s="35"/>
     </row>
@@ -79055,7 +79127,7 @@
         <v>16</v>
       </c>
       <c r="N2355" s="35" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="V2355" s="35"/>
     </row>
@@ -79103,7 +79175,7 @@
         <v>18</v>
       </c>
       <c r="N2357" s="35" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="V2357" s="35"/>
     </row>
@@ -79133,7 +79205,7 @@
         <v>78</v>
       </c>
       <c r="V2358" s="35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="2359" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79156,13 +79228,13 @@
         <v>20</v>
       </c>
       <c r="N2359" s="35" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="P2359" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2359" s="35" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="2360" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79183,13 +79255,13 @@
         <v>1</v>
       </c>
       <c r="N2360" s="35" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O2360" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2360" s="35" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="2361" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79212,7 +79284,7 @@
         <v>2</v>
       </c>
       <c r="N2361" s="35" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="V2361" s="35"/>
     </row>
@@ -79236,7 +79308,7 @@
         <v>3</v>
       </c>
       <c r="N2362" s="35" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V2362" s="35"/>
     </row>
@@ -79260,13 +79332,13 @@
         <v>4</v>
       </c>
       <c r="N2363" s="35" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="O2363" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2363" s="35" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2364" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79289,7 +79361,7 @@
         <v>5</v>
       </c>
       <c r="N2364" s="35" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="V2364" s="35"/>
     </row>
@@ -79313,13 +79385,13 @@
         <v>6</v>
       </c>
       <c r="N2365" s="35" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="O2365" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2365" s="35" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="2366" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79342,13 +79414,13 @@
         <v>7</v>
       </c>
       <c r="N2366" s="35" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="O2366" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2366" s="35" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="2367" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79371,13 +79443,13 @@
         <v>8</v>
       </c>
       <c r="N2367" s="35" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="O2367" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2367" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="2368" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79400,13 +79472,13 @@
         <v>9</v>
       </c>
       <c r="N2368" s="35" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="O2368" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2368" s="35" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="2369" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79429,7 +79501,7 @@
         <v>10</v>
       </c>
       <c r="N2369" s="35" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="V2369" s="35"/>
     </row>
@@ -79453,13 +79525,13 @@
         <v>11</v>
       </c>
       <c r="N2370" s="35" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="O2370" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2370" s="35" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="2371" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79482,7 +79554,7 @@
         <v>12</v>
       </c>
       <c r="N2371" s="35" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="V2371" s="35"/>
     </row>
@@ -79506,13 +79578,13 @@
         <v>13</v>
       </c>
       <c r="N2372" s="35" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="O2372" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2372" s="35" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="2373" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79559,13 +79631,13 @@
         <v>15</v>
       </c>
       <c r="N2374" s="35" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="O2374" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2374" s="35" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="2375" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79588,13 +79660,13 @@
         <v>16</v>
       </c>
       <c r="N2375" s="35" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="P2375" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2375" s="35" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="2376" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79615,13 +79687,13 @@
         <v>1</v>
       </c>
       <c r="N2376" s="35" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="S2376" s="8" t="s">
         <v>119</v>
       </c>
       <c r="T2376" s="8" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="V2376" s="35"/>
     </row>
@@ -79645,7 +79717,7 @@
         <v>2</v>
       </c>
       <c r="N2377" s="35" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="V2377" s="35"/>
     </row>
@@ -79669,7 +79741,7 @@
         <v>3</v>
       </c>
       <c r="N2378" s="35" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="V2378" s="35"/>
     </row>
@@ -79693,7 +79765,7 @@
         <v>4</v>
       </c>
       <c r="N2379" s="35" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="V2379" s="35"/>
     </row>
@@ -79717,7 +79789,7 @@
         <v>5</v>
       </c>
       <c r="N2380" s="35" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="V2380" s="35"/>
     </row>
@@ -79741,7 +79813,7 @@
         <v>6</v>
       </c>
       <c r="N2381" s="35" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="V2381" s="35"/>
     </row>
@@ -79789,7 +79861,7 @@
         <v>8</v>
       </c>
       <c r="N2383" s="35" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="V2383" s="35"/>
     </row>
@@ -79813,7 +79885,7 @@
         <v>9</v>
       </c>
       <c r="N2384" s="35" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="V2384" s="35"/>
     </row>
@@ -79837,7 +79909,7 @@
         <v>10</v>
       </c>
       <c r="N2385" s="35" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="V2385" s="35"/>
     </row>
@@ -79861,7 +79933,7 @@
         <v>11</v>
       </c>
       <c r="N2386" s="35" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="V2386" s="35"/>
     </row>
@@ -79885,7 +79957,7 @@
         <v>12</v>
       </c>
       <c r="N2387" s="35" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="V2387" s="35"/>
     </row>
@@ -79909,13 +79981,13 @@
         <v>13</v>
       </c>
       <c r="N2388" s="35" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="O2388" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2388" s="35" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="2389" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79938,7 +80010,7 @@
         <v>14</v>
       </c>
       <c r="N2389" s="35" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="V2389" s="35"/>
     </row>
@@ -80010,7 +80082,7 @@
         <v>17</v>
       </c>
       <c r="N2392" s="35" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="V2392" s="35"/>
     </row>
@@ -80034,13 +80106,13 @@
         <v>18</v>
       </c>
       <c r="N2393" s="35" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="O2393" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2393" s="35" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="2394" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80087,7 +80159,7 @@
         <v>20</v>
       </c>
       <c r="N2395" s="35" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="V2395" s="35"/>
     </row>
@@ -80111,7 +80183,7 @@
         <v>21</v>
       </c>
       <c r="N2396" s="35" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V2396" s="35"/>
     </row>
@@ -80138,7 +80210,7 @@
         <v>22</v>
       </c>
       <c r="N2397" s="35" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="V2397" s="35"/>
     </row>
@@ -80165,13 +80237,13 @@
         <v>23</v>
       </c>
       <c r="N2398" s="35" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="O2398" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2398" s="35" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="2399" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80221,13 +80293,13 @@
         <v>25</v>
       </c>
       <c r="N2400" s="35" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="O2400" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2400" s="35" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2401" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80274,7 +80346,7 @@
         <v>27</v>
       </c>
       <c r="N2402" s="35" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="V2402" s="35"/>
     </row>
@@ -80304,7 +80376,7 @@
         <v>79</v>
       </c>
       <c r="V2403" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="2404" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80349,7 +80421,7 @@
         <v>2</v>
       </c>
       <c r="N2405" s="35" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="V2405" s="35"/>
     </row>
@@ -80373,7 +80445,7 @@
         <v>3</v>
       </c>
       <c r="N2406" s="35" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="V2406" s="35"/>
     </row>
@@ -80397,13 +80469,13 @@
         <v>4</v>
       </c>
       <c r="N2407" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="O2407" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2407" s="35" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="2408" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80426,7 +80498,7 @@
         <v>5</v>
       </c>
       <c r="N2408" s="35" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="V2408" s="35"/>
     </row>
@@ -80450,7 +80522,7 @@
         <v>6</v>
       </c>
       <c r="N2409" s="35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="V2409" s="35"/>
     </row>
@@ -80474,7 +80546,7 @@
         <v>7</v>
       </c>
       <c r="N2410" s="35" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="V2410" s="35"/>
     </row>
@@ -80498,7 +80570,7 @@
         <v>8</v>
       </c>
       <c r="N2411" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="V2411" s="35"/>
     </row>
@@ -80522,7 +80594,7 @@
         <v>9</v>
       </c>
       <c r="N2412" s="35" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="V2412" s="35"/>
     </row>
@@ -80546,7 +80618,7 @@
         <v>10</v>
       </c>
       <c r="N2413" s="35" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="V2413" s="35"/>
     </row>
@@ -80576,7 +80648,7 @@
         <v>78</v>
       </c>
       <c r="V2414" s="35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="2415" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80599,7 +80671,7 @@
         <v>12</v>
       </c>
       <c r="N2415" s="35" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="V2415" s="35"/>
     </row>
@@ -80623,7 +80695,7 @@
         <v>13</v>
       </c>
       <c r="N2416" s="35" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="V2416" s="35"/>
     </row>
@@ -80647,7 +80719,7 @@
         <v>14</v>
       </c>
       <c r="N2417" s="35" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V2417" s="35"/>
     </row>
@@ -80671,7 +80743,7 @@
         <v>15</v>
       </c>
       <c r="N2418" s="35" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V2418" s="35"/>
     </row>
@@ -80695,7 +80767,7 @@
         <v>16</v>
       </c>
       <c r="N2419" s="35" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="V2419" s="35"/>
     </row>
@@ -80719,7 +80791,7 @@
         <v>17</v>
       </c>
       <c r="N2420" s="35" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="V2420" s="35"/>
     </row>
@@ -80743,7 +80815,7 @@
         <v>18</v>
       </c>
       <c r="N2421" s="35" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="V2421" s="35"/>
     </row>
@@ -80767,7 +80839,7 @@
         <v>19</v>
       </c>
       <c r="N2422" s="35" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="V2422" s="35"/>
     </row>
@@ -80791,7 +80863,7 @@
         <v>20</v>
       </c>
       <c r="N2423" s="35" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="V2423" s="35"/>
     </row>
@@ -80839,7 +80911,7 @@
         <v>22</v>
       </c>
       <c r="N2425" s="35" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="V2425" s="35"/>
     </row>
@@ -80863,7 +80935,7 @@
         <v>23</v>
       </c>
       <c r="N2426" s="35" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="V2426" s="35"/>
     </row>
@@ -80887,7 +80959,7 @@
         <v>24</v>
       </c>
       <c r="N2427" s="35" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="V2427" s="35"/>
     </row>
@@ -80911,7 +80983,7 @@
         <v>25</v>
       </c>
       <c r="N2428" s="35" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="V2428" s="35"/>
     </row>
@@ -80935,13 +81007,13 @@
         <v>26</v>
       </c>
       <c r="N2429" s="35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="O2429" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2429" s="35" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="2430" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80964,7 +81036,7 @@
         <v>27</v>
       </c>
       <c r="N2430" s="35" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="V2430" s="35"/>
     </row>
@@ -80988,7 +81060,7 @@
         <v>28</v>
       </c>
       <c r="N2431" s="35" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="V2431" s="35"/>
     </row>
@@ -81012,13 +81084,13 @@
         <v>29</v>
       </c>
       <c r="N2432" s="35" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="P2432" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2432" s="35" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="2433" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81039,7 +81111,7 @@
         <v>1</v>
       </c>
       <c r="N2433" s="35" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="V2433" s="35"/>
     </row>
@@ -81063,7 +81135,7 @@
         <v>2</v>
       </c>
       <c r="N2434" s="35" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="V2434" s="35"/>
     </row>
@@ -81087,7 +81159,7 @@
         <v>3</v>
       </c>
       <c r="N2435" s="35" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="V2435" s="35"/>
     </row>
@@ -81111,13 +81183,13 @@
         <v>4</v>
       </c>
       <c r="N2436" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="O2436" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2436" s="35" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="2437" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81140,7 +81212,7 @@
         <v>5</v>
       </c>
       <c r="N2437" s="35" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="V2437" s="35"/>
     </row>
@@ -81164,7 +81236,7 @@
         <v>6</v>
       </c>
       <c r="N2438" s="35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="V2438" s="35"/>
     </row>
@@ -81188,7 +81260,7 @@
         <v>7</v>
       </c>
       <c r="N2439" s="35" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="V2439" s="35"/>
     </row>
@@ -81212,7 +81284,7 @@
         <v>8</v>
       </c>
       <c r="N2440" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="V2440" s="35"/>
     </row>
@@ -81236,7 +81308,7 @@
         <v>9</v>
       </c>
       <c r="N2441" s="35" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="V2441" s="35"/>
     </row>
@@ -81260,7 +81332,7 @@
         <v>10</v>
       </c>
       <c r="N2442" s="35" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="V2442" s="35"/>
     </row>
@@ -81284,7 +81356,7 @@
         <v>11</v>
       </c>
       <c r="N2443" s="35" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="V2443" s="35"/>
     </row>
@@ -81308,7 +81380,7 @@
         <v>12</v>
       </c>
       <c r="N2444" s="35" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="V2444" s="35"/>
     </row>
@@ -81335,7 +81407,7 @@
         <v>13</v>
       </c>
       <c r="N2445" s="35" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="V2445" s="35"/>
     </row>
@@ -81362,7 +81434,7 @@
         <v>14</v>
       </c>
       <c r="N2446" s="35" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V2446" s="35"/>
     </row>
@@ -81389,7 +81461,7 @@
         <v>15</v>
       </c>
       <c r="N2447" s="35" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="V2447" s="35"/>
     </row>
@@ -81416,7 +81488,7 @@
         <v>16</v>
       </c>
       <c r="N2448" s="35" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="V2448" s="35"/>
     </row>
@@ -81440,7 +81512,7 @@
         <v>17</v>
       </c>
       <c r="N2449" s="35" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="V2449" s="35"/>
     </row>
@@ -81464,7 +81536,7 @@
         <v>18</v>
       </c>
       <c r="N2450" s="35" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="V2450" s="35"/>
     </row>
@@ -81488,7 +81560,7 @@
         <v>19</v>
       </c>
       <c r="N2451" s="35" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="V2451" s="35"/>
     </row>
@@ -81512,7 +81584,7 @@
         <v>20</v>
       </c>
       <c r="N2452" s="35" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="V2452" s="35"/>
     </row>
@@ -81536,7 +81608,7 @@
         <v>21</v>
       </c>
       <c r="N2453" s="35" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="V2453" s="35"/>
     </row>
@@ -81560,7 +81632,7 @@
         <v>22</v>
       </c>
       <c r="N2454" s="35" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="V2454" s="35"/>
     </row>
@@ -81584,7 +81656,7 @@
         <v>23</v>
       </c>
       <c r="N2455" s="35" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="V2455" s="35"/>
     </row>
@@ -81608,7 +81680,7 @@
         <v>24</v>
       </c>
       <c r="N2456" s="35" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="V2456" s="35"/>
     </row>
@@ -81632,13 +81704,13 @@
         <v>25</v>
       </c>
       <c r="N2457" s="35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="O2457" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2457" s="35" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="2458" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81661,7 +81733,7 @@
         <v>26</v>
       </c>
       <c r="N2458" s="35" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="V2458" s="35"/>
     </row>
@@ -81685,13 +81757,13 @@
         <v>27</v>
       </c>
       <c r="N2459" s="35" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="V2459" s="35"/>
     </row>
     <row r="2460" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2460" s="8" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="I2460" s="38" t="s">
         <v>73</v>
@@ -81712,13 +81784,13 @@
         <v>28</v>
       </c>
       <c r="N2460" s="35" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="P2460" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2460" s="35" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="2461" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81739,7 +81811,7 @@
         <v>1</v>
       </c>
       <c r="N2461" s="35" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="V2461" s="35"/>
     </row>
@@ -81763,13 +81835,13 @@
         <v>2</v>
       </c>
       <c r="N2462" s="35" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O2462" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2462" s="35" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="2463" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81792,13 +81864,13 @@
         <v>3</v>
       </c>
       <c r="N2463" s="35" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="O2463" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2463" s="35" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="2464" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81821,7 +81893,7 @@
         <v>4</v>
       </c>
       <c r="N2464" s="35" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="V2464" s="35"/>
     </row>
@@ -81845,7 +81917,7 @@
         <v>5</v>
       </c>
       <c r="N2465" s="35" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="V2465" s="35"/>
     </row>
@@ -81869,7 +81941,7 @@
         <v>6</v>
       </c>
       <c r="N2466" s="35" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="V2466" s="35"/>
     </row>
@@ -81893,7 +81965,7 @@
         <v>7</v>
       </c>
       <c r="N2467" s="35" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="V2467" s="35"/>
     </row>
@@ -81917,7 +81989,7 @@
         <v>8</v>
       </c>
       <c r="N2468" s="35" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="V2468" s="35"/>
     </row>
@@ -81941,7 +82013,7 @@
         <v>9</v>
       </c>
       <c r="N2469" s="35" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="V2469" s="35"/>
     </row>
@@ -81965,13 +82037,13 @@
         <v>10</v>
       </c>
       <c r="N2470" s="35" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="O2470" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2470" s="35" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="2471" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81994,7 +82066,7 @@
         <v>11</v>
       </c>
       <c r="N2471" s="35" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V2471" s="35"/>
     </row>
@@ -82018,13 +82090,13 @@
         <v>12</v>
       </c>
       <c r="N2472" s="35" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="O2472" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2472" s="35" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="2473" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82047,7 +82119,7 @@
         <v>13</v>
       </c>
       <c r="N2473" s="35" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V2473" s="35"/>
     </row>
@@ -82071,7 +82143,7 @@
         <v>14</v>
       </c>
       <c r="N2474" s="35" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V2474" s="35"/>
     </row>
@@ -82095,7 +82167,7 @@
         <v>15</v>
       </c>
       <c r="N2475" s="35" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V2475" s="35"/>
     </row>
@@ -82119,13 +82191,13 @@
         <v>16</v>
       </c>
       <c r="N2476" s="35" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="O2476" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2476" s="35" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="2477" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82148,7 +82220,7 @@
         <v>17</v>
       </c>
       <c r="N2477" s="35" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="V2477" s="35"/>
     </row>
@@ -82172,13 +82244,13 @@
         <v>18</v>
       </c>
       <c r="N2478" s="35" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="O2478" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2478" s="35" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="2479" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82201,7 +82273,7 @@
         <v>19</v>
       </c>
       <c r="N2479" s="35" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="V2479" s="35"/>
     </row>
@@ -82225,13 +82297,13 @@
         <v>20</v>
       </c>
       <c r="N2480" s="35" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="O2480" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2480" s="35" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="2481" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82254,7 +82326,7 @@
         <v>21</v>
       </c>
       <c r="N2481" s="35" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="V2481" s="35"/>
     </row>
@@ -82278,7 +82350,7 @@
         <v>22</v>
       </c>
       <c r="N2482" s="35" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="O2482" s="8" t="s">
         <v>78</v>
@@ -82287,7 +82359,7 @@
         <v>79</v>
       </c>
       <c r="V2482" s="35" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="2483" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82308,7 +82380,7 @@
         <v>1</v>
       </c>
       <c r="N2483" s="35" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="V2483" s="35"/>
     </row>
@@ -82359,7 +82431,7 @@
         <v>3</v>
       </c>
       <c r="N2485" s="35" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="V2485" s="35"/>
     </row>
@@ -82383,7 +82455,7 @@
         <v>4</v>
       </c>
       <c r="N2486" s="35" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="V2486" s="35"/>
     </row>
@@ -82407,7 +82479,7 @@
         <v>5</v>
       </c>
       <c r="N2487" s="35" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="V2487" s="35"/>
     </row>
@@ -82431,7 +82503,7 @@
         <v>6</v>
       </c>
       <c r="N2488" s="35" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="V2488" s="35"/>
     </row>
@@ -82455,7 +82527,7 @@
         <v>7</v>
       </c>
       <c r="N2489" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="V2489" s="35"/>
     </row>
@@ -82479,7 +82551,7 @@
         <v>8</v>
       </c>
       <c r="N2490" s="35" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="O2490" s="8" t="s">
         <v>78</v>
@@ -82488,7 +82560,7 @@
         <v>79</v>
       </c>
       <c r="V2490" s="35" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="2491" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82559,7 +82631,7 @@
         <v>11</v>
       </c>
       <c r="N2493" s="35" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="V2493" s="35"/>
     </row>
@@ -82589,7 +82661,7 @@
         <v>78</v>
       </c>
       <c r="V2494" s="35" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="2495" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82708,13 +82780,13 @@
         <v>17</v>
       </c>
       <c r="N2499" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O2499" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2499" s="35" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="2500" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82737,13 +82809,13 @@
         <v>18</v>
       </c>
       <c r="N2500" s="35" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="P2500" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2500" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="2501" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82764,7 +82836,7 @@
         <v>1</v>
       </c>
       <c r="N2501" s="35" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="V2501" s="35"/>
     </row>
@@ -82812,7 +82884,7 @@
         <v>3</v>
       </c>
       <c r="N2503" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="V2503" s="35"/>
     </row>
@@ -82836,7 +82908,7 @@
         <v>4</v>
       </c>
       <c r="N2504" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="V2504" s="35"/>
     </row>
@@ -82860,13 +82932,13 @@
         <v>5</v>
       </c>
       <c r="N2505" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="O2505" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2505" s="35" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="2506" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82892,7 +82964,7 @@
         <v>6</v>
       </c>
       <c r="N2506" s="35" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="V2506" s="35"/>
     </row>
@@ -82955,7 +83027,7 @@
         <v>8</v>
       </c>
       <c r="N2508" s="35" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="V2508" s="35"/>
     </row>
@@ -82979,7 +83051,7 @@
         <v>9</v>
       </c>
       <c r="N2509" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V2509" s="35"/>
     </row>
@@ -83051,7 +83123,7 @@
         <v>12</v>
       </c>
       <c r="N2512" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="V2512" s="35"/>
     </row>
@@ -83075,7 +83147,7 @@
         <v>13</v>
       </c>
       <c r="N2513" s="35" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="V2513" s="35"/>
     </row>
@@ -83099,13 +83171,13 @@
         <v>14</v>
       </c>
       <c r="N2514" s="35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="O2514" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2514" s="35" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="2515" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83128,7 +83200,7 @@
         <v>15</v>
       </c>
       <c r="N2515" s="35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="V2515" s="35"/>
     </row>
@@ -83152,7 +83224,7 @@
         <v>16</v>
       </c>
       <c r="N2516" s="35" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="V2516" s="35"/>
     </row>
@@ -83230,7 +83302,7 @@
         <v>78</v>
       </c>
       <c r="V2519" s="35" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="2520" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83277,7 +83349,7 @@
         <v>21</v>
       </c>
       <c r="N2521" s="35" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="V2521" s="35"/>
     </row>
@@ -83325,7 +83397,7 @@
         <v>23</v>
       </c>
       <c r="N2523" s="35" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="V2523" s="35"/>
     </row>
@@ -83355,7 +83427,7 @@
         <v>78</v>
       </c>
       <c r="V2524" s="35" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="2525" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83378,13 +83450,13 @@
         <v>25</v>
       </c>
       <c r="N2525" s="35" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="P2525" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2525" s="35" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2526" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83501,7 +83573,7 @@
         <v>5</v>
       </c>
       <c r="N2530" s="35" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="V2530" s="35"/>
     </row>
@@ -83597,7 +83669,7 @@
         <v>9</v>
       </c>
       <c r="N2534" s="35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="V2534" s="35"/>
     </row>
@@ -83621,7 +83693,7 @@
         <v>10</v>
       </c>
       <c r="N2535" s="35" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V2535" s="35"/>
     </row>
@@ -83765,7 +83837,7 @@
         <v>16</v>
       </c>
       <c r="N2541" s="35" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="V2541" s="35"/>
     </row>
@@ -83840,7 +83912,7 @@
         <v>19</v>
       </c>
       <c r="N2544" s="35" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="V2544" s="35"/>
     </row>
@@ -83864,7 +83936,7 @@
         <v>20</v>
       </c>
       <c r="N2545" s="35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="V2545" s="35"/>
     </row>
@@ -83960,7 +84032,7 @@
         <v>24</v>
       </c>
       <c r="N2549" s="35" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="V2549" s="35"/>
     </row>
@@ -84056,7 +84128,7 @@
         <v>28</v>
       </c>
       <c r="N2553" s="35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="V2553" s="35"/>
     </row>
@@ -84080,7 +84152,7 @@
         <v>29</v>
       </c>
       <c r="N2554" s="35" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V2554" s="35"/>
     </row>
@@ -84104,7 +84176,7 @@
         <v>30</v>
       </c>
       <c r="N2555" s="35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="V2555" s="35"/>
     </row>
@@ -84254,7 +84326,7 @@
         <v>119</v>
       </c>
       <c r="T2561" s="8" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="V2561" s="35"/>
     </row>
@@ -84278,7 +84350,7 @@
         <v>37</v>
       </c>
       <c r="N2562" s="35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="V2562" s="35"/>
     </row>
@@ -84302,7 +84374,7 @@
         <v>38</v>
       </c>
       <c r="N2563" s="35" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="V2563" s="35"/>
     </row>
@@ -84350,13 +84422,13 @@
         <v>40</v>
       </c>
       <c r="N2565" s="35" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O2565" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2565" s="35" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="2566" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84475,7 +84547,7 @@
         <v>45</v>
       </c>
       <c r="N2570" s="35" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="V2570" s="35"/>
     </row>
@@ -84571,7 +84643,7 @@
         <v>49</v>
       </c>
       <c r="N2574" s="35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="V2574" s="35"/>
     </row>
@@ -84595,7 +84667,7 @@
         <v>50</v>
       </c>
       <c r="N2575" s="35" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="V2575" s="35"/>
     </row>
@@ -84739,7 +84811,7 @@
         <v>56</v>
       </c>
       <c r="N2581" s="35" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="V2581" s="35"/>
     </row>
@@ -84763,7 +84835,7 @@
         <v>57</v>
       </c>
       <c r="N2582" s="35" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="V2582" s="35"/>
     </row>
@@ -84787,7 +84859,7 @@
         <v>58</v>
       </c>
       <c r="N2583" s="35" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O2583" s="8" t="s">
         <v>78</v>
@@ -84796,7 +84868,7 @@
         <v>79</v>
       </c>
       <c r="V2583" s="35" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="2584" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5C8F3B-E75E-4A4F-AC62-B34714828F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8485A489-5C4E-42EE-88C9-9A28B70BD42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6668" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6667" uniqueCount="1721">
   <si>
     <t>Passage</t>
   </si>
@@ -5181,9 +5181,6 @@
     <t>uda~g#</t>
   </si>
   <si>
-    <t>upAyA ~jcitIByAm</t>
-  </si>
-  <si>
     <t>gRuhNAmyagre agre - alopam</t>
   </si>
   <si>
@@ -5191,6 +5188,9 @@
   </si>
   <si>
     <t>rAyo &amp;gnim - lopam</t>
+  </si>
+  <si>
+    <t>upAya ~jcitIByAm</t>
   </si>
 </sst>
 </file>
@@ -5393,7 +5393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5558,9 +5558,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5570,13 +5567,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5861,10 +5855,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2038" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2576" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N2045" sqref="N2045"/>
+      <selection pane="bottomLeft" activeCell="N2508" sqref="N2507:N2508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -35901,7 +35895,7 @@
         <f t="shared" si="42"/>
         <v>17</v>
       </c>
-      <c r="N844" s="35" t="s">
+      <c r="N844" s="52" t="s">
         <v>288</v>
       </c>
       <c r="O844" s="8" t="s">
@@ -35934,7 +35928,7 @@
         <f t="shared" si="42"/>
         <v>18</v>
       </c>
-      <c r="N845" s="35" t="s">
+      <c r="N845" s="52" t="s">
         <v>630</v>
       </c>
       <c r="O845" s="8"/>
@@ -45415,7 +45409,7 @@
     </row>
     <row r="1147" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1147" s="55" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="H1147" s="42" t="s">
         <v>108</v>
@@ -61361,46 +61355,43 @@
       <c r="V1659" s="35"/>
     </row>
     <row r="1660" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="H1660" s="56" t="s">
+      <c r="H1660" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="I1660" s="57" t="s">
+      <c r="I1660" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="J1660" s="58">
+      <c r="J1660" s="9">
         <v>33</v>
       </c>
-      <c r="K1660" s="57">
+      <c r="K1660" s="38">
         <f t="shared" si="76"/>
         <v>1659</v>
       </c>
-      <c r="L1660" s="57">
+      <c r="L1660" s="38">
         <f t="shared" si="77"/>
         <v>21</v>
       </c>
-      <c r="M1660" s="57">
+      <c r="M1660" s="38">
         <f t="shared" si="78"/>
         <v>21</v>
       </c>
-      <c r="N1660" s="59" t="s">
+      <c r="N1660" s="35" t="s">
         <v>906</v>
       </c>
-      <c r="O1660" s="60" t="s">
+      <c r="O1660" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P1660" s="60" t="s">
+      <c r="P1660" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="Q1660" s="61"/>
-      <c r="R1660" s="61"/>
-      <c r="S1660" s="60" t="s">
+      <c r="S1660" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="T1660" s="60" t="s">
+      <c r="T1660" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="U1660" s="60"/>
-      <c r="V1660" s="59" t="s">
+      <c r="V1660" s="35" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -65174,7 +65165,7 @@
     </row>
     <row r="1808" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1808" s="8" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G1808" s="46" t="s">
         <v>153</v>
@@ -65203,14 +65194,14 @@
       <c r="N1808" s="54" t="s">
         <v>582</v>
       </c>
-      <c r="U1808" s="62" t="s">
+      <c r="U1808" s="55" t="s">
         <v>128</v>
       </c>
       <c r="V1808" s="35"/>
     </row>
     <row r="1809" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1809" s="8" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="G1809" s="46" t="s">
         <v>153</v>
@@ -65246,7 +65237,7 @@
     </row>
     <row r="1810" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1810" s="8" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="G1810" s="46" t="s">
         <v>153</v>
@@ -66742,27 +66733,33 @@
       </c>
     </row>
     <row r="1866" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I1866" s="38" t="s">
+      <c r="I1866" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="J1866" s="9">
+      <c r="J1866" s="57">
         <v>37</v>
       </c>
-      <c r="K1866" s="38">
+      <c r="K1866" s="56">
         <f t="shared" si="88"/>
         <v>1865</v>
       </c>
-      <c r="L1866" s="38">
+      <c r="L1866" s="56">
         <f t="shared" si="89"/>
         <v>11</v>
       </c>
-      <c r="M1866" s="38">
+      <c r="M1866" s="56">
         <f t="shared" si="90"/>
         <v>61</v>
       </c>
-      <c r="N1866" s="35" t="s">
+      <c r="N1866" s="58" t="s">
         <v>620</v>
       </c>
+      <c r="O1866" s="59"/>
+      <c r="P1866" s="60"/>
+      <c r="Q1866" s="60"/>
+      <c r="R1866" s="60"/>
+      <c r="S1866" s="60"/>
+      <c r="T1866" s="60"/>
       <c r="V1866" s="35"/>
     </row>
     <row r="1867" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66863,7 +66860,7 @@
     </row>
     <row r="1871" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1871" s="8" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I1871" s="38" t="s">
         <v>56</v>
@@ -66893,7 +66890,7 @@
     </row>
     <row r="1872" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1872" s="8" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="I1872" s="38" t="s">
         <v>56</v>
@@ -66921,10 +66918,7 @@
       </c>
       <c r="V1872" s="35"/>
     </row>
-    <row r="1873" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1873" s="8" t="s">
-        <v>1720</v>
-      </c>
+    <row r="1873" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1873" s="38" t="s">
         <v>56</v>
       </c>
@@ -66948,7 +66942,7 @@
       </c>
       <c r="V1873" s="35"/>
     </row>
-    <row r="1874" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1874" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1874" s="38" t="s">
         <v>56</v>
       </c>
@@ -66972,7 +66966,7 @@
       </c>
       <c r="V1874" s="35"/>
     </row>
-    <row r="1875" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1875" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1875" s="38" t="s">
         <v>56</v>
       </c>
@@ -66996,7 +66990,7 @@
       </c>
       <c r="V1875" s="35"/>
     </row>
-    <row r="1876" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1876" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1876" s="38" t="s">
         <v>56</v>
       </c>
@@ -67020,7 +67014,7 @@
       </c>
       <c r="V1876" s="35"/>
     </row>
-    <row r="1877" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1877" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1877" s="38" t="s">
         <v>56</v>
       </c>
@@ -67044,7 +67038,7 @@
       </c>
       <c r="V1877" s="35"/>
     </row>
-    <row r="1878" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1878" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1878" s="38" t="s">
         <v>56</v>
       </c>
@@ -67068,7 +67062,7 @@
       </c>
       <c r="V1878" s="35"/>
     </row>
-    <row r="1879" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1879" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1879" s="38" t="s">
         <v>56</v>
       </c>
@@ -67092,7 +67086,7 @@
       </c>
       <c r="V1879" s="35"/>
     </row>
-    <row r="1880" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1880" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1880" s="38" t="s">
         <v>56</v>
       </c>
@@ -67116,7 +67110,7 @@
       </c>
       <c r="V1880" s="35"/>
     </row>
-    <row r="1881" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1881" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1881" s="38" t="s">
         <v>56</v>
       </c>
@@ -67140,7 +67134,7 @@
       </c>
       <c r="V1881" s="35"/>
     </row>
-    <row r="1882" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1882" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1882" s="38" t="s">
         <v>56</v>
       </c>
@@ -67164,7 +67158,7 @@
       </c>
       <c r="V1882" s="35"/>
     </row>
-    <row r="1883" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1883" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1883" s="38" t="s">
         <v>56</v>
       </c>
@@ -67191,7 +67185,7 @@
       </c>
       <c r="V1883" s="35"/>
     </row>
-    <row r="1884" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1884" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1884" s="38" t="s">
         <v>56</v>
       </c>
@@ -67215,7 +67209,7 @@
       </c>
       <c r="V1884" s="35"/>
     </row>
-    <row r="1885" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1885" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1885" s="38" t="s">
         <v>56</v>
       </c>
@@ -67244,7 +67238,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="1886" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1886" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1886" s="38" t="s">
         <v>56</v>
       </c>
@@ -67268,7 +67262,7 @@
       </c>
       <c r="V1886" s="35"/>
     </row>
-    <row r="1887" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1887" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1887" s="43" t="s">
         <v>137</v>
       </c>
@@ -67295,7 +67289,7 @@
       </c>
       <c r="V1887" s="35"/>
     </row>
-    <row r="1888" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1888" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1888" s="43" t="s">
         <v>137</v>
       </c>

--- a/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5935E58D-18F8-41D2-9FAD-5144FA847834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE76AB71-76A2-4B06-AC0B-6D712041E855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2655,9 +2655,6 @@
     <t>jiqhvA</t>
   </si>
   <si>
-    <t>jAqtaqveqdaH</t>
-  </si>
-  <si>
     <t>meqDaya#H</t>
   </si>
   <si>
@@ -5191,6 +5188,9 @@
   </si>
   <si>
     <t>uqpAyann#</t>
+  </si>
+  <si>
+    <t>jAqtaqveqdaqH</t>
   </si>
 </sst>
 </file>
@@ -5843,10 +5843,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2728"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1646" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N1140" sqref="N1140"/>
+      <selection pane="bottomLeft" activeCell="V1648" sqref="V1648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6483,7 +6483,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>78</v>
@@ -6495,7 +6495,7 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="35" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -6851,7 +6851,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7528,7 +7528,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="35" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7688,7 +7688,7 @@
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
       <c r="V34" s="35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="35" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8196,7 +8196,7 @@
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
       <c r="V47" s="35" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="48" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8312,7 +8312,7 @@
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
       <c r="V50" s="35" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="51" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8510,7 +8510,7 @@
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
       <c r="V55" s="35" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="56" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8553,7 +8553,7 @@
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
       <c r="V56" s="35" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="57" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8988,7 +8988,7 @@
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
       <c r="V67" s="35" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="68" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9143,7 +9143,7 @@
       <c r="T71" s="11"/>
       <c r="U71" s="11"/>
       <c r="V71" s="35" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="72" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9373,7 +9373,7 @@
       <c r="T77" s="11"/>
       <c r="U77" s="11"/>
       <c r="V77" s="35" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="78" spans="1:22" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9455,7 +9455,7 @@
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
       <c r="V79" s="35" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="80" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9529,7 +9529,7 @@
       <c r="T81" s="11"/>
       <c r="U81" s="11"/>
       <c r="V81" s="35" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="82" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9603,7 +9603,7 @@
       <c r="T83" s="11"/>
       <c r="U83" s="11"/>
       <c r="V83" s="35" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="84" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9642,7 +9642,7 @@
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
       <c r="V84" s="35" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="85" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10478,7 +10478,7 @@
       <c r="T108" s="8"/>
       <c r="U108" s="8"/>
       <c r="V108" s="35" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="109" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10688,7 +10688,7 @@
       <c r="T114" s="8"/>
       <c r="U114" s="8"/>
       <c r="V114" s="35" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="115" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10766,7 +10766,7 @@
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
       <c r="V116" s="35" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="117" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10915,7 +10915,7 @@
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
       <c r="V120" s="35" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="121" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11193,7 +11193,7 @@
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
       <c r="V128" s="35" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="129" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11714,7 +11714,7 @@
       <c r="T143" s="8"/>
       <c r="U143" s="8"/>
       <c r="V143" s="35" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="144" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11752,7 +11752,7 @@
       <c r="T144" s="8"/>
       <c r="U144" s="8"/>
       <c r="V144" s="35" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="145" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11892,7 +11892,7 @@
       <c r="T148" s="8"/>
       <c r="U148" s="8"/>
       <c r="V148" s="35" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="149" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11932,7 +11932,7 @@
       <c r="T149" s="8"/>
       <c r="U149" s="8"/>
       <c r="V149" s="35" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="150" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12104,7 +12104,7 @@
         <v>119</v>
       </c>
       <c r="T154" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="U154" s="8"/>
       <c r="V154" s="35"/>
@@ -12200,7 +12200,7 @@
         <v>8</v>
       </c>
       <c r="N157" s="35" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="O157" s="8" t="s">
         <v>78</v>
@@ -12214,7 +12214,7 @@
       <c r="T157" s="8"/>
       <c r="U157" s="8"/>
       <c r="V157" s="35" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="158" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12320,7 +12320,7 @@
       <c r="T160" s="8"/>
       <c r="U160" s="8"/>
       <c r="V160" s="35" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="161" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12518,7 +12518,7 @@
         <v>17</v>
       </c>
       <c r="N166" s="35" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O166" s="7"/>
       <c r="P166" s="8" t="s">
@@ -12530,7 +12530,7 @@
       <c r="T166" s="8"/>
       <c r="U166" s="8"/>
       <c r="V166" s="35" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="167" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12741,7 +12741,7 @@
       <c r="T172" s="8"/>
       <c r="U172" s="8"/>
       <c r="V172" s="35" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="173" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13126,7 +13126,7 @@
       <c r="T182" s="8"/>
       <c r="U182" s="8"/>
       <c r="V182" s="35" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="183" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13200,7 +13200,7 @@
       <c r="T184" s="8"/>
       <c r="U184" s="8"/>
       <c r="V184" s="35" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="185" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13227,7 +13227,7 @@
         <v>36</v>
       </c>
       <c r="N185" s="35" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="O185" s="7"/>
       <c r="P185" s="8" t="s">
@@ -13239,7 +13239,7 @@
       <c r="T185" s="8"/>
       <c r="U185" s="8"/>
       <c r="V185" s="35" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="186" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13278,7 +13278,7 @@
       <c r="T186" s="8"/>
       <c r="U186" s="8"/>
       <c r="V186" s="35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="187" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13317,7 +13317,7 @@
       <c r="T187" s="8"/>
       <c r="U187" s="8"/>
       <c r="V187" s="35" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="188" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13445,7 +13445,7 @@
         <v>42</v>
       </c>
       <c r="N191" s="35" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="O191" s="8" t="s">
         <v>78</v>
@@ -13459,7 +13459,7 @@
       <c r="T191" s="8"/>
       <c r="U191" s="8"/>
       <c r="V191" s="35" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="192" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13497,7 +13497,7 @@
       <c r="T192" s="8"/>
       <c r="U192" s="8"/>
       <c r="V192" s="35" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="193" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13535,7 +13535,7 @@
       <c r="T193" s="8"/>
       <c r="U193" s="8"/>
       <c r="V193" s="35" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="194" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13699,7 +13699,7 @@
         <v>49</v>
       </c>
       <c r="N198" s="35" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="O198" s="7"/>
       <c r="P198" s="8" t="s">
@@ -13711,7 +13711,7 @@
       <c r="T198" s="8"/>
       <c r="U198" s="8"/>
       <c r="V198" s="35" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="199" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13749,7 +13749,7 @@
       <c r="T199" s="8"/>
       <c r="U199" s="8"/>
       <c r="V199" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="200" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14013,7 +14013,7 @@
       <c r="T206" s="8"/>
       <c r="U206" s="8"/>
       <c r="V206" s="35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="207" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14128,7 +14128,7 @@
       <c r="T209" s="8"/>
       <c r="U209" s="8"/>
       <c r="V209" s="35" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="210" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14495,7 +14495,7 @@
       <c r="T219" s="8"/>
       <c r="U219" s="8"/>
       <c r="V219" s="35" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="220" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14533,7 +14533,7 @@
       <c r="T220" s="8"/>
       <c r="U220" s="8"/>
       <c r="V220" s="35" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="221" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14933,7 +14933,7 @@
         <v>83</v>
       </c>
       <c r="N232" s="36" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="O232" s="8" t="s">
         <v>78</v>
@@ -14945,7 +14945,7 @@
       <c r="T232" s="8"/>
       <c r="U232" s="8"/>
       <c r="V232" s="35" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="233" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15107,7 +15107,7 @@
         <v>88</v>
       </c>
       <c r="N237" s="35" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="O237" s="7"/>
       <c r="P237" s="8" t="s">
@@ -15119,7 +15119,7 @@
       <c r="T237" s="8"/>
       <c r="U237" s="8"/>
       <c r="V237" s="35" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="238" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15389,7 +15389,7 @@
         <v>96</v>
       </c>
       <c r="N245" s="35" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="O245" s="7"/>
       <c r="P245" s="8" t="s">
@@ -15401,7 +15401,7 @@
       <c r="T245" s="8"/>
       <c r="U245" s="8"/>
       <c r="V245" s="35" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="246" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15439,7 +15439,7 @@
       <c r="T246" s="8"/>
       <c r="U246" s="8"/>
       <c r="V246" s="35" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="247" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15807,7 +15807,7 @@
         <v>108</v>
       </c>
       <c r="N257" s="36" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="O257" s="8" t="s">
         <v>78</v>
@@ -15819,7 +15819,7 @@
       <c r="T257" s="8"/>
       <c r="U257" s="8"/>
       <c r="V257" s="35" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="258" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16207,7 +16207,7 @@
       <c r="T268" s="8"/>
       <c r="U268" s="8"/>
       <c r="V268" s="35" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="269" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16281,7 +16281,7 @@
       <c r="T270" s="8"/>
       <c r="U270" s="8"/>
       <c r="V270" s="35" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="271" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16319,7 +16319,7 @@
       <c r="T271" s="8"/>
       <c r="U271" s="8"/>
       <c r="V271" s="35" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="272" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16357,7 +16357,7 @@
       <c r="T272" s="8"/>
       <c r="U272" s="8"/>
       <c r="V272" s="35" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="273" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16395,7 +16395,7 @@
       <c r="T273" s="8"/>
       <c r="U273" s="8"/>
       <c r="V273" s="35" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="274" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16421,7 +16421,7 @@
         <v>125</v>
       </c>
       <c r="N274" s="35" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="O274" s="8" t="s">
         <v>78</v>
@@ -16435,7 +16435,7 @@
       <c r="T274" s="8"/>
       <c r="U274" s="8"/>
       <c r="V274" s="35" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="275" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16771,7 +16771,7 @@
       <c r="T283" s="8"/>
       <c r="U283" s="8"/>
       <c r="V283" s="35" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="284" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16797,7 +16797,7 @@
         <v>135</v>
       </c>
       <c r="N284" s="35" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="O284" s="7"/>
       <c r="P284" s="8" t="s">
@@ -16809,7 +16809,7 @@
       <c r="T284" s="8"/>
       <c r="U284" s="8"/>
       <c r="V284" s="35" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="285" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16951,7 +16951,7 @@
       <c r="T288" s="8"/>
       <c r="U288" s="8"/>
       <c r="V288" s="35" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="289" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17025,7 +17025,7 @@
       <c r="T290" s="8"/>
       <c r="U290" s="8"/>
       <c r="V290" s="35" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="291" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17052,7 +17052,7 @@
         <v>142</v>
       </c>
       <c r="N291" s="35" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="O291" s="8" t="s">
         <v>78</v>
@@ -17066,7 +17066,7 @@
       <c r="T291" s="8"/>
       <c r="U291" s="8"/>
       <c r="V291" s="35" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="292" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17242,7 +17242,7 @@
       <c r="T296" s="8"/>
       <c r="U296" s="8"/>
       <c r="V296" s="35" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="297" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17481,7 +17481,7 @@
         <v>154</v>
       </c>
       <c r="N303" s="35" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="O303" s="7"/>
       <c r="P303" s="8" t="s">
@@ -17493,7 +17493,7 @@
       <c r="T303" s="8"/>
       <c r="U303" s="8"/>
       <c r="V303" s="35" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="304" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17825,7 +17825,7 @@
         <v>164</v>
       </c>
       <c r="N313" s="35" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="O313" s="7"/>
       <c r="P313" s="8" t="s">
@@ -17839,7 +17839,7 @@
         <v>129</v>
       </c>
       <c r="V313" s="35" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="314" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17945,7 +17945,7 @@
       <c r="T316" s="8"/>
       <c r="U316" s="8"/>
       <c r="V316" s="35" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="317" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17983,7 +17983,7 @@
       <c r="T317" s="8"/>
       <c r="U317" s="8"/>
       <c r="V317" s="35" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="318" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18077,7 +18077,7 @@
         <v>171</v>
       </c>
       <c r="N320" s="35" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O320" s="7"/>
       <c r="P320" s="8" t="s">
@@ -18089,7 +18089,7 @@
       <c r="T320" s="8"/>
       <c r="U320" s="8"/>
       <c r="V320" s="35" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="321" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18127,7 +18127,7 @@
       <c r="T321" s="8"/>
       <c r="U321" s="8"/>
       <c r="V321" s="35" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="322" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18165,7 +18165,7 @@
       <c r="T322" s="8"/>
       <c r="U322" s="8"/>
       <c r="V322" s="35" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="323" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18203,7 +18203,7 @@
       <c r="T323" s="8"/>
       <c r="U323" s="8"/>
       <c r="V323" s="35" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="324" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18299,7 +18299,7 @@
         <v>177</v>
       </c>
       <c r="N326" s="35" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="O326" s="7"/>
       <c r="P326" s="8" t="s">
@@ -18311,7 +18311,7 @@
       <c r="T326" s="8"/>
       <c r="U326" s="8"/>
       <c r="V326" s="35" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="327" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18417,7 +18417,7 @@
       <c r="T329" s="8"/>
       <c r="U329" s="8"/>
       <c r="V329" s="35" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="330" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18579,7 +18579,7 @@
         <v>185</v>
       </c>
       <c r="N334" s="35" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O334" s="7"/>
       <c r="P334" s="8" t="s">
@@ -18591,7 +18591,7 @@
       <c r="T334" s="8"/>
       <c r="U334" s="8"/>
       <c r="V334" s="35" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="335" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18973,7 +18973,7 @@
       <c r="T345" s="8"/>
       <c r="U345" s="8"/>
       <c r="V345" s="35" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="346" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19079,7 +19079,7 @@
       <c r="T348" s="8"/>
       <c r="U348" s="8"/>
       <c r="V348" s="35" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="349" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19117,7 +19117,7 @@
       <c r="T349" s="8"/>
       <c r="U349" s="8"/>
       <c r="V349" s="35" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="350" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19315,7 +19315,7 @@
         <v>206</v>
       </c>
       <c r="N355" s="35" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="O355" s="7"/>
       <c r="P355" s="8" t="s">
@@ -19327,7 +19327,7 @@
       <c r="T355" s="8"/>
       <c r="U355" s="8"/>
       <c r="V355" s="35" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="356" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19613,7 +19613,7 @@
       <c r="T363" s="8"/>
       <c r="U363" s="8"/>
       <c r="V363" s="35" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="364" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19899,7 +19899,7 @@
       <c r="T371" s="8"/>
       <c r="U371" s="8"/>
       <c r="V371" s="35" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="372" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20006,7 +20006,7 @@
       <c r="T374" s="8"/>
       <c r="U374" s="8"/>
       <c r="V374" s="35" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="375" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20112,7 +20112,7 @@
       <c r="T377" s="8"/>
       <c r="U377" s="8"/>
       <c r="V377" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="378" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20385,10 +20385,10 @@
       <c r="Q385" s="8"/>
       <c r="R385" s="8"/>
       <c r="S385" s="8" t="s">
+        <v>1683</v>
+      </c>
+      <c r="T385" s="8" t="s">
         <v>1684</v>
-      </c>
-      <c r="T385" s="8" t="s">
-        <v>1685</v>
       </c>
       <c r="U385" s="8"/>
       <c r="V385" s="35"/>
@@ -20647,7 +20647,7 @@
       <c r="T392" s="8"/>
       <c r="U392" s="8"/>
       <c r="V392" s="35" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="393" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20725,7 +20725,7 @@
       <c r="T394" s="8"/>
       <c r="U394" s="8"/>
       <c r="V394" s="35" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="395" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20763,7 +20763,7 @@
       <c r="T395" s="8"/>
       <c r="U395" s="8"/>
       <c r="V395" s="35" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="396" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20835,7 +20835,7 @@
       <c r="T397" s="8"/>
       <c r="U397" s="8"/>
       <c r="V397" s="35" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="398" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20941,7 +20941,7 @@
       <c r="T400" s="8"/>
       <c r="U400" s="8"/>
       <c r="V400" s="35" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="401" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21013,7 +21013,7 @@
       <c r="T402" s="8"/>
       <c r="U402" s="8"/>
       <c r="V402" s="35" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="403" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21073,7 +21073,7 @@
         <v>255</v>
       </c>
       <c r="N404" s="36" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="O404" s="8" t="s">
         <v>78</v>
@@ -21085,7 +21085,7 @@
       <c r="T404" s="8"/>
       <c r="U404" s="8"/>
       <c r="V404" s="35" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="405" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21225,7 +21225,7 @@
       <c r="T408" s="8"/>
       <c r="U408" s="8"/>
       <c r="V408" s="35" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="409" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21365,7 +21365,7 @@
       <c r="T412" s="8"/>
       <c r="U412" s="8"/>
       <c r="V412" s="35" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="413" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21711,7 +21711,7 @@
       <c r="T422" s="8"/>
       <c r="U422" s="8"/>
       <c r="V422" s="35" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="423" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21773,7 +21773,7 @@
         <v>275</v>
       </c>
       <c r="N424" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="O424" s="8" t="s">
         <v>78</v>
@@ -21787,7 +21787,7 @@
       <c r="T424" s="8"/>
       <c r="U424" s="8"/>
       <c r="V424" s="35" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="425" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21925,7 +21925,7 @@
       <c r="T428" s="8"/>
       <c r="U428" s="8"/>
       <c r="V428" s="35" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="429" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21963,7 +21963,7 @@
       <c r="T429" s="8"/>
       <c r="U429" s="8"/>
       <c r="V429" s="35" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="430" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22023,7 +22023,7 @@
         <v>7</v>
       </c>
       <c r="N431" s="35" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="O431" s="8" t="s">
         <v>78</v>
@@ -22037,7 +22037,7 @@
       <c r="T431" s="8"/>
       <c r="U431" s="8"/>
       <c r="V431" s="35" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="432" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22247,7 +22247,7 @@
       <c r="T437" s="8"/>
       <c r="U437" s="8"/>
       <c r="V437" s="35" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="438" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22285,7 +22285,7 @@
       <c r="T438" s="8"/>
       <c r="U438" s="8"/>
       <c r="V438" s="35" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="439" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22323,7 +22323,7 @@
       <c r="T439" s="8"/>
       <c r="U439" s="8"/>
       <c r="V439" s="35" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="440" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22451,7 +22451,7 @@
         <v>19</v>
       </c>
       <c r="N443" s="35" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="O443" s="7"/>
       <c r="P443" s="8" t="s">
@@ -22463,7 +22463,7 @@
       <c r="T443" s="8"/>
       <c r="U443" s="8"/>
       <c r="V443" s="35" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="444" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22501,7 +22501,7 @@
       <c r="T444" s="8"/>
       <c r="U444" s="8"/>
       <c r="V444" s="35" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="445" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22539,7 +22539,7 @@
       <c r="T445" s="8"/>
       <c r="U445" s="8"/>
       <c r="V445" s="35" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="446" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22679,7 +22679,7 @@
       <c r="T449" s="8"/>
       <c r="U449" s="8"/>
       <c r="V449" s="35" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="450" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22785,7 +22785,7 @@
         <v>106</v>
       </c>
       <c r="T452" s="8" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="U452" s="8"/>
       <c r="V452" s="35"/>
@@ -23135,7 +23135,7 @@
       <c r="T462" s="8"/>
       <c r="U462" s="8"/>
       <c r="V462" s="35" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="463" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23642,7 +23642,7 @@
       <c r="T476" s="8"/>
       <c r="U476" s="8"/>
       <c r="V476" s="35" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="477" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23748,7 +23748,7 @@
       <c r="T479" s="8"/>
       <c r="U479" s="8"/>
       <c r="V479" s="35" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="480" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23856,7 +23856,7 @@
       <c r="T482" s="8"/>
       <c r="U482" s="8"/>
       <c r="V482" s="35" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="483" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23894,7 +23894,7 @@
       <c r="T483" s="8"/>
       <c r="U483" s="8"/>
       <c r="V483" s="35" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="484" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24022,7 +24022,7 @@
         <v>63</v>
       </c>
       <c r="N487" s="35" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="O487" s="7"/>
       <c r="P487" s="8" t="s">
@@ -24034,7 +24034,7 @@
       <c r="T487" s="8"/>
       <c r="U487" s="8"/>
       <c r="V487" s="35" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="488" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24164,7 +24164,7 @@
         <v>67</v>
       </c>
       <c r="N491" s="35" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="O491" s="7"/>
       <c r="P491" s="8" t="s">
@@ -24176,7 +24176,7 @@
       <c r="T491" s="8"/>
       <c r="U491" s="8"/>
       <c r="V491" s="35" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="492" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24214,7 +24214,7 @@
       <c r="T492" s="8"/>
       <c r="U492" s="8"/>
       <c r="V492" s="35" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="493" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24456,7 +24456,7 @@
       <c r="T499" s="8"/>
       <c r="U499" s="8"/>
       <c r="V499" s="36" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="500" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24954,7 +24954,7 @@
       <c r="T513" s="8"/>
       <c r="U513" s="8"/>
       <c r="V513" s="35" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="514" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25128,7 +25128,7 @@
       <c r="T518" s="8"/>
       <c r="U518" s="8"/>
       <c r="V518" s="35" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="519" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25304,7 +25304,7 @@
       <c r="T523" s="8"/>
       <c r="U523" s="8"/>
       <c r="V523" s="35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="524" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25409,7 +25409,7 @@
       <c r="T526" s="8"/>
       <c r="U526" s="8"/>
       <c r="V526" s="35" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="527" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25447,7 +25447,7 @@
       <c r="T527" s="8"/>
       <c r="U527" s="8"/>
       <c r="V527" s="35" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="528" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25519,7 +25519,7 @@
       <c r="T529" s="8"/>
       <c r="U529" s="8"/>
       <c r="V529" s="35" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="530" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25967,7 +25967,7 @@
       <c r="T542" s="8"/>
       <c r="U542" s="8"/>
       <c r="V542" s="35" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="543" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26209,7 +26209,7 @@
       <c r="T549" s="8"/>
       <c r="U549" s="8"/>
       <c r="V549" s="35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="550" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27102,7 +27102,7 @@
       <c r="T575" s="8"/>
       <c r="U575" s="8"/>
       <c r="V575" s="35" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="576" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27346,7 +27346,7 @@
       <c r="T582" s="8"/>
       <c r="U582" s="8"/>
       <c r="V582" s="35" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="583" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27382,7 +27382,7 @@
         <v>106</v>
       </c>
       <c r="T583" s="8" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="U583" s="8"/>
       <c r="V583" s="35"/>
@@ -27410,7 +27410,7 @@
         <v>160</v>
       </c>
       <c r="N584" s="35" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="O584" s="8" t="s">
         <v>78</v>
@@ -27422,7 +27422,7 @@
       <c r="T584" s="8"/>
       <c r="U584" s="8"/>
       <c r="V584" s="35" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="585" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28310,10 +28310,10 @@
       <c r="Q610" s="8"/>
       <c r="R610" s="8"/>
       <c r="S610" s="8" t="s">
+        <v>1687</v>
+      </c>
+      <c r="T610" s="8" t="s">
         <v>1688</v>
-      </c>
-      <c r="T610" s="8" t="s">
-        <v>1689</v>
       </c>
       <c r="U610" s="8"/>
       <c r="V610" s="35"/>
@@ -28629,7 +28629,7 @@
     </row>
     <row r="620" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A620" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B620" s="45"/>
       <c r="D620" s="17"/>
@@ -28664,7 +28664,7 @@
       <c r="T620" s="8"/>
       <c r="U620" s="8"/>
       <c r="V620" s="35" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="621" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29062,7 +29062,7 @@
       <c r="T631" s="14"/>
       <c r="U631" s="14"/>
       <c r="V631" s="35" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="632" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29088,7 +29088,7 @@
         <v>208</v>
       </c>
       <c r="N632" s="36" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="O632" s="8" t="s">
         <v>78</v>
@@ -29100,7 +29100,7 @@
       <c r="T632" s="8"/>
       <c r="U632" s="8"/>
       <c r="V632" s="36" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="633" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29308,7 +29308,7 @@
       <c r="T638" s="8"/>
       <c r="U638" s="8"/>
       <c r="V638" s="35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="639" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29726,7 +29726,7 @@
       <c r="T650" s="8"/>
       <c r="U650" s="8"/>
       <c r="V650" s="35" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="651" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29765,7 +29765,7 @@
       <c r="T651" s="8"/>
       <c r="U651" s="8"/>
       <c r="V651" s="36" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="652" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29987,7 +29987,7 @@
       <c r="T657" s="8"/>
       <c r="U657" s="8"/>
       <c r="V657" s="35" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="658" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30421,7 +30421,7 @@
       <c r="S670" s="8"/>
       <c r="T670" s="8"/>
       <c r="V670" s="35" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="671" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30544,7 +30544,7 @@
       <c r="S674" s="8"/>
       <c r="T674" s="8"/>
       <c r="V674" s="35" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="675" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30730,7 +30730,7 @@
       <c r="S680" s="8"/>
       <c r="T680" s="8"/>
       <c r="V680" s="35" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="681" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31366,7 +31366,7 @@
       <c r="S701" s="8"/>
       <c r="T701" s="8"/>
       <c r="V701" s="35" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="702" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31490,7 +31490,7 @@
       <c r="S705" s="8"/>
       <c r="T705" s="8"/>
       <c r="V705" s="35" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="706" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31561,7 +31561,7 @@
     </row>
     <row r="708" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A708" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G708" s="46" t="s">
         <v>152</v>
@@ -31600,7 +31600,7 @@
     </row>
     <row r="709" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A709" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G709" s="46" t="s">
         <v>152</v>
@@ -31674,7 +31674,7 @@
       <c r="S710" s="8"/>
       <c r="T710" s="8"/>
       <c r="V710" s="35" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="711" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32164,7 +32164,7 @@
       <c r="S726" s="8"/>
       <c r="T726" s="8"/>
       <c r="V726" s="35" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="727" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32447,7 +32447,7 @@
       <c r="S735" s="8"/>
       <c r="T735" s="8"/>
       <c r="V735" s="35" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="736" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32484,7 +32484,7 @@
       <c r="S736" s="8"/>
       <c r="T736" s="8"/>
       <c r="V736" s="35" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="737" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32589,7 +32589,7 @@
       <c r="S739" s="8"/>
       <c r="T739" s="8"/>
       <c r="V739" s="35" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="740" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32713,7 +32713,7 @@
       <c r="S743" s="8"/>
       <c r="T743" s="8"/>
       <c r="V743" s="35" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="744" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32777,7 +32777,7 @@
       <c r="S745" s="8"/>
       <c r="T745" s="8"/>
       <c r="V745" s="35" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="746" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32800,7 +32800,7 @@
         <v>322</v>
       </c>
       <c r="N746" s="35" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="O746" s="7"/>
       <c r="P746" s="8" t="s">
@@ -32814,7 +32814,7 @@
         <v>129</v>
       </c>
       <c r="V746" s="35" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="747" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33079,7 +33079,7 @@
         <v>331</v>
       </c>
       <c r="N755" s="35" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="O755" s="8" t="s">
         <v>78</v>
@@ -33092,7 +33092,7 @@
       <c r="S755" s="8"/>
       <c r="T755" s="8"/>
       <c r="V755" s="35" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="756" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33455,7 +33455,7 @@
         <v>343</v>
       </c>
       <c r="N767" s="35" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="O767" s="7"/>
       <c r="P767" s="8" t="s">
@@ -33466,7 +33466,7 @@
       <c r="S767" s="8"/>
       <c r="T767" s="8"/>
       <c r="V767" s="35" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="768" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33530,7 +33530,7 @@
       <c r="S769" s="8"/>
       <c r="T769" s="8"/>
       <c r="V769" s="35" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="770" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33625,7 +33625,7 @@
       <c r="S772" s="8"/>
       <c r="T772" s="8"/>
       <c r="V772" s="35" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="773" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33659,7 +33659,7 @@
       <c r="S773" s="8"/>
       <c r="T773" s="8"/>
       <c r="V773" s="35" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="774" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33712,7 +33712,7 @@
         <v>351</v>
       </c>
       <c r="N775" s="36" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="O775" s="8" t="s">
         <v>78</v>
@@ -33725,7 +33725,7 @@
       <c r="S775" s="8"/>
       <c r="T775" s="8"/>
       <c r="V775" s="35" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="776" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33819,7 +33819,7 @@
       <c r="S778" s="8"/>
       <c r="T778" s="8"/>
       <c r="V778" s="35" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="779" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34026,7 +34026,7 @@
         <v>361</v>
       </c>
       <c r="N785" s="35" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="O785" s="7"/>
       <c r="P785" s="8" t="s">
@@ -34037,7 +34037,7 @@
       <c r="S785" s="8"/>
       <c r="T785" s="8"/>
       <c r="V785" s="35" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="786" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34074,7 +34074,7 @@
       <c r="S786" s="8"/>
       <c r="T786" s="8"/>
       <c r="V786" s="35" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="787" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34341,7 +34341,7 @@
       <c r="S794" s="8"/>
       <c r="T794" s="8"/>
       <c r="V794" s="35" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="795" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34394,7 +34394,7 @@
         <v>372</v>
       </c>
       <c r="N796" s="35" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="O796" s="7"/>
       <c r="P796" s="8" t="s">
@@ -34408,7 +34408,7 @@
         <v>129</v>
       </c>
       <c r="V796" s="35" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="797" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34472,7 +34472,7 @@
       <c r="S798" s="8"/>
       <c r="T798" s="8"/>
       <c r="V798" s="35" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="799" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34717,7 +34717,7 @@
         <v>382</v>
       </c>
       <c r="N806" s="35" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="O806" s="7"/>
       <c r="P806" s="8" t="s">
@@ -34728,7 +34728,7 @@
       <c r="S806" s="8"/>
       <c r="T806" s="8"/>
       <c r="V806" s="35" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="807" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34762,7 +34762,7 @@
       <c r="S807" s="8"/>
       <c r="T807" s="8"/>
       <c r="V807" s="35" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="808" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35008,7 +35008,7 @@
       <c r="S815" s="8"/>
       <c r="T815" s="8"/>
       <c r="V815" s="35" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="816" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35343,7 +35343,7 @@
     </row>
     <row r="827" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A827" s="8" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="I827" s="38" t="s">
         <v>35</v>
@@ -35364,7 +35364,7 @@
         <v>403</v>
       </c>
       <c r="N827" s="35" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O827" s="7"/>
       <c r="P827" s="8" t="s">
@@ -35375,7 +35375,7 @@
       <c r="S827" s="8"/>
       <c r="T827" s="8"/>
       <c r="V827" s="35" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="828" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35767,7 +35767,7 @@
       <c r="S840" s="8"/>
       <c r="T840" s="8"/>
       <c r="V840" s="35" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="841" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35831,7 +35831,7 @@
       <c r="S842" s="8"/>
       <c r="T842" s="8"/>
       <c r="V842" s="35" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="843" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35927,7 +35927,7 @@
         <v>163</v>
       </c>
       <c r="T845" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V845" s="35"/>
     </row>
@@ -36115,7 +36115,7 @@
         <v>119</v>
       </c>
       <c r="T851" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="V851" s="35"/>
     </row>
@@ -36150,7 +36150,7 @@
       <c r="S852" s="8"/>
       <c r="T852" s="8"/>
       <c r="V852" s="35" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="853" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36664,7 +36664,7 @@
       <c r="S869" s="8"/>
       <c r="T869" s="8"/>
       <c r="V869" s="35" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="870" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37392,7 +37392,7 @@
       <c r="S893" s="8"/>
       <c r="T893" s="8"/>
       <c r="V893" s="35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="894" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37636,7 +37636,7 @@
         <v>119</v>
       </c>
       <c r="T901" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="V901" s="35"/>
     </row>
@@ -37764,7 +37764,7 @@
         <v>119</v>
       </c>
       <c r="T905" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="V905" s="35"/>
     </row>
@@ -37894,7 +37894,7 @@
         <v>119</v>
       </c>
       <c r="T909" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="V909" s="35"/>
     </row>
@@ -38021,7 +38021,7 @@
         <v>119</v>
       </c>
       <c r="T913" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="V913" s="35"/>
     </row>
@@ -38145,7 +38145,7 @@
         <v>119</v>
       </c>
       <c r="T917" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="V917" s="35"/>
     </row>
@@ -38479,7 +38479,7 @@
       <c r="S928" s="8"/>
       <c r="T928" s="8"/>
       <c r="V928" s="35" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="929" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38573,7 +38573,7 @@
       <c r="S931" s="8"/>
       <c r="T931" s="8"/>
       <c r="V931" s="35" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="932" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38637,7 +38637,7 @@
       <c r="S933" s="8"/>
       <c r="T933" s="8"/>
       <c r="V933" s="35" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="934" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38861,10 +38861,10 @@
       <c r="Q940" s="8"/>
       <c r="R940" s="8"/>
       <c r="S940" s="8" t="s">
+        <v>1693</v>
+      </c>
+      <c r="T940" s="8" t="s">
         <v>1694</v>
-      </c>
-      <c r="T940" s="8" t="s">
-        <v>1695</v>
       </c>
       <c r="V940" s="35"/>
     </row>
@@ -38938,7 +38938,7 @@
       <c r="S942" s="8"/>
       <c r="T942" s="8"/>
       <c r="V942" s="35" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="943" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39335,7 +39335,7 @@
       <c r="S955" s="8"/>
       <c r="T955" s="8"/>
       <c r="V955" s="35" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="956" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39671,7 +39671,7 @@
       <c r="S966" s="8"/>
       <c r="T966" s="8"/>
       <c r="V966" s="35" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="967" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40492,7 +40492,7 @@
       <c r="S992" s="8"/>
       <c r="T992" s="8"/>
       <c r="V992" s="35" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="993" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40950,7 +40950,7 @@
       <c r="S1006" s="8"/>
       <c r="T1006" s="8"/>
       <c r="V1006" s="35" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1007" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41246,7 +41246,7 @@
       <c r="S1015" s="8"/>
       <c r="T1015" s="8"/>
       <c r="V1015" s="35" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1016" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41468,7 +41468,7 @@
       <c r="S1022" s="8"/>
       <c r="T1022" s="8"/>
       <c r="V1022" s="35" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1023" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41748,7 +41748,7 @@
       <c r="S1031" s="8"/>
       <c r="T1031" s="8"/>
       <c r="V1031" s="35" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1032" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42180,7 +42180,7 @@
       <c r="S1045" s="8"/>
       <c r="T1045" s="8"/>
       <c r="V1045" s="35" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1046" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43081,7 +43081,7 @@
       <c r="S1074" s="8"/>
       <c r="T1074" s="8"/>
       <c r="V1074" s="35" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1075" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43516,7 +43516,7 @@
       <c r="S1088" s="8"/>
       <c r="T1088" s="8"/>
       <c r="V1088" s="35" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1089" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44323,7 +44323,7 @@
       <c r="S1114" s="8"/>
       <c r="T1114" s="8"/>
       <c r="V1114" s="35" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1115" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44387,7 +44387,7 @@
       <c r="S1116" s="8"/>
       <c r="T1116" s="8"/>
       <c r="V1116" s="35" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1117" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44512,7 +44512,7 @@
       <c r="S1120" s="8"/>
       <c r="T1120" s="8"/>
       <c r="V1120" s="35" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1121" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44547,7 +44547,7 @@
       <c r="S1121" s="8"/>
       <c r="T1121" s="8"/>
       <c r="V1121" s="35" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1122" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44615,7 +44615,7 @@
       <c r="S1123" s="8"/>
       <c r="T1123" s="8"/>
       <c r="V1123" s="35" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1124" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44652,7 +44652,7 @@
       <c r="S1124" s="8"/>
       <c r="T1124" s="8"/>
       <c r="V1124" s="35" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1125" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44689,7 +44689,7 @@
       <c r="S1125" s="8"/>
       <c r="T1125" s="8"/>
       <c r="V1125" s="35" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1126" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44823,7 +44823,7 @@
         <v>106</v>
       </c>
       <c r="T1129" s="8" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="V1129" s="35"/>
     </row>
@@ -45159,7 +45159,7 @@
       <c r="S1139" s="8"/>
       <c r="T1139" s="8"/>
       <c r="V1139" s="35" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1140" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45324,7 +45324,7 @@
         <v>106</v>
       </c>
       <c r="T1144" s="8" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="V1144" s="35"/>
     </row>
@@ -45392,12 +45392,12 @@
       <c r="S1146" s="8"/>
       <c r="T1146" s="8"/>
       <c r="V1146" s="35" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1147" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1147" s="55" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H1147" s="42" t="s">
         <v>108</v>
@@ -45421,7 +45421,7 @@
         <v>320</v>
       </c>
       <c r="N1147" s="56" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="O1147" s="8" t="s">
         <v>78</v>
@@ -45432,7 +45432,7 @@
       <c r="S1147" s="8"/>
       <c r="T1147" s="8"/>
       <c r="V1147" s="35" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1148" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45498,7 +45498,7 @@
       <c r="S1149" s="8"/>
       <c r="T1149" s="8"/>
       <c r="V1149" s="35" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1150" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46070,7 +46070,7 @@
       <c r="S1167" s="8"/>
       <c r="T1167" s="8"/>
       <c r="V1167" s="35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1168" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46195,7 +46195,7 @@
     </row>
     <row r="1172" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1172" s="8" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="I1172" s="38" t="s">
         <v>42</v>
@@ -46227,7 +46227,7 @@
       <c r="S1172" s="8"/>
       <c r="T1172" s="8"/>
       <c r="V1172" s="35" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1173" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46379,7 +46379,7 @@
       <c r="S1177" s="8"/>
       <c r="T1177" s="8"/>
       <c r="V1177" s="35" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1178" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46685,7 +46685,7 @@
       <c r="S1187" s="8"/>
       <c r="T1187" s="8"/>
       <c r="V1187" s="35" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1188" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46779,7 +46779,7 @@
       <c r="S1190" s="8"/>
       <c r="T1190" s="8"/>
       <c r="V1190" s="35" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1191" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47355,7 +47355,7 @@
       <c r="S1209" s="8"/>
       <c r="T1209" s="8"/>
       <c r="V1209" s="35" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1210" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47479,7 +47479,7 @@
       <c r="S1213" s="8"/>
       <c r="T1213" s="8"/>
       <c r="V1213" s="35" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1214" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48176,7 +48176,7 @@
         <v>119</v>
       </c>
       <c r="T1236" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="V1236" s="35"/>
     </row>
@@ -48240,7 +48240,7 @@
         <v>119</v>
       </c>
       <c r="T1238" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="V1238" s="35"/>
     </row>
@@ -48665,7 +48665,7 @@
       <c r="S1252" s="8"/>
       <c r="T1252" s="8"/>
       <c r="V1252" s="35" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1253" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48759,7 +48759,7 @@
       <c r="S1255" s="8"/>
       <c r="T1255" s="8"/>
       <c r="V1255" s="35" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1256" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48853,7 +48853,7 @@
       <c r="S1258" s="8"/>
       <c r="T1258" s="8"/>
       <c r="V1258" s="35" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1259" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48887,7 +48887,7 @@
       <c r="S1259" s="8"/>
       <c r="T1259" s="8"/>
       <c r="V1259" s="35" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1260" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48921,7 +48921,7 @@
       <c r="S1260" s="8"/>
       <c r="T1260" s="8"/>
       <c r="V1260" s="35" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1261" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48955,7 +48955,7 @@
       <c r="S1261" s="8"/>
       <c r="T1261" s="8"/>
       <c r="V1261" s="35" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1262" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49141,7 +49141,7 @@
       <c r="S1267" s="8"/>
       <c r="T1267" s="8"/>
       <c r="V1267" s="35" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1268" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49270,7 +49270,7 @@
       <c r="S1271" s="8"/>
       <c r="T1271" s="8"/>
       <c r="V1271" s="35" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1272" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49304,7 +49304,7 @@
       <c r="S1272" s="8"/>
       <c r="T1272" s="8"/>
       <c r="V1272" s="35" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1273" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49337,7 +49337,7 @@
       <c r="S1273" s="8"/>
       <c r="T1273" s="8"/>
       <c r="V1273" s="35" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1274" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49371,7 +49371,7 @@
       <c r="S1274" s="8"/>
       <c r="T1274" s="8"/>
       <c r="V1274" s="35" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1275" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49585,7 +49585,7 @@
       <c r="S1281" s="8"/>
       <c r="T1281" s="8"/>
       <c r="V1281" s="35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1282" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49907,7 +49907,7 @@
       <c r="S1291" s="8"/>
       <c r="T1291" s="8"/>
       <c r="U1291" s="8" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="V1291" s="35"/>
     </row>
@@ -50011,7 +50011,7 @@
       <c r="S1294" s="8"/>
       <c r="T1294" s="8"/>
       <c r="V1294" s="35" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1295" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50075,7 +50075,7 @@
       <c r="S1296" s="8"/>
       <c r="T1296" s="8"/>
       <c r="V1296" s="35" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1297" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50098,7 +50098,7 @@
         <v>125</v>
       </c>
       <c r="N1297" s="35" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="O1297" s="8" t="s">
         <v>78</v>
@@ -50111,7 +50111,7 @@
       <c r="S1297" s="8"/>
       <c r="T1297" s="8"/>
       <c r="V1297" s="35" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1298" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50288,7 +50288,7 @@
         <v>131</v>
       </c>
       <c r="N1303" s="35" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="O1303" s="7"/>
       <c r="P1303" s="8" t="s">
@@ -50299,7 +50299,7 @@
       <c r="S1303" s="8"/>
       <c r="T1303" s="8"/>
       <c r="V1303" s="35" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1304" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50584,7 +50584,7 @@
       <c r="S1312" s="8"/>
       <c r="T1312" s="8"/>
       <c r="V1312" s="35" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1313" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50619,7 +50619,7 @@
       <c r="S1313" s="8"/>
       <c r="T1313" s="8"/>
       <c r="V1313" s="35" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1314" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50798,7 +50798,7 @@
         <v>147</v>
       </c>
       <c r="N1319" s="35" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="O1319" s="7"/>
       <c r="P1319" s="8" t="s">
@@ -50809,7 +50809,7 @@
       <c r="S1319" s="8"/>
       <c r="T1319" s="8"/>
       <c r="V1319" s="35" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1320" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50999,7 +50999,7 @@
       <c r="S1325" s="8"/>
       <c r="T1325" s="8"/>
       <c r="V1325" s="35" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1326" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51060,7 +51060,7 @@
         <v>155</v>
       </c>
       <c r="N1327" s="35" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="O1327" s="8"/>
       <c r="P1327" s="8" t="s">
@@ -51071,7 +51071,7 @@
       <c r="S1327" s="8"/>
       <c r="T1327" s="8"/>
       <c r="V1327" s="35" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1328" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51308,7 +51308,7 @@
       <c r="S1334" s="8"/>
       <c r="T1334" s="8"/>
       <c r="V1334" s="35" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1335" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51777,7 +51777,7 @@
       <c r="S1349" s="8"/>
       <c r="T1349" s="8"/>
       <c r="V1349" s="35" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1350" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52125,7 +52125,7 @@
       <c r="S1360" s="8"/>
       <c r="T1360" s="8"/>
       <c r="V1360" s="35" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1361" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52269,7 +52269,7 @@
       <c r="S1364" s="8"/>
       <c r="T1364" s="8"/>
       <c r="V1364" s="35" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1365" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52777,7 +52777,7 @@
       <c r="S1380" s="8"/>
       <c r="T1380" s="8"/>
       <c r="V1380" s="35" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1381" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53342,7 +53342,7 @@
       <c r="S1398" s="8"/>
       <c r="T1398" s="8"/>
       <c r="V1398" s="35" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1399" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53377,7 +53377,7 @@
       <c r="S1399" s="8"/>
       <c r="T1399" s="8"/>
       <c r="V1399" s="35" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1400" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53475,7 +53475,7 @@
       <c r="S1402" s="8"/>
       <c r="T1402" s="8"/>
       <c r="V1402" s="36" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1403" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53765,7 +53765,7 @@
       <c r="S1411" s="8"/>
       <c r="T1411" s="8"/>
       <c r="V1411" s="35" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1412" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53837,7 +53837,7 @@
       <c r="S1413" s="8"/>
       <c r="T1413" s="8"/>
       <c r="V1413" s="35" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1414" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54069,7 +54069,7 @@
       <c r="S1420" s="8"/>
       <c r="T1420" s="8"/>
       <c r="V1420" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1421" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54165,7 +54165,7 @@
       <c r="S1423" s="8"/>
       <c r="T1423" s="8"/>
       <c r="V1423" s="35" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1424" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54479,7 +54479,7 @@
       <c r="S1433" s="8"/>
       <c r="T1433" s="8"/>
       <c r="V1433" s="35" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1434" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54607,7 +54607,7 @@
       <c r="S1437" s="8"/>
       <c r="T1437" s="8"/>
       <c r="V1437" s="35" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1438" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54673,7 +54673,7 @@
       <c r="S1439" s="8"/>
       <c r="T1439" s="8"/>
       <c r="V1439" s="35" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1440" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54739,7 +54739,7 @@
       <c r="S1441" s="8"/>
       <c r="T1441" s="8"/>
       <c r="V1441" s="35" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1442" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54898,7 +54898,7 @@
       <c r="S1446" s="8"/>
       <c r="T1446" s="8"/>
       <c r="V1446" s="35" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1447" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55026,7 +55026,7 @@
       <c r="S1450" s="8"/>
       <c r="T1450" s="8"/>
       <c r="V1450" s="35" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1451" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55249,7 +55249,7 @@
       <c r="S1457" s="8"/>
       <c r="T1457" s="8"/>
       <c r="V1457" s="35" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1458" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55353,7 +55353,7 @@
       <c r="S1460" s="11"/>
       <c r="T1460" s="11"/>
       <c r="V1460" s="35" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1461" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55798,7 +55798,7 @@
     </row>
     <row r="1475" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1475" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C1475" s="30"/>
       <c r="H1475" s="26"/>
@@ -55832,7 +55832,7 @@
       <c r="S1475" s="8"/>
       <c r="T1475" s="8"/>
       <c r="V1475" s="35" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1476" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55898,7 +55898,7 @@
       <c r="S1477" s="8"/>
       <c r="T1477" s="8"/>
       <c r="V1477" s="35" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1478" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55934,7 +55934,7 @@
       <c r="S1478" s="8"/>
       <c r="T1478" s="8"/>
       <c r="V1478" s="35" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1479" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56096,7 +56096,7 @@
       <c r="S1483" s="8"/>
       <c r="T1483" s="8"/>
       <c r="V1483" s="35" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1484" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56162,7 +56162,7 @@
       <c r="S1485" s="8"/>
       <c r="T1485" s="8"/>
       <c r="V1485" s="35" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1486" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56226,10 +56226,10 @@
       <c r="Q1487" s="8"/>
       <c r="R1487" s="8"/>
       <c r="S1487" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="T1487" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V1487" s="35"/>
     </row>
@@ -56329,7 +56329,7 @@
       <c r="S1490" s="8"/>
       <c r="T1490" s="8"/>
       <c r="V1490" s="35" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1491" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56457,7 +56457,7 @@
       <c r="S1494" s="8"/>
       <c r="T1494" s="8"/>
       <c r="V1494" s="35" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1495" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56512,7 +56512,7 @@
         <v>21</v>
       </c>
       <c r="N1496" s="35" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="O1496" s="7"/>
       <c r="P1496" s="8" t="s">
@@ -56523,7 +56523,7 @@
       <c r="S1496" s="8"/>
       <c r="T1496" s="8"/>
       <c r="V1496" s="35" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1497" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56595,7 +56595,7 @@
       <c r="S1498" s="8"/>
       <c r="T1498" s="8"/>
       <c r="V1498" s="35" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1499" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56764,7 +56764,7 @@
       <c r="S1503" s="8"/>
       <c r="T1503" s="8"/>
       <c r="V1503" s="35" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1504" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56799,7 +56799,7 @@
       <c r="S1504" s="8"/>
       <c r="T1504" s="8"/>
       <c r="V1504" s="35" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1505" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56823,7 +56823,7 @@
         <v>30</v>
       </c>
       <c r="N1505" s="35" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="O1505" s="8" t="s">
         <v>78</v>
@@ -56836,7 +56836,7 @@
       <c r="S1505" s="8"/>
       <c r="T1505" s="8"/>
       <c r="V1505" s="35" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1506" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56871,7 +56871,7 @@
       <c r="S1506" s="8"/>
       <c r="T1506" s="8"/>
       <c r="V1506" s="35" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1507" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56906,7 +56906,7 @@
       <c r="S1507" s="8"/>
       <c r="T1507" s="8"/>
       <c r="V1507" s="35" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1508" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57121,7 +57121,7 @@
         <v>39</v>
       </c>
       <c r="N1514" s="35" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="O1514" s="8" t="s">
         <v>78</v>
@@ -57134,7 +57134,7 @@
       <c r="S1514" s="8"/>
       <c r="T1514" s="8"/>
       <c r="V1514" s="35" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1515" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57253,7 +57253,7 @@
         <v>43</v>
       </c>
       <c r="N1518" s="35" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="O1518" s="8" t="s">
         <v>78</v>
@@ -57264,7 +57264,7 @@
       <c r="S1518" s="8"/>
       <c r="T1518" s="8"/>
       <c r="V1518" s="35" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1519" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57330,7 +57330,7 @@
       <c r="S1520" s="8"/>
       <c r="T1520" s="8"/>
       <c r="V1520" s="35" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1521" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57427,7 +57427,7 @@
       <c r="S1523" s="8"/>
       <c r="T1523" s="8"/>
       <c r="V1523" s="35" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1524" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57493,7 +57493,7 @@
       <c r="S1525" s="8"/>
       <c r="T1525" s="8"/>
       <c r="V1525" s="35" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1526" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57527,7 +57527,7 @@
       <c r="S1526" s="8"/>
       <c r="T1526" s="8"/>
       <c r="V1526" s="35" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1527" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57562,7 +57562,7 @@
       <c r="S1527" s="8"/>
       <c r="T1527" s="8"/>
       <c r="V1527" s="35" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1528" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57597,7 +57597,7 @@
       <c r="S1528" s="8"/>
       <c r="T1528" s="8"/>
       <c r="V1528" s="35" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1529" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57706,7 +57706,7 @@
       <c r="S1531" s="8"/>
       <c r="T1531" s="8"/>
       <c r="V1531" s="35" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1532" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58020,7 +58020,7 @@
       <c r="S1541" s="8"/>
       <c r="T1541" s="8"/>
       <c r="V1541" s="35" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1542" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58043,7 +58043,7 @@
         <v>67</v>
       </c>
       <c r="N1542" s="35" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="O1542" s="7"/>
       <c r="P1542" s="8" t="s">
@@ -58054,7 +58054,7 @@
       <c r="S1542" s="8"/>
       <c r="T1542" s="8"/>
       <c r="V1542" s="35" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1543" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58139,7 +58139,7 @@
       <c r="S1544" s="8"/>
       <c r="T1544" s="8"/>
       <c r="V1544" s="35" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1545" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58214,7 +58214,7 @@
       <c r="S1546" s="8"/>
       <c r="T1546" s="8"/>
       <c r="V1546" s="35" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1547" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58357,7 +58357,7 @@
         <v>76</v>
       </c>
       <c r="N1551" s="35" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="O1551" s="7"/>
       <c r="P1551" s="8" t="s">
@@ -58368,7 +58368,7 @@
       <c r="S1551" s="8"/>
       <c r="T1551" s="8"/>
       <c r="V1551" s="35" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1552" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58402,7 +58402,7 @@
       <c r="S1552" s="8"/>
       <c r="T1552" s="8"/>
       <c r="V1552" s="35" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1553" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58436,7 +58436,7 @@
       <c r="S1553" s="8"/>
       <c r="T1553" s="8"/>
       <c r="V1553" s="35" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1554" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58549,7 +58549,7 @@
         <v>82</v>
       </c>
       <c r="N1557" s="35" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="O1557" s="7"/>
       <c r="P1557" s="8" t="s">
@@ -58560,7 +58560,7 @@
       <c r="S1557" s="8"/>
       <c r="T1557" s="8"/>
       <c r="V1557" s="35" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1558" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58743,7 +58743,7 @@
         <v>119</v>
       </c>
       <c r="T1563" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="V1563" s="35"/>
     </row>
@@ -58797,7 +58797,7 @@
         <v>90</v>
       </c>
       <c r="N1565" s="35" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="O1565" s="7"/>
       <c r="P1565" s="8" t="s">
@@ -58808,7 +58808,7 @@
       <c r="S1565" s="8"/>
       <c r="T1565" s="8"/>
       <c r="V1565" s="35" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1566" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58933,7 +58933,7 @@
       <c r="S1569" s="8"/>
       <c r="T1569" s="8"/>
       <c r="V1569" s="35" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1570" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59087,7 +59087,7 @@
       <c r="S1574" s="8"/>
       <c r="T1574" s="8"/>
       <c r="V1574" s="35" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1575" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59180,7 +59180,7 @@
       <c r="S1577" s="8"/>
       <c r="T1577" s="8"/>
       <c r="V1577" s="35" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1578" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59213,7 +59213,7 @@
         <v>119</v>
       </c>
       <c r="T1578" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="V1578" s="35"/>
     </row>
@@ -59291,13 +59291,13 @@
         <v>106</v>
       </c>
       <c r="N1581" s="35" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="P1581" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1581" s="35" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1582" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59479,7 +59479,7 @@
         <v>112</v>
       </c>
       <c r="N1587" s="35" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="O1587" s="8" t="s">
         <v>78</v>
@@ -59488,7 +59488,7 @@
         <v>79</v>
       </c>
       <c r="V1587" s="35" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1588" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59637,7 +59637,7 @@
         <v>119</v>
       </c>
       <c r="T1593" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="V1593" s="35"/>
     </row>
@@ -59685,13 +59685,13 @@
         <v>120</v>
       </c>
       <c r="N1595" s="35" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="P1595" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1595" s="35" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1596" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59867,13 +59867,13 @@
         <v>127</v>
       </c>
       <c r="N1602" s="35" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="P1602" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1602" s="35" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1603" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60022,7 +60022,7 @@
         <v>119</v>
       </c>
       <c r="T1608" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="V1608" s="35"/>
     </row>
@@ -60070,13 +60070,13 @@
         <v>135</v>
       </c>
       <c r="N1610" s="35" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="P1610" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1610" s="35" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1611" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60162,7 +60162,7 @@
         <v>78</v>
       </c>
       <c r="V1613" s="35" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1614" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60257,7 +60257,7 @@
         <v>142</v>
       </c>
       <c r="N1617" s="35" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="O1617" s="8" t="s">
         <v>78</v>
@@ -60266,7 +60266,7 @@
         <v>79</v>
       </c>
       <c r="V1617" s="35" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1618" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60415,7 +60415,7 @@
         <v>119</v>
       </c>
       <c r="T1623" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="V1623" s="35"/>
     </row>
@@ -60463,13 +60463,13 @@
         <v>150</v>
       </c>
       <c r="N1625" s="35" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="P1625" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1625" s="35" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1626" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60546,7 +60546,7 @@
         <v>78</v>
       </c>
       <c r="V1628" s="35" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1629" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60647,7 +60647,7 @@
         <v>79</v>
       </c>
       <c r="V1632" s="35" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1633" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60724,7 +60724,7 @@
         <v>78</v>
       </c>
       <c r="V1635" s="35" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1636" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60753,7 +60753,7 @@
         <v>119</v>
       </c>
       <c r="T1636" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="V1636" s="35"/>
     </row>
@@ -60807,7 +60807,7 @@
     </row>
     <row r="1639" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1639" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I1639" s="38" t="s">
         <v>51</v>
@@ -60828,13 +60828,13 @@
         <v>164</v>
       </c>
       <c r="N1639" s="35" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="P1639" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1639" s="35" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1640" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60936,7 +60936,7 @@
         <v>78</v>
       </c>
       <c r="V1643" s="35" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1644" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61054,14 +61054,14 @@
         <f t="shared" si="78"/>
         <v>9</v>
       </c>
-      <c r="N1648" s="35" t="s">
-        <v>875</v>
+      <c r="N1648" s="36" t="s">
+        <v>1720</v>
       </c>
       <c r="O1648" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1648" s="35" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1649" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61108,7 +61108,7 @@
         <v>11</v>
       </c>
       <c r="N1650" s="35" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="P1650" s="8" t="s">
         <v>79</v>
@@ -61117,7 +61117,7 @@
         <v>129</v>
       </c>
       <c r="V1650" s="35" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1651" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61215,7 +61215,7 @@
         <v>15</v>
       </c>
       <c r="N1654" s="35" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="V1654" s="35"/>
     </row>
@@ -61263,7 +61263,7 @@
         <v>17</v>
       </c>
       <c r="N1656" s="35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="V1656" s="35"/>
     </row>
@@ -61287,7 +61287,7 @@
         <v>18</v>
       </c>
       <c r="N1657" s="35" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="V1657" s="35"/>
     </row>
@@ -61311,7 +61311,7 @@
         <v>19</v>
       </c>
       <c r="N1658" s="35" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="V1658" s="35"/>
     </row>
@@ -61338,7 +61338,7 @@
         <v>20</v>
       </c>
       <c r="N1659" s="35" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="V1659" s="35"/>
     </row>
@@ -61365,7 +61365,7 @@
         <v>21</v>
       </c>
       <c r="N1660" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O1660" s="8" t="s">
         <v>78</v>
@@ -61380,7 +61380,7 @@
         <v>110</v>
       </c>
       <c r="V1660" s="35" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1661" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61403,13 +61403,13 @@
         <v>22</v>
       </c>
       <c r="N1661" s="35" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="O1661" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1661" s="35" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1662" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61528,7 +61528,7 @@
         <v>27</v>
       </c>
       <c r="N1666" s="35" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="V1666" s="35"/>
     </row>
@@ -61576,7 +61576,7 @@
         <v>29</v>
       </c>
       <c r="N1668" s="35" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="V1668" s="35"/>
     </row>
@@ -61600,7 +61600,7 @@
         <v>30</v>
       </c>
       <c r="N1669" s="35" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="V1669" s="35"/>
     </row>
@@ -61648,7 +61648,7 @@
         <v>32</v>
       </c>
       <c r="N1671" s="35" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="V1671" s="35"/>
     </row>
@@ -61768,7 +61768,7 @@
         <v>37</v>
       </c>
       <c r="N1676" s="35" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="V1676" s="35"/>
     </row>
@@ -61855,13 +61855,13 @@
         <v>40</v>
       </c>
       <c r="N1679" s="35" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O1679" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1679" s="35" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1680" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61962,13 +61962,13 @@
         <v>44</v>
       </c>
       <c r="N1683" s="35" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="S1683" s="8" t="s">
         <v>119</v>
       </c>
       <c r="T1683" s="8" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="V1683" s="35"/>
     </row>
@@ -62115,7 +62115,7 @@
         <v>78</v>
       </c>
       <c r="V1688" s="35" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1689" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62308,13 +62308,13 @@
         <v>57</v>
       </c>
       <c r="N1696" s="35" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="O1696" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1696" s="35" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1697" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62481,7 +62481,7 @@
         <v>64</v>
       </c>
       <c r="N1703" s="35" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="V1703" s="35"/>
     </row>
@@ -62529,7 +62529,7 @@
         <v>66</v>
       </c>
       <c r="N1705" s="35" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="S1705" s="1" t="s">
         <v>119</v>
@@ -62607,7 +62607,7 @@
         <v>69</v>
       </c>
       <c r="N1708" s="35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="V1708" s="35"/>
     </row>
@@ -62658,7 +62658,7 @@
         <v>71</v>
       </c>
       <c r="N1710" s="35" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="V1710" s="35"/>
     </row>
@@ -62682,7 +62682,7 @@
         <v>72</v>
       </c>
       <c r="N1711" s="53" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="U1711" s="8" t="s">
         <v>128</v>
@@ -62781,7 +62781,7 @@
         <v>76</v>
       </c>
       <c r="N1715" s="35" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="V1715" s="35"/>
     </row>
@@ -62805,7 +62805,7 @@
         <v>77</v>
       </c>
       <c r="N1716" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O1716" s="8" t="s">
         <v>78</v>
@@ -62814,7 +62814,7 @@
         <v>79</v>
       </c>
       <c r="V1716" s="35" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1717" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62837,7 +62837,7 @@
         <v>78</v>
       </c>
       <c r="N1717" s="35" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="V1717" s="35"/>
     </row>
@@ -62861,7 +62861,7 @@
         <v>79</v>
       </c>
       <c r="N1718" s="35" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="V1718" s="35"/>
     </row>
@@ -62885,7 +62885,7 @@
         <v>80</v>
       </c>
       <c r="N1719" s="35" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="V1719" s="35"/>
     </row>
@@ -62909,13 +62909,13 @@
         <v>81</v>
       </c>
       <c r="N1720" s="35" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O1720" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1720" s="35" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1721" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62938,7 +62938,7 @@
         <v>82</v>
       </c>
       <c r="N1721" s="35" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="V1721" s="35"/>
     </row>
@@ -62962,13 +62962,13 @@
         <v>83</v>
       </c>
       <c r="N1722" s="35" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O1722" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1722" s="35" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1723" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63015,7 +63015,7 @@
         <v>85</v>
       </c>
       <c r="N1724" s="35" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="O1724" s="8" t="s">
         <v>78</v>
@@ -63024,7 +63024,7 @@
         <v>79</v>
       </c>
       <c r="V1724" s="35" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1725" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63053,7 +63053,7 @@
         <v>78</v>
       </c>
       <c r="V1725" s="35" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1726" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63175,7 +63175,7 @@
         <v>91</v>
       </c>
       <c r="N1730" s="35" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="V1730" s="35"/>
     </row>
@@ -63223,7 +63223,7 @@
         <v>93</v>
       </c>
       <c r="N1732" s="35" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="V1732" s="35"/>
     </row>
@@ -63271,7 +63271,7 @@
         <v>95</v>
       </c>
       <c r="N1734" s="35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="V1734" s="35"/>
     </row>
@@ -63322,7 +63322,7 @@
         <v>97</v>
       </c>
       <c r="N1736" s="35" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="V1736" s="35"/>
     </row>
@@ -63346,7 +63346,7 @@
         <v>98</v>
       </c>
       <c r="N1737" s="53" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="U1737" s="8" t="s">
         <v>128</v>
@@ -63468,7 +63468,7 @@
         <v>103</v>
       </c>
       <c r="N1742" s="35" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="V1742" s="35"/>
     </row>
@@ -63519,7 +63519,7 @@
         <v>105</v>
       </c>
       <c r="N1744" s="35" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="V1744" s="35"/>
     </row>
@@ -63615,7 +63615,7 @@
         <v>109</v>
       </c>
       <c r="N1748" s="35" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="V1748" s="35"/>
     </row>
@@ -63639,13 +63639,13 @@
         <v>110</v>
       </c>
       <c r="N1749" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O1749" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1749" s="35" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1750" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63722,7 +63722,7 @@
         <v>78</v>
       </c>
       <c r="V1752" s="35" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1753" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63769,13 +63769,13 @@
         <v>115</v>
       </c>
       <c r="N1754" s="35" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O1754" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1754" s="35" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1755" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63798,7 +63798,7 @@
         <v>116</v>
       </c>
       <c r="N1755" s="35" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="V1755" s="35"/>
     </row>
@@ -63822,13 +63822,13 @@
         <v>117</v>
       </c>
       <c r="N1756" s="35" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O1756" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1756" s="35" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1757" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63875,13 +63875,13 @@
         <v>119</v>
       </c>
       <c r="N1758" s="35" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="O1758" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1758" s="35" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1759" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64024,13 +64024,13 @@
         <v>125</v>
       </c>
       <c r="N1764" s="35" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="O1764" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1764" s="35" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1765" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64077,7 +64077,7 @@
         <v>127</v>
       </c>
       <c r="N1766" s="35" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="V1766" s="35"/>
     </row>
@@ -64125,13 +64125,13 @@
         <v>129</v>
       </c>
       <c r="N1768" s="35" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O1768" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1768" s="35" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1769" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64160,7 +64160,7 @@
         <v>78</v>
       </c>
       <c r="V1769" s="35" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1770" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64279,13 +64279,13 @@
         <v>135</v>
       </c>
       <c r="N1774" s="35" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="O1774" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1774" s="35" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1775" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64362,7 +64362,7 @@
         <v>78</v>
       </c>
       <c r="V1777" s="35" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1778" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64505,13 +64505,13 @@
         <v>144</v>
       </c>
       <c r="N1783" s="35" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O1783" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1783" s="35" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1784" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64606,7 +64606,7 @@
         <v>148</v>
       </c>
       <c r="N1787" s="35" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="V1787" s="35"/>
     </row>
@@ -64630,7 +64630,7 @@
         <v>149</v>
       </c>
       <c r="N1788" s="35" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="V1788" s="35"/>
     </row>
@@ -64654,7 +64654,7 @@
         <v>150</v>
       </c>
       <c r="N1789" s="35" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="V1789" s="35"/>
     </row>
@@ -64678,7 +64678,7 @@
         <v>151</v>
       </c>
       <c r="N1790" s="35" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="V1790" s="35"/>
     </row>
@@ -64702,7 +64702,7 @@
         <v>152</v>
       </c>
       <c r="N1791" s="35" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="V1791" s="35"/>
     </row>
@@ -64756,7 +64756,7 @@
         <v>78</v>
       </c>
       <c r="V1793" s="35" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1794" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64779,7 +64779,7 @@
         <v>155</v>
       </c>
       <c r="N1794" s="35" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="V1794" s="35"/>
     </row>
@@ -64902,7 +64902,7 @@
         <v>80</v>
       </c>
       <c r="V1798" s="35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1799" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64925,13 +64925,13 @@
         <v>160</v>
       </c>
       <c r="N1799" s="35" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O1799" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1799" s="35" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1800" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65002,13 +65002,13 @@
         <v>163</v>
       </c>
       <c r="N1802" s="35" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="O1802" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1802" s="35" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1803" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65031,13 +65031,13 @@
         <v>164</v>
       </c>
       <c r="N1803" s="35" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O1803" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1803" s="35" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1804" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65060,13 +65060,13 @@
         <v>165</v>
       </c>
       <c r="N1804" s="35" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="O1804" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1804" s="35" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1805" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65095,7 +65095,7 @@
         <v>79</v>
       </c>
       <c r="V1805" s="35" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1806" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65147,13 +65147,13 @@
         <v>2</v>
       </c>
       <c r="N1807" s="54" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="V1807" s="35"/>
     </row>
     <row r="1808" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1808" s="8" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="G1808" s="46" t="s">
         <v>153</v>
@@ -65189,7 +65189,7 @@
     </row>
     <row r="1809" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1809" s="8" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="G1809" s="46" t="s">
         <v>153</v>
@@ -65225,7 +65225,7 @@
     </row>
     <row r="1810" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1810" s="8" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="G1810" s="46" t="s">
         <v>153</v>
@@ -65252,7 +65252,7 @@
         <v>5</v>
       </c>
       <c r="N1810" s="35" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="S1810" s="8" t="s">
         <v>119</v>
@@ -65282,7 +65282,7 @@
         <v>6</v>
       </c>
       <c r="N1811" s="35" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="V1811" s="35"/>
     </row>
@@ -65306,13 +65306,13 @@
         <v>7</v>
       </c>
       <c r="N1812" s="35" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="O1812" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1812" s="35" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1813" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65335,7 +65335,7 @@
         <v>8</v>
       </c>
       <c r="N1813" s="35" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="O1813" s="8" t="s">
         <v>78</v>
@@ -65344,7 +65344,7 @@
         <v>79</v>
       </c>
       <c r="V1813" s="35" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1814" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65397,7 +65397,7 @@
         <v>78</v>
       </c>
       <c r="V1815" s="35" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1816" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65444,7 +65444,7 @@
         <v>12</v>
       </c>
       <c r="N1817" s="35" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="V1817" s="35"/>
     </row>
@@ -65468,7 +65468,7 @@
         <v>13</v>
       </c>
       <c r="N1818" s="35" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="V1818" s="35"/>
     </row>
@@ -65492,7 +65492,7 @@
         <v>14</v>
       </c>
       <c r="N1819" s="35" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="V1819" s="35"/>
     </row>
@@ -65516,7 +65516,7 @@
         <v>15</v>
       </c>
       <c r="N1820" s="35" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="V1820" s="35"/>
     </row>
@@ -65540,7 +65540,7 @@
         <v>16</v>
       </c>
       <c r="N1821" s="35" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="V1821" s="35"/>
     </row>
@@ -65564,7 +65564,7 @@
         <v>17</v>
       </c>
       <c r="N1822" s="35" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="O1822" s="8" t="s">
         <v>78</v>
@@ -65573,7 +65573,7 @@
         <v>79</v>
       </c>
       <c r="V1822" s="35" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1823" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65671,7 +65671,7 @@
         <v>21</v>
       </c>
       <c r="N1826" s="35" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="V1826" s="35"/>
     </row>
@@ -65698,13 +65698,13 @@
         <v>22</v>
       </c>
       <c r="N1827" s="35" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O1827" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1827" s="35" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1828" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65730,7 +65730,7 @@
         <v>23</v>
       </c>
       <c r="N1828" s="35" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="S1828" s="8" t="s">
         <v>119</v>
@@ -65763,7 +65763,7 @@
         <v>24</v>
       </c>
       <c r="N1829" s="35" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="S1829" s="8"/>
       <c r="T1829" s="8"/>
@@ -65792,7 +65792,7 @@
         <v>25</v>
       </c>
       <c r="N1830" s="35" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="S1830" s="8" t="s">
         <v>133</v>
@@ -65825,7 +65825,7 @@
         <v>26</v>
       </c>
       <c r="N1831" s="35" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="O1831" s="8" t="s">
         <v>78</v>
@@ -65836,7 +65836,7 @@
       <c r="S1831" s="8"/>
       <c r="T1831" s="8"/>
       <c r="V1831" s="35" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1832" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65934,7 +65934,7 @@
         <v>30</v>
       </c>
       <c r="N1835" s="35" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="V1835" s="35"/>
     </row>
@@ -65985,7 +65985,7 @@
         <v>32</v>
       </c>
       <c r="N1837" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="V1837" s="35"/>
     </row>
@@ -66039,7 +66039,7 @@
         <v>34</v>
       </c>
       <c r="N1839" s="35" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="S1839" s="8" t="s">
         <v>133</v>
@@ -66075,13 +66075,13 @@
         <v>35</v>
       </c>
       <c r="N1840" s="35" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="O1840" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1840" s="35" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1841" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66104,7 +66104,7 @@
         <v>36</v>
       </c>
       <c r="N1841" s="35" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="O1841" s="8" t="s">
         <v>81</v>
@@ -66131,13 +66131,13 @@
         <v>37</v>
       </c>
       <c r="N1842" s="35" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="P1842" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1842" s="35" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1843" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66184,7 +66184,7 @@
         <v>39</v>
       </c>
       <c r="N1844" s="35" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="V1844" s="35"/>
     </row>
@@ -66256,7 +66256,7 @@
         <v>42</v>
       </c>
       <c r="N1847" s="35" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="V1847" s="35"/>
     </row>
@@ -66304,7 +66304,7 @@
         <v>44</v>
       </c>
       <c r="N1849" s="35" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="V1849" s="35"/>
     </row>
@@ -66385,7 +66385,7 @@
         <v>47</v>
       </c>
       <c r="N1852" s="35" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="V1852" s="35"/>
     </row>
@@ -66486,7 +66486,7 @@
         <v>51</v>
       </c>
       <c r="N1856" s="35" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="V1856" s="35"/>
     </row>
@@ -66510,7 +66510,7 @@
         <v>52</v>
       </c>
       <c r="N1857" s="35" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="V1857" s="35"/>
     </row>
@@ -66612,7 +66612,7 @@
     </row>
     <row r="1862" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1862" s="8" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I1862" s="38" t="s">
         <v>56</v>
@@ -66687,7 +66687,7 @@
         <v>59</v>
       </c>
       <c r="N1864" s="35" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="V1864" s="35"/>
     </row>
@@ -66711,13 +66711,13 @@
         <v>60</v>
       </c>
       <c r="N1865" s="35" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="O1865" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1865" s="35" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1866" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66788,7 +66788,7 @@
         <v>63</v>
       </c>
       <c r="N1868" s="35" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="V1868" s="35"/>
     </row>
@@ -66836,13 +66836,13 @@
         <v>65</v>
       </c>
       <c r="N1870" s="54" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="V1870" s="35"/>
     </row>
     <row r="1871" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1871" s="8" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="I1871" s="38" t="s">
         <v>56</v>
@@ -66872,7 +66872,7 @@
     </row>
     <row r="1872" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1872" s="8" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="I1872" s="38" t="s">
         <v>56</v>
@@ -67016,7 +67016,7 @@
         <v>72</v>
       </c>
       <c r="N1877" s="35" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="V1877" s="35"/>
     </row>
@@ -67064,7 +67064,7 @@
         <v>74</v>
       </c>
       <c r="N1879" s="35" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="V1879" s="35"/>
     </row>
@@ -67187,7 +67187,7 @@
         <v>79</v>
       </c>
       <c r="N1884" s="35" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="V1884" s="35"/>
     </row>
@@ -67217,7 +67217,7 @@
         <v>78</v>
       </c>
       <c r="V1885" s="35" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1886" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67294,7 +67294,7 @@
         <v>83</v>
       </c>
       <c r="N1888" s="35" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="V1888" s="35"/>
     </row>
@@ -67429,7 +67429,7 @@
         <v>88</v>
       </c>
       <c r="N1893" s="35" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="V1893" s="35"/>
     </row>
@@ -67507,7 +67507,7 @@
         <v>91</v>
       </c>
       <c r="N1896" s="35" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="V1896" s="35"/>
     </row>
@@ -67555,13 +67555,13 @@
         <v>93</v>
       </c>
       <c r="N1898" s="35" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O1898" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1898" s="35" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1899" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67704,13 +67704,13 @@
         <v>99</v>
       </c>
       <c r="N1904" s="35" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O1904" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1904" s="35" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1905" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67733,13 +67733,13 @@
         <v>100</v>
       </c>
       <c r="N1905" s="35" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O1905" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1905" s="35" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1906" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67809,7 +67809,7 @@
         <v>103</v>
       </c>
       <c r="N1908" s="35" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="V1908" s="35"/>
     </row>
@@ -67857,7 +67857,7 @@
         <v>105</v>
       </c>
       <c r="N1910" s="35" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="V1910" s="35"/>
     </row>
@@ -67956,7 +67956,7 @@
         <v>109</v>
       </c>
       <c r="N1914" s="35" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="V1914" s="35"/>
     </row>
@@ -68004,7 +68004,7 @@
         <v>111</v>
       </c>
       <c r="N1916" s="35" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="V1916" s="35"/>
     </row>
@@ -68148,7 +68148,7 @@
         <v>117</v>
       </c>
       <c r="N1922" s="35" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="V1922" s="35"/>
     </row>
@@ -68274,7 +68274,7 @@
         <v>78</v>
       </c>
       <c r="V1927" s="35" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1928" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68345,7 +68345,7 @@
         <v>125</v>
       </c>
       <c r="N1930" s="35" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="V1930" s="35"/>
     </row>
@@ -68393,13 +68393,13 @@
         <v>127</v>
       </c>
       <c r="N1932" s="35" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O1932" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1932" s="35" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1933" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68566,7 +68566,7 @@
         <v>134</v>
       </c>
       <c r="N1939" s="35" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="V1939" s="35"/>
     </row>
@@ -68638,13 +68638,13 @@
         <v>137</v>
       </c>
       <c r="N1942" s="35" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O1942" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1942" s="35" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1943" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68691,7 +68691,7 @@
         <v>139</v>
       </c>
       <c r="N1944" s="51" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="V1944" s="35"/>
     </row>
@@ -68811,7 +68811,7 @@
         <v>144</v>
       </c>
       <c r="N1949" s="35" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="V1949" s="35"/>
     </row>
@@ -68841,7 +68841,7 @@
         <v>80</v>
       </c>
       <c r="V1950" s="35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1951" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68936,7 +68936,7 @@
         <v>149</v>
       </c>
       <c r="N1954" s="35" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="V1954" s="35"/>
     </row>
@@ -68983,7 +68983,7 @@
         <v>151</v>
       </c>
       <c r="N1956" s="35" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="V1956" s="35"/>
     </row>
@@ -69079,7 +69079,7 @@
         <v>155</v>
       </c>
       <c r="N1960" s="35" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="V1960" s="35"/>
     </row>
@@ -69109,7 +69109,7 @@
         <v>78</v>
       </c>
       <c r="V1961" s="35" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1962" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69357,7 +69357,7 @@
         <v>80</v>
       </c>
       <c r="V1971" s="35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1972" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69620,13 +69620,13 @@
         <v>177</v>
       </c>
       <c r="N1982" s="35" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="O1982" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1982" s="35" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1983" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69673,7 +69673,7 @@
         <v>179</v>
       </c>
       <c r="N1984" s="35" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="V1984" s="35"/>
     </row>
@@ -69697,13 +69697,13 @@
         <v>180</v>
       </c>
       <c r="N1985" s="35" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O1985" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1985" s="35" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1986" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69750,7 +69750,7 @@
         <v>182</v>
       </c>
       <c r="N1987" s="35" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="V1987" s="35"/>
     </row>
@@ -69774,7 +69774,7 @@
         <v>183</v>
       </c>
       <c r="N1988" s="35" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="V1988" s="35"/>
     </row>
@@ -69873,7 +69873,7 @@
         <v>187</v>
       </c>
       <c r="N1992" s="35" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="V1992" s="35"/>
     </row>
@@ -69972,7 +69972,7 @@
         <v>191</v>
       </c>
       <c r="N1996" s="35" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="V1996" s="35"/>
     </row>
@@ -70020,7 +70020,7 @@
         <v>193</v>
       </c>
       <c r="N1998" s="35" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="V1998" s="35"/>
     </row>
@@ -70068,13 +70068,13 @@
         <v>195</v>
       </c>
       <c r="N2000" s="35" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O2000" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2000" s="35" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="2001" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70103,7 +70103,7 @@
         <v>78</v>
       </c>
       <c r="V2001" s="35" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="2002" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70126,7 +70126,7 @@
         <v>197</v>
       </c>
       <c r="N2002" s="35" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="V2002" s="35"/>
     </row>
@@ -70150,7 +70150,7 @@
         <v>198</v>
       </c>
       <c r="N2003" s="35" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="V2003" s="35"/>
     </row>
@@ -70198,7 +70198,7 @@
         <v>200</v>
       </c>
       <c r="N2005" s="35" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="V2005" s="35"/>
     </row>
@@ -70246,13 +70246,13 @@
         <v>202</v>
       </c>
       <c r="N2007" s="35" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O2007" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2007" s="35" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="2008" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70395,7 +70395,7 @@
         <v>208</v>
       </c>
       <c r="N2013" s="35" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="V2013" s="35"/>
     </row>
@@ -70419,13 +70419,13 @@
         <v>209</v>
       </c>
       <c r="N2014" s="35" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O2014" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2014" s="35" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="2015" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70472,7 +70472,7 @@
         <v>211</v>
       </c>
       <c r="N2016" s="35" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="V2016" s="35"/>
     </row>
@@ -70496,7 +70496,7 @@
         <v>212</v>
       </c>
       <c r="N2017" s="35" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="V2017" s="35"/>
     </row>
@@ -70601,7 +70601,7 @@
         <v>80</v>
       </c>
       <c r="V2021" s="35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2022" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70624,7 +70624,7 @@
         <v>217</v>
       </c>
       <c r="N2022" s="35" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="V2022" s="35"/>
     </row>
@@ -70672,7 +70672,7 @@
         <v>219</v>
       </c>
       <c r="N2024" s="35" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V2024" s="35"/>
     </row>
@@ -70723,7 +70723,7 @@
         <v>221</v>
       </c>
       <c r="N2026" s="35" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="V2026" s="35"/>
     </row>
@@ -70771,7 +70771,7 @@
         <v>223</v>
       </c>
       <c r="N2028" s="35" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="V2028" s="35"/>
     </row>
@@ -70795,7 +70795,7 @@
         <v>224</v>
       </c>
       <c r="N2029" s="35" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="V2029" s="35"/>
     </row>
@@ -70822,7 +70822,7 @@
         <v>225</v>
       </c>
       <c r="N2030" s="35" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="O2030" s="8" t="s">
         <v>78</v>
@@ -70831,7 +70831,7 @@
         <v>79</v>
       </c>
       <c r="V2030" s="35" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="2031" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70858,7 +70858,7 @@
         <v>78</v>
       </c>
       <c r="V2031" s="35" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="2032" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70905,7 +70905,7 @@
         <v>3</v>
       </c>
       <c r="N2033" s="35" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="V2033" s="35"/>
     </row>
@@ -70977,7 +70977,7 @@
         <v>6</v>
       </c>
       <c r="N2036" s="35" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="V2036" s="35"/>
     </row>
@@ -71052,7 +71052,7 @@
         <v>9</v>
       </c>
       <c r="N2039" s="35" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V2039" s="35"/>
     </row>
@@ -71151,7 +71151,7 @@
         <v>13</v>
       </c>
       <c r="N2043" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V2043" s="35"/>
     </row>
@@ -71214,7 +71214,7 @@
         <v>15</v>
       </c>
       <c r="N2045" s="35" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="Q2045" s="1" t="s">
         <v>140</v>
@@ -71286,7 +71286,7 @@
         <v>17</v>
       </c>
       <c r="N2047" s="35" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V2047" s="35"/>
     </row>
@@ -71337,7 +71337,7 @@
         <v>19</v>
       </c>
       <c r="N2049" s="35" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="V2049" s="35"/>
     </row>
@@ -71394,7 +71394,7 @@
         <v>21</v>
       </c>
       <c r="N2051" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V2051" s="35"/>
     </row>
@@ -71448,7 +71448,7 @@
         <v>23</v>
       </c>
       <c r="N2053" s="36" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="V2053" s="35"/>
     </row>
@@ -71505,7 +71505,7 @@
         <v>25</v>
       </c>
       <c r="N2055" s="35" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V2055" s="35"/>
     </row>
@@ -71604,7 +71604,7 @@
         <v>29</v>
       </c>
       <c r="N2059" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V2059" s="35"/>
     </row>
@@ -71652,7 +71652,7 @@
         <v>31</v>
       </c>
       <c r="N2061" s="36" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="V2061" s="35"/>
     </row>
@@ -71703,7 +71703,7 @@
         <v>33</v>
       </c>
       <c r="N2063" s="35" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V2063" s="35"/>
     </row>
@@ -71751,7 +71751,7 @@
         <v>35</v>
       </c>
       <c r="N2065" s="35" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="V2065" s="35"/>
     </row>
@@ -71802,7 +71802,7 @@
         <v>37</v>
       </c>
       <c r="N2067" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V2067" s="35"/>
     </row>
@@ -71850,7 +71850,7 @@
         <v>39</v>
       </c>
       <c r="N2069" s="35" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="V2069" s="35"/>
     </row>
@@ -71874,7 +71874,7 @@
         <v>40</v>
       </c>
       <c r="N2070" s="35" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V2070" s="35"/>
     </row>
@@ -71922,7 +71922,7 @@
         <v>42</v>
       </c>
       <c r="N2072" s="35" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="V2072" s="35"/>
     </row>
@@ -71973,7 +71973,7 @@
         <v>44</v>
       </c>
       <c r="N2074" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V2074" s="35"/>
     </row>
@@ -72021,13 +72021,13 @@
         <v>46</v>
       </c>
       <c r="N2076" s="35" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O2076" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2076" s="35" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="2077" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72056,7 +72056,7 @@
         <v>78</v>
       </c>
       <c r="V2077" s="35" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2078" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72079,7 +72079,7 @@
         <v>48</v>
       </c>
       <c r="N2078" s="35" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="V2078" s="35"/>
     </row>
@@ -72150,13 +72150,13 @@
         <v>51</v>
       </c>
       <c r="N2081" s="35" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="O2081" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2081" s="35" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="2082" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72251,13 +72251,13 @@
         <v>55</v>
       </c>
       <c r="N2085" s="35" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O2085" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2085" s="35" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2086" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72280,7 +72280,7 @@
         <v>56</v>
       </c>
       <c r="N2086" s="35" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="V2086" s="35"/>
     </row>
@@ -72352,13 +72352,13 @@
         <v>59</v>
       </c>
       <c r="N2089" s="35" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O2089" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2089" s="35" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="2090" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72405,13 +72405,13 @@
         <v>61</v>
       </c>
       <c r="N2091" s="35" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O2091" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2091" s="35" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="2092" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72440,7 +72440,7 @@
         <v>78</v>
       </c>
       <c r="V2092" s="35" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2093" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72610,13 +72610,13 @@
         <v>69</v>
       </c>
       <c r="N2099" s="35" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="S2099" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="T2099" s="8" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="V2099" s="35"/>
     </row>
@@ -72646,7 +72646,7 @@
         <v>80</v>
       </c>
       <c r="V2100" s="35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2101" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72840,7 +72840,7 @@
         <v>78</v>
       </c>
       <c r="N2108" s="35" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="V2108" s="35"/>
     </row>
@@ -72864,13 +72864,13 @@
         <v>79</v>
       </c>
       <c r="N2109" s="35" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O2109" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2109" s="35" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="2110" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72944,13 +72944,13 @@
         <v>82</v>
       </c>
       <c r="N2112" s="35" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O2112" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2112" s="35" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="2113" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73261,13 +73261,13 @@
         <v>95</v>
       </c>
       <c r="N2125" s="35" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O2125" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2125" s="36" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="2126" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73314,7 +73314,7 @@
         <v>97</v>
       </c>
       <c r="N2127" s="35" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="V2127" s="35"/>
     </row>
@@ -73338,7 +73338,7 @@
         <v>98</v>
       </c>
       <c r="N2128" s="35" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="V2128" s="35"/>
     </row>
@@ -73409,7 +73409,7 @@
         <v>101</v>
       </c>
       <c r="N2131" s="35" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="V2131" s="35"/>
     </row>
@@ -73457,13 +73457,13 @@
         <v>103</v>
       </c>
       <c r="N2133" s="35" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O2133" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2133" s="35" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="2134" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73510,13 +73510,13 @@
         <v>105</v>
       </c>
       <c r="N2135" s="35" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O2135" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2135" s="35" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="2136" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73590,7 +73590,7 @@
         <v>108</v>
       </c>
       <c r="N2138" s="35" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="V2138" s="35"/>
     </row>
@@ -73734,7 +73734,7 @@
         <v>114</v>
       </c>
       <c r="N2144" s="35" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="V2144" s="35"/>
     </row>
@@ -73758,7 +73758,7 @@
         <v>115</v>
       </c>
       <c r="N2145" s="35" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="V2145" s="35"/>
     </row>
@@ -73830,7 +73830,7 @@
         <v>118</v>
       </c>
       <c r="N2148" s="35" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="V2148" s="35"/>
     </row>
@@ -73878,7 +73878,7 @@
         <v>120</v>
       </c>
       <c r="N2150" s="35" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="V2150" s="35"/>
     </row>
@@ -73977,7 +73977,7 @@
         <v>124</v>
       </c>
       <c r="N2154" s="35" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="V2154" s="35"/>
     </row>
@@ -74121,7 +74121,7 @@
         <v>130</v>
       </c>
       <c r="N2160" s="35" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="V2160" s="35"/>
     </row>
@@ -74145,7 +74145,7 @@
         <v>131</v>
       </c>
       <c r="N2161" s="35" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="V2161" s="35"/>
     </row>
@@ -74217,7 +74217,7 @@
         <v>134</v>
       </c>
       <c r="N2164" s="35" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="V2164" s="35"/>
     </row>
@@ -74265,7 +74265,7 @@
         <v>136</v>
       </c>
       <c r="N2166" s="35" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="V2166" s="35"/>
     </row>
@@ -74313,13 +74313,13 @@
         <v>138</v>
       </c>
       <c r="N2168" s="35" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O2168" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2168" s="35" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="2169" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74393,7 +74393,7 @@
         <v>141</v>
       </c>
       <c r="N2171" s="35" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="V2171" s="35"/>
     </row>
@@ -74540,7 +74540,7 @@
         <v>147</v>
       </c>
       <c r="N2177" s="35" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="V2177" s="35"/>
     </row>
@@ -74615,13 +74615,13 @@
         <v>150</v>
       </c>
       <c r="N2180" s="35" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="P2180" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2180" s="35" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="2181" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74642,7 +74642,7 @@
         <v>1</v>
       </c>
       <c r="N2181" s="35" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="V2181" s="35"/>
     </row>
@@ -74666,7 +74666,7 @@
         <v>2</v>
       </c>
       <c r="N2182" s="35" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="V2182" s="35"/>
     </row>
@@ -74690,7 +74690,7 @@
         <v>3</v>
       </c>
       <c r="N2183" s="35" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="V2183" s="35"/>
     </row>
@@ -74714,7 +74714,7 @@
         <v>4</v>
       </c>
       <c r="N2184" s="35" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="V2184" s="35"/>
     </row>
@@ -74738,7 +74738,7 @@
         <v>5</v>
       </c>
       <c r="N2185" s="35" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="V2185" s="35"/>
     </row>
@@ -74762,7 +74762,7 @@
         <v>6</v>
       </c>
       <c r="N2186" s="35" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="V2186" s="35"/>
     </row>
@@ -74786,7 +74786,7 @@
         <v>7</v>
       </c>
       <c r="N2187" s="35" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="V2187" s="35"/>
     </row>
@@ -74810,13 +74810,13 @@
         <v>8</v>
       </c>
       <c r="N2188" s="35" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O2188" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2188" s="35" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2189" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74839,7 +74839,7 @@
         <v>9</v>
       </c>
       <c r="N2189" s="35" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="V2189" s="35"/>
     </row>
@@ -74863,7 +74863,7 @@
         <v>10</v>
       </c>
       <c r="N2190" s="35" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V2190" s="35"/>
     </row>
@@ -74887,7 +74887,7 @@
         <v>11</v>
       </c>
       <c r="N2191" s="35" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V2191" s="35"/>
     </row>
@@ -74911,7 +74911,7 @@
         <v>12</v>
       </c>
       <c r="N2192" s="35" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="V2192" s="35"/>
     </row>
@@ -74935,7 +74935,7 @@
         <v>13</v>
       </c>
       <c r="N2193" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V2193" s="35"/>
     </row>
@@ -74959,7 +74959,7 @@
         <v>14</v>
       </c>
       <c r="N2194" s="35" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V2194" s="35"/>
     </row>
@@ -74983,7 +74983,7 @@
         <v>15</v>
       </c>
       <c r="N2195" s="35" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V2195" s="35"/>
     </row>
@@ -75007,7 +75007,7 @@
         <v>16</v>
       </c>
       <c r="N2196" s="35" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V2196" s="35"/>
     </row>
@@ -75031,13 +75031,13 @@
         <v>17</v>
       </c>
       <c r="N2197" s="35" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O2197" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2197" s="35" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2198" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75060,7 +75060,7 @@
         <v>18</v>
       </c>
       <c r="N2198" s="35" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V2198" s="35"/>
     </row>
@@ -75084,13 +75084,13 @@
         <v>19</v>
       </c>
       <c r="N2199" s="35" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O2199" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2199" s="35" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2200" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75113,7 +75113,7 @@
         <v>20</v>
       </c>
       <c r="N2200" s="35" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="V2200" s="35"/>
     </row>
@@ -75137,7 +75137,7 @@
         <v>21</v>
       </c>
       <c r="N2201" s="35" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="V2201" s="35"/>
     </row>
@@ -75161,7 +75161,7 @@
         <v>22</v>
       </c>
       <c r="N2202" s="35" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="O2202" s="8" t="s">
         <v>78</v>
@@ -75170,7 +75170,7 @@
         <v>79</v>
       </c>
       <c r="V2202" s="35" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="2203" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75191,7 +75191,7 @@
         <v>1</v>
       </c>
       <c r="N2203" s="35" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="V2203" s="35"/>
     </row>
@@ -75215,13 +75215,13 @@
         <v>2</v>
       </c>
       <c r="N2204" s="35" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O2204" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2204" s="35" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2205" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75244,7 +75244,7 @@
         <v>3</v>
       </c>
       <c r="N2205" s="35" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="V2205" s="35"/>
     </row>
@@ -75268,7 +75268,7 @@
         <v>4</v>
       </c>
       <c r="N2206" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="V2206" s="35"/>
     </row>
@@ -75292,7 +75292,7 @@
         <v>5</v>
       </c>
       <c r="N2207" s="35" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="V2207" s="35"/>
     </row>
@@ -75316,13 +75316,13 @@
         <v>6</v>
       </c>
       <c r="N2208" s="35" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O2208" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2208" s="35" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="2209" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75348,13 +75348,13 @@
         <v>7</v>
       </c>
       <c r="N2209" s="35" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O2209" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2209" s="35" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2210" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75380,7 +75380,7 @@
         <v>8</v>
       </c>
       <c r="N2210" s="35" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="V2210" s="35"/>
     </row>
@@ -75407,7 +75407,7 @@
         <v>9</v>
       </c>
       <c r="N2211" s="35" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="V2211" s="35"/>
     </row>
@@ -75434,7 +75434,7 @@
         <v>10</v>
       </c>
       <c r="N2212" s="35" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="V2212" s="35"/>
     </row>
@@ -75461,13 +75461,13 @@
         <v>11</v>
       </c>
       <c r="N2213" s="35" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O2213" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2213" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="2214" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75493,7 +75493,7 @@
         <v>12</v>
       </c>
       <c r="N2214" s="35" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V2214" s="35"/>
     </row>
@@ -75517,13 +75517,13 @@
         <v>13</v>
       </c>
       <c r="N2215" s="35" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="O2215" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2215" s="35" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2216" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75546,13 +75546,13 @@
         <v>14</v>
       </c>
       <c r="N2216" s="35" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="O2216" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2216" s="35" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2217" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75575,7 +75575,7 @@
         <v>15</v>
       </c>
       <c r="N2217" s="35" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="V2217" s="35"/>
     </row>
@@ -75599,7 +75599,7 @@
         <v>16</v>
       </c>
       <c r="N2218" s="35" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="V2218" s="35"/>
     </row>
@@ -75623,13 +75623,13 @@
         <v>17</v>
       </c>
       <c r="N2219" s="35" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="O2219" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2219" s="35" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2220" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75652,13 +75652,13 @@
         <v>18</v>
       </c>
       <c r="N2220" s="35" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="O2220" s="8" t="s">
         <v>82</v>
       </c>
       <c r="V2220" s="35" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="2221" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75681,13 +75681,13 @@
         <v>19</v>
       </c>
       <c r="N2221" s="35" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O2221" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2221" s="35" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="2222" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75710,13 +75710,13 @@
         <v>20</v>
       </c>
       <c r="N2222" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O2222" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2222" s="35" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="2223" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75739,7 +75739,7 @@
         <v>21</v>
       </c>
       <c r="N2223" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V2223" s="35"/>
     </row>
@@ -75763,7 +75763,7 @@
         <v>22</v>
       </c>
       <c r="N2224" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="V2224" s="35"/>
     </row>
@@ -75787,7 +75787,7 @@
         <v>23</v>
       </c>
       <c r="N2225" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="V2225" s="35"/>
     </row>
@@ -75835,7 +75835,7 @@
         <v>25</v>
       </c>
       <c r="N2227" s="35" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="O2227" s="8" t="s">
         <v>78</v>
@@ -75844,7 +75844,7 @@
         <v>79</v>
       </c>
       <c r="V2227" s="35" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="2228" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75865,7 +75865,7 @@
         <v>1</v>
       </c>
       <c r="N2228" s="35" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="V2228" s="35"/>
     </row>
@@ -75889,7 +75889,7 @@
         <v>2</v>
       </c>
       <c r="N2229" s="35" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V2229" s="35"/>
     </row>
@@ -75913,7 +75913,7 @@
         <v>3</v>
       </c>
       <c r="N2230" s="35" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="V2230" s="35"/>
     </row>
@@ -75937,7 +75937,7 @@
         <v>4</v>
       </c>
       <c r="N2231" s="35" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="V2231" s="35"/>
     </row>
@@ -75961,7 +75961,7 @@
         <v>5</v>
       </c>
       <c r="N2232" s="35" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="V2232" s="35"/>
     </row>
@@ -75985,7 +75985,7 @@
         <v>6</v>
       </c>
       <c r="N2233" s="35" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="V2233" s="35"/>
     </row>
@@ -76009,7 +76009,7 @@
         <v>7</v>
       </c>
       <c r="N2234" s="35" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="V2234" s="35"/>
     </row>
@@ -76033,7 +76033,7 @@
         <v>8</v>
       </c>
       <c r="N2235" s="35" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="V2235" s="35"/>
     </row>
@@ -76057,7 +76057,7 @@
         <v>9</v>
       </c>
       <c r="N2236" s="35" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="V2236" s="35"/>
     </row>
@@ -76081,13 +76081,13 @@
         <v>10</v>
       </c>
       <c r="N2237" s="35" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="O2237" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2237" s="35" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="2238" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76110,7 +76110,7 @@
         <v>11</v>
       </c>
       <c r="N2238" s="35" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="V2238" s="35"/>
     </row>
@@ -76134,7 +76134,7 @@
         <v>12</v>
       </c>
       <c r="N2239" s="35" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="V2239" s="35"/>
     </row>
@@ -76158,7 +76158,7 @@
         <v>13</v>
       </c>
       <c r="N2240" s="35" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="V2240" s="35"/>
     </row>
@@ -76182,13 +76182,13 @@
         <v>14</v>
       </c>
       <c r="N2241" s="35" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="O2241" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2241" s="35" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2242" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76211,7 +76211,7 @@
         <v>15</v>
       </c>
       <c r="N2242" s="35" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V2242" s="35"/>
     </row>
@@ -76235,13 +76235,13 @@
         <v>16</v>
       </c>
       <c r="N2243" s="35" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="O2243" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2243" s="35" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="2244" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76264,7 +76264,7 @@
         <v>17</v>
       </c>
       <c r="N2244" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="V2244" s="35"/>
     </row>
@@ -76288,7 +76288,7 @@
         <v>18</v>
       </c>
       <c r="N2245" s="35" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="V2245" s="35"/>
     </row>
@@ -76312,7 +76312,7 @@
         <v>19</v>
       </c>
       <c r="N2246" s="35" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="V2246" s="35"/>
     </row>
@@ -76336,7 +76336,7 @@
         <v>20</v>
       </c>
       <c r="N2247" s="35" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="V2247" s="35"/>
     </row>
@@ -76360,13 +76360,13 @@
         <v>21</v>
       </c>
       <c r="N2248" s="35" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="O2248" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2248" s="35" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="2249" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76389,13 +76389,13 @@
         <v>22</v>
       </c>
       <c r="N2249" s="35" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="O2249" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2249" s="35" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="2250" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76418,13 +76418,13 @@
         <v>23</v>
       </c>
       <c r="N2250" s="35" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="P2250" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2250" s="35" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="2251" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76445,7 +76445,7 @@
         <v>1</v>
       </c>
       <c r="N2251" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="V2251" s="35"/>
     </row>
@@ -76469,7 +76469,7 @@
         <v>2</v>
       </c>
       <c r="N2252" s="35" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="V2252" s="35"/>
     </row>
@@ -76493,7 +76493,7 @@
         <v>3</v>
       </c>
       <c r="N2253" s="35" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="V2253" s="35"/>
     </row>
@@ -76517,13 +76517,13 @@
         <v>4</v>
       </c>
       <c r="N2254" s="35" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="O2254" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2254" s="35" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="2255" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76546,7 +76546,7 @@
         <v>5</v>
       </c>
       <c r="N2255" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="V2255" s="35"/>
     </row>
@@ -76570,7 +76570,7 @@
         <v>6</v>
       </c>
       <c r="N2256" s="35" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="V2256" s="35"/>
     </row>
@@ -76594,13 +76594,13 @@
         <v>7</v>
       </c>
       <c r="N2257" s="35" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O2257" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2257" s="35" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="2258" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76623,13 +76623,13 @@
         <v>8</v>
       </c>
       <c r="N2258" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O2258" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2258" s="35" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="2259" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76652,13 +76652,13 @@
         <v>9</v>
       </c>
       <c r="N2259" s="35" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="O2259" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2259" s="35" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2260" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76681,7 +76681,7 @@
         <v>10</v>
       </c>
       <c r="N2260" s="35" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="V2260" s="35"/>
     </row>
@@ -76705,13 +76705,13 @@
         <v>11</v>
       </c>
       <c r="N2261" s="35" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="O2261" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2261" s="35" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="2262" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76734,7 +76734,7 @@
         <v>12</v>
       </c>
       <c r="N2262" s="35" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="V2262" s="35"/>
     </row>
@@ -76758,7 +76758,7 @@
         <v>13</v>
       </c>
       <c r="N2263" s="35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="V2263" s="35"/>
     </row>
@@ -76782,7 +76782,7 @@
         <v>14</v>
       </c>
       <c r="N2264" s="35" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="V2264" s="35"/>
     </row>
@@ -76806,7 +76806,7 @@
         <v>15</v>
       </c>
       <c r="N2265" s="35" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="V2265" s="35"/>
     </row>
@@ -76830,13 +76830,13 @@
         <v>16</v>
       </c>
       <c r="N2266" s="35" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O2266" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2266" s="35" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="2267" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76859,7 +76859,7 @@
         <v>17</v>
       </c>
       <c r="N2267" s="35" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V2267" s="35"/>
     </row>
@@ -76883,7 +76883,7 @@
         <v>18</v>
       </c>
       <c r="N2268" s="35" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="V2268" s="35"/>
     </row>
@@ -76907,13 +76907,13 @@
         <v>19</v>
       </c>
       <c r="N2269" s="35" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="O2269" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2269" s="35" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="2270" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76939,7 +76939,7 @@
         <v>20</v>
       </c>
       <c r="N2270" s="35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="V2270" s="35"/>
     </row>
@@ -76966,13 +76966,13 @@
         <v>21</v>
       </c>
       <c r="N2271" s="35" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="P2271" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2271" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="2272" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76993,13 +76993,13 @@
         <v>1</v>
       </c>
       <c r="N2272" s="35" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="O2272" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2272" s="35" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="2273" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77022,13 +77022,13 @@
         <v>2</v>
       </c>
       <c r="N2273" s="35" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="O2273" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2273" s="35" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="2274" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77051,13 +77051,13 @@
         <v>3</v>
       </c>
       <c r="N2274" s="35" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="O2274" s="8" t="s">
         <v>82</v>
       </c>
       <c r="V2274" s="35" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="2275" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77080,7 +77080,7 @@
         <v>4</v>
       </c>
       <c r="N2275" s="35" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="V2275" s="35"/>
     </row>
@@ -77104,13 +77104,13 @@
         <v>5</v>
       </c>
       <c r="N2276" s="35" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="O2276" s="8" t="s">
         <v>82</v>
       </c>
       <c r="V2276" s="35" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="2277" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77133,13 +77133,13 @@
         <v>6</v>
       </c>
       <c r="N2277" s="35" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="O2277" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2277" s="35" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="2278" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77162,13 +77162,13 @@
         <v>7</v>
       </c>
       <c r="N2278" s="35" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="O2278" s="8" t="s">
         <v>82</v>
       </c>
       <c r="V2278" s="35" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="2279" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77191,13 +77191,13 @@
         <v>8</v>
       </c>
       <c r="N2279" s="35" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="O2279" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2279" s="35" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="2280" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77220,7 +77220,7 @@
         <v>9</v>
       </c>
       <c r="N2280" s="35" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="V2280" s="35"/>
     </row>
@@ -77244,7 +77244,7 @@
         <v>10</v>
       </c>
       <c r="N2281" s="35" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="V2281" s="35"/>
     </row>
@@ -77268,7 +77268,7 @@
         <v>11</v>
       </c>
       <c r="N2282" s="35" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="V2282" s="35"/>
     </row>
@@ -77292,7 +77292,7 @@
         <v>12</v>
       </c>
       <c r="N2283" s="35" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="V2283" s="35"/>
     </row>
@@ -77316,7 +77316,7 @@
         <v>13</v>
       </c>
       <c r="N2284" s="35" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="V2284" s="35"/>
     </row>
@@ -77340,7 +77340,7 @@
         <v>14</v>
       </c>
       <c r="N2285" s="35" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="V2285" s="35"/>
     </row>
@@ -77364,7 +77364,7 @@
         <v>15</v>
       </c>
       <c r="N2286" s="35" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V2286" s="35"/>
     </row>
@@ -77388,7 +77388,7 @@
         <v>16</v>
       </c>
       <c r="N2287" s="35" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="V2287" s="35"/>
     </row>
@@ -77412,7 +77412,7 @@
         <v>17</v>
       </c>
       <c r="N2288" s="35" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="V2288" s="35"/>
     </row>
@@ -77436,7 +77436,7 @@
         <v>18</v>
       </c>
       <c r="N2289" s="35" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="V2289" s="35"/>
     </row>
@@ -77460,13 +77460,13 @@
         <v>19</v>
       </c>
       <c r="N2290" s="35" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="O2290" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2290" s="35" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="2291" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77489,7 +77489,7 @@
         <v>20</v>
       </c>
       <c r="N2291" s="35" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="V2291" s="35"/>
     </row>
@@ -77513,13 +77513,13 @@
         <v>21</v>
       </c>
       <c r="N2292" s="35" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="O2292" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2292" s="35" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="2293" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77542,13 +77542,13 @@
         <v>22</v>
       </c>
       <c r="N2293" s="35" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P2293" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2293" s="35" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="2294" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77593,7 +77593,7 @@
         <v>2</v>
       </c>
       <c r="N2295" s="35" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="V2295" s="35"/>
     </row>
@@ -77617,7 +77617,7 @@
         <v>3</v>
       </c>
       <c r="N2296" s="35" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="V2296" s="35"/>
     </row>
@@ -77641,7 +77641,7 @@
         <v>4</v>
       </c>
       <c r="N2297" s="35" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="V2297" s="35"/>
     </row>
@@ -77665,7 +77665,7 @@
         <v>5</v>
       </c>
       <c r="N2298" s="35" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V2298" s="35"/>
     </row>
@@ -77689,7 +77689,7 @@
         <v>6</v>
       </c>
       <c r="N2299" s="35" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="V2299" s="35"/>
     </row>
@@ -77716,7 +77716,7 @@
         <v>7</v>
       </c>
       <c r="N2300" s="35" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="V2300" s="35"/>
     </row>
@@ -77743,13 +77743,13 @@
         <v>8</v>
       </c>
       <c r="N2301" s="35" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="O2301" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2301" s="35" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="2302" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77796,7 +77796,7 @@
         <v>10</v>
       </c>
       <c r="N2303" s="35" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="V2303" s="35"/>
     </row>
@@ -77820,7 +77820,7 @@
         <v>11</v>
       </c>
       <c r="N2304" s="35" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="V2304" s="35"/>
     </row>
@@ -77844,7 +77844,7 @@
         <v>12</v>
       </c>
       <c r="N2305" s="35" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="V2305" s="35"/>
     </row>
@@ -77868,7 +77868,7 @@
         <v>13</v>
       </c>
       <c r="N2306" s="35" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="V2306" s="35"/>
     </row>
@@ -77892,7 +77892,7 @@
         <v>14</v>
       </c>
       <c r="N2307" s="35" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="V2307" s="35"/>
     </row>
@@ -77916,7 +77916,7 @@
         <v>15</v>
       </c>
       <c r="N2308" s="35" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="V2308" s="35"/>
     </row>
@@ -77940,7 +77940,7 @@
         <v>16</v>
       </c>
       <c r="N2309" s="35" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="V2309" s="35"/>
     </row>
@@ -77964,7 +77964,7 @@
         <v>17</v>
       </c>
       <c r="N2310" s="35" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="V2310" s="35"/>
     </row>
@@ -77988,13 +77988,13 @@
         <v>18</v>
       </c>
       <c r="N2311" s="35" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O2311" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2311" s="35" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="2312" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78017,7 +78017,7 @@
         <v>19</v>
       </c>
       <c r="N2312" s="35" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="V2312" s="35"/>
     </row>
@@ -78041,7 +78041,7 @@
         <v>20</v>
       </c>
       <c r="N2313" s="35" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="V2313" s="35"/>
     </row>
@@ -78065,13 +78065,13 @@
         <v>21</v>
       </c>
       <c r="N2314" s="35" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V2314" s="35"/>
     </row>
     <row r="2315" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2315" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="I2315" s="38" t="s">
         <v>67</v>
@@ -78092,13 +78092,13 @@
         <v>22</v>
       </c>
       <c r="N2315" s="35" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="P2315" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2315" s="35" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="2316" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78119,7 +78119,7 @@
         <v>1</v>
       </c>
       <c r="N2316" s="35" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V2316" s="35"/>
     </row>
@@ -78143,7 +78143,7 @@
         <v>2</v>
       </c>
       <c r="N2317" s="35" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="V2317" s="35"/>
     </row>
@@ -78167,13 +78167,13 @@
         <v>3</v>
       </c>
       <c r="N2318" s="35" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="O2318" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2318" s="35" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="2319" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78196,13 +78196,13 @@
         <v>4</v>
       </c>
       <c r="N2319" s="35" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O2319" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2319" s="35" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2320" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78225,7 +78225,7 @@
         <v>5</v>
       </c>
       <c r="N2320" s="35" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="V2320" s="35"/>
     </row>
@@ -78249,7 +78249,7 @@
         <v>6</v>
       </c>
       <c r="N2321" s="35" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="V2321" s="35"/>
     </row>
@@ -78297,13 +78297,13 @@
         <v>8</v>
       </c>
       <c r="N2323" s="35" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O2323" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2323" s="35" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="2324" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78350,7 +78350,7 @@
         <v>10</v>
       </c>
       <c r="N2325" s="35" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="V2325" s="35"/>
     </row>
@@ -78374,7 +78374,7 @@
         <v>11</v>
       </c>
       <c r="N2326" s="35" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="V2326" s="35"/>
     </row>
@@ -78398,7 +78398,7 @@
         <v>12</v>
       </c>
       <c r="N2327" s="35" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="V2327" s="35"/>
     </row>
@@ -78422,7 +78422,7 @@
         <v>13</v>
       </c>
       <c r="N2328" s="35" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="V2328" s="35"/>
     </row>
@@ -78446,7 +78446,7 @@
         <v>14</v>
       </c>
       <c r="N2329" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="V2329" s="35"/>
     </row>
@@ -78470,7 +78470,7 @@
         <v>15</v>
       </c>
       <c r="N2330" s="35" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="V2330" s="35"/>
     </row>
@@ -78494,7 +78494,7 @@
         <v>16</v>
       </c>
       <c r="N2331" s="35" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="V2331" s="35"/>
     </row>
@@ -78518,7 +78518,7 @@
         <v>17</v>
       </c>
       <c r="N2332" s="35" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="V2332" s="35"/>
     </row>
@@ -78542,7 +78542,7 @@
         <v>18</v>
       </c>
       <c r="N2333" s="35" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="V2333" s="35"/>
     </row>
@@ -78566,7 +78566,7 @@
         <v>19</v>
       </c>
       <c r="N2334" s="35" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="V2334" s="35"/>
     </row>
@@ -78590,7 +78590,7 @@
         <v>20</v>
       </c>
       <c r="N2335" s="35" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="V2335" s="35"/>
     </row>
@@ -78614,7 +78614,7 @@
         <v>21</v>
       </c>
       <c r="N2336" s="35" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="V2336" s="35"/>
     </row>
@@ -78638,7 +78638,7 @@
         <v>22</v>
       </c>
       <c r="N2337" s="35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="V2337" s="35"/>
     </row>
@@ -78662,7 +78662,7 @@
         <v>23</v>
       </c>
       <c r="N2338" s="35" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="V2338" s="35"/>
     </row>
@@ -78686,13 +78686,13 @@
         <v>24</v>
       </c>
       <c r="N2339" s="35" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="P2339" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2339" s="35" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="2340" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78737,7 +78737,7 @@
         <v>2</v>
       </c>
       <c r="N2341" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="V2341" s="35"/>
     </row>
@@ -78761,13 +78761,13 @@
         <v>3</v>
       </c>
       <c r="N2342" s="35" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="O2342" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2342" s="35" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="2343" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78790,13 +78790,13 @@
         <v>4</v>
       </c>
       <c r="N2343" s="35" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="O2343" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2343" s="35" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="2344" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78819,7 +78819,7 @@
         <v>5</v>
       </c>
       <c r="N2344" s="35" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="V2344" s="35"/>
     </row>
@@ -78843,13 +78843,13 @@
         <v>6</v>
       </c>
       <c r="N2345" s="35" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O2345" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2345" s="35" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="2346" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78872,7 +78872,7 @@
         <v>7</v>
       </c>
       <c r="N2346" s="35" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V2346" s="35"/>
     </row>
@@ -78896,7 +78896,7 @@
         <v>8</v>
       </c>
       <c r="N2347" s="35" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="V2347" s="35"/>
     </row>
@@ -78920,13 +78920,13 @@
         <v>9</v>
       </c>
       <c r="N2348" s="35" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O2348" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2348" s="35" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2349" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78949,7 +78949,7 @@
         <v>10</v>
       </c>
       <c r="N2349" s="35" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="V2349" s="35"/>
     </row>
@@ -78973,13 +78973,13 @@
         <v>11</v>
       </c>
       <c r="N2350" s="35" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="O2350" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2350" s="35" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="2351" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79002,7 +79002,7 @@
         <v>12</v>
       </c>
       <c r="N2351" s="35" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="V2351" s="35"/>
     </row>
@@ -79026,13 +79026,13 @@
         <v>13</v>
       </c>
       <c r="N2352" s="35" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="O2352" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2352" s="35" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="2353" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79055,7 +79055,7 @@
         <v>14</v>
       </c>
       <c r="N2353" s="35" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="V2353" s="35"/>
     </row>
@@ -79079,7 +79079,7 @@
         <v>15</v>
       </c>
       <c r="N2354" s="35" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="V2354" s="35"/>
     </row>
@@ -79103,7 +79103,7 @@
         <v>16</v>
       </c>
       <c r="N2355" s="35" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="V2355" s="35"/>
     </row>
@@ -79151,7 +79151,7 @@
         <v>18</v>
       </c>
       <c r="N2357" s="35" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V2357" s="35"/>
     </row>
@@ -79181,7 +79181,7 @@
         <v>78</v>
       </c>
       <c r="V2358" s="35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="2359" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79204,13 +79204,13 @@
         <v>20</v>
       </c>
       <c r="N2359" s="35" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="P2359" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2359" s="35" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="2360" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79231,13 +79231,13 @@
         <v>1</v>
       </c>
       <c r="N2360" s="35" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="O2360" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2360" s="35" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="2361" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79260,7 +79260,7 @@
         <v>2</v>
       </c>
       <c r="N2361" s="35" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="V2361" s="35"/>
     </row>
@@ -79284,7 +79284,7 @@
         <v>3</v>
       </c>
       <c r="N2362" s="35" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="V2362" s="35"/>
     </row>
@@ -79308,13 +79308,13 @@
         <v>4</v>
       </c>
       <c r="N2363" s="35" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="O2363" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2363" s="35" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="2364" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79337,7 +79337,7 @@
         <v>5</v>
       </c>
       <c r="N2364" s="35" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="V2364" s="35"/>
     </row>
@@ -79361,13 +79361,13 @@
         <v>6</v>
       </c>
       <c r="N2365" s="35" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="O2365" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2365" s="35" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="2366" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79390,13 +79390,13 @@
         <v>7</v>
       </c>
       <c r="N2366" s="35" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O2366" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2366" s="35" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="2367" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79419,13 +79419,13 @@
         <v>8</v>
       </c>
       <c r="N2367" s="35" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="O2367" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2367" s="35" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="2368" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79448,13 +79448,13 @@
         <v>9</v>
       </c>
       <c r="N2368" s="35" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="O2368" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2368" s="35" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="2369" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79477,7 +79477,7 @@
         <v>10</v>
       </c>
       <c r="N2369" s="35" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="V2369" s="35"/>
     </row>
@@ -79501,13 +79501,13 @@
         <v>11</v>
       </c>
       <c r="N2370" s="35" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="O2370" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2370" s="35" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="2371" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79530,7 +79530,7 @@
         <v>12</v>
       </c>
       <c r="N2371" s="35" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="V2371" s="35"/>
     </row>
@@ -79554,13 +79554,13 @@
         <v>13</v>
       </c>
       <c r="N2372" s="35" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="O2372" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2372" s="35" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2373" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79583,7 +79583,7 @@
         <v>14</v>
       </c>
       <c r="N2373" s="35" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="V2373" s="35"/>
     </row>
@@ -79607,13 +79607,13 @@
         <v>15</v>
       </c>
       <c r="N2374" s="35" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="O2374" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2374" s="35" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="2375" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79636,13 +79636,13 @@
         <v>16</v>
       </c>
       <c r="N2375" s="35" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="P2375" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2375" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="2376" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79663,13 +79663,13 @@
         <v>1</v>
       </c>
       <c r="N2376" s="35" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="S2376" s="8" t="s">
         <v>119</v>
       </c>
       <c r="T2376" s="8" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="V2376" s="35"/>
     </row>
@@ -79693,7 +79693,7 @@
         <v>2</v>
       </c>
       <c r="N2377" s="35" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="V2377" s="35"/>
     </row>
@@ -79717,7 +79717,7 @@
         <v>3</v>
       </c>
       <c r="N2378" s="35" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="V2378" s="35"/>
     </row>
@@ -79741,7 +79741,7 @@
         <v>4</v>
       </c>
       <c r="N2379" s="35" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="V2379" s="35"/>
     </row>
@@ -79765,7 +79765,7 @@
         <v>5</v>
       </c>
       <c r="N2380" s="35" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="V2380" s="35"/>
     </row>
@@ -79789,7 +79789,7 @@
         <v>6</v>
       </c>
       <c r="N2381" s="35" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="V2381" s="35"/>
     </row>
@@ -79813,7 +79813,7 @@
         <v>7</v>
       </c>
       <c r="N2382" s="35" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="V2382" s="35"/>
     </row>
@@ -79837,7 +79837,7 @@
         <v>8</v>
       </c>
       <c r="N2383" s="35" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="V2383" s="35"/>
     </row>
@@ -79861,7 +79861,7 @@
         <v>9</v>
       </c>
       <c r="N2384" s="35" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="V2384" s="35"/>
     </row>
@@ -79885,7 +79885,7 @@
         <v>10</v>
       </c>
       <c r="N2385" s="35" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="V2385" s="35"/>
     </row>
@@ -79909,7 +79909,7 @@
         <v>11</v>
       </c>
       <c r="N2386" s="35" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="V2386" s="35"/>
     </row>
@@ -79933,7 +79933,7 @@
         <v>12</v>
       </c>
       <c r="N2387" s="35" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="V2387" s="35"/>
     </row>
@@ -79957,13 +79957,13 @@
         <v>13</v>
       </c>
       <c r="N2388" s="35" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="O2388" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2388" s="35" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="2389" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79986,7 +79986,7 @@
         <v>14</v>
       </c>
       <c r="N2389" s="35" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="V2389" s="35"/>
     </row>
@@ -80034,7 +80034,7 @@
         <v>16</v>
       </c>
       <c r="N2391" s="35" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="V2391" s="35"/>
     </row>
@@ -80058,7 +80058,7 @@
         <v>17</v>
       </c>
       <c r="N2392" s="35" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="V2392" s="35"/>
     </row>
@@ -80082,13 +80082,13 @@
         <v>18</v>
       </c>
       <c r="N2393" s="35" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="O2393" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2393" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="2394" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80135,7 +80135,7 @@
         <v>20</v>
       </c>
       <c r="N2395" s="35" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="V2395" s="35"/>
     </row>
@@ -80159,7 +80159,7 @@
         <v>21</v>
       </c>
       <c r="N2396" s="35" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="V2396" s="35"/>
     </row>
@@ -80186,7 +80186,7 @@
         <v>22</v>
       </c>
       <c r="N2397" s="35" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="V2397" s="35"/>
     </row>
@@ -80213,13 +80213,13 @@
         <v>23</v>
       </c>
       <c r="N2398" s="35" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="O2398" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2398" s="35" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="2399" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80269,13 +80269,13 @@
         <v>25</v>
       </c>
       <c r="N2400" s="35" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="O2400" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2400" s="35" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="2401" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80322,7 +80322,7 @@
         <v>27</v>
       </c>
       <c r="N2402" s="35" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="V2402" s="35"/>
     </row>
@@ -80352,7 +80352,7 @@
         <v>79</v>
       </c>
       <c r="V2403" s="35" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="2404" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80397,7 +80397,7 @@
         <v>2</v>
       </c>
       <c r="N2405" s="35" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V2405" s="35"/>
     </row>
@@ -80421,7 +80421,7 @@
         <v>3</v>
       </c>
       <c r="N2406" s="35" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="V2406" s="35"/>
     </row>
@@ -80445,13 +80445,13 @@
         <v>4</v>
       </c>
       <c r="N2407" s="35" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="O2407" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2407" s="35" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="2408" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80474,7 +80474,7 @@
         <v>5</v>
       </c>
       <c r="N2408" s="35" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="V2408" s="35"/>
     </row>
@@ -80498,7 +80498,7 @@
         <v>6</v>
       </c>
       <c r="N2409" s="35" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="V2409" s="35"/>
     </row>
@@ -80522,7 +80522,7 @@
         <v>7</v>
       </c>
       <c r="N2410" s="35" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="V2410" s="35"/>
     </row>
@@ -80546,7 +80546,7 @@
         <v>8</v>
       </c>
       <c r="N2411" s="35" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="V2411" s="35"/>
     </row>
@@ -80570,7 +80570,7 @@
         <v>9</v>
       </c>
       <c r="N2412" s="35" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="V2412" s="35"/>
     </row>
@@ -80594,7 +80594,7 @@
         <v>10</v>
       </c>
       <c r="N2413" s="35" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="V2413" s="35"/>
     </row>
@@ -80624,7 +80624,7 @@
         <v>78</v>
       </c>
       <c r="V2414" s="35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="2415" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80647,7 +80647,7 @@
         <v>12</v>
       </c>
       <c r="N2415" s="35" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="V2415" s="35"/>
     </row>
@@ -80671,7 +80671,7 @@
         <v>13</v>
       </c>
       <c r="N2416" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="V2416" s="35"/>
     </row>
@@ -80695,7 +80695,7 @@
         <v>14</v>
       </c>
       <c r="N2417" s="35" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="V2417" s="35"/>
     </row>
@@ -80719,7 +80719,7 @@
         <v>15</v>
       </c>
       <c r="N2418" s="35" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="V2418" s="35"/>
     </row>
@@ -80743,7 +80743,7 @@
         <v>16</v>
       </c>
       <c r="N2419" s="35" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="V2419" s="35"/>
     </row>
@@ -80767,7 +80767,7 @@
         <v>17</v>
       </c>
       <c r="N2420" s="35" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="V2420" s="35"/>
     </row>
@@ -80791,7 +80791,7 @@
         <v>18</v>
       </c>
       <c r="N2421" s="35" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="V2421" s="35"/>
     </row>
@@ -80815,7 +80815,7 @@
         <v>19</v>
       </c>
       <c r="N2422" s="35" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V2422" s="35"/>
     </row>
@@ -80839,7 +80839,7 @@
         <v>20</v>
       </c>
       <c r="N2423" s="35" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V2423" s="35"/>
     </row>
@@ -80887,7 +80887,7 @@
         <v>22</v>
       </c>
       <c r="N2425" s="35" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="V2425" s="35"/>
     </row>
@@ -80911,7 +80911,7 @@
         <v>23</v>
       </c>
       <c r="N2426" s="35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="V2426" s="35"/>
     </row>
@@ -80935,7 +80935,7 @@
         <v>24</v>
       </c>
       <c r="N2427" s="35" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="V2427" s="35"/>
     </row>
@@ -80959,7 +80959,7 @@
         <v>25</v>
       </c>
       <c r="N2428" s="35" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="V2428" s="35"/>
     </row>
@@ -80983,13 +80983,13 @@
         <v>26</v>
       </c>
       <c r="N2429" s="35" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="O2429" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2429" s="35" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="2430" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81012,7 +81012,7 @@
         <v>27</v>
       </c>
       <c r="N2430" s="35" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="V2430" s="35"/>
     </row>
@@ -81036,7 +81036,7 @@
         <v>28</v>
       </c>
       <c r="N2431" s="35" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="V2431" s="35"/>
     </row>
@@ -81060,13 +81060,13 @@
         <v>29</v>
       </c>
       <c r="N2432" s="35" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="P2432" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2432" s="35" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="2433" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81087,7 +81087,7 @@
         <v>1</v>
       </c>
       <c r="N2433" s="35" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="V2433" s="35"/>
     </row>
@@ -81111,7 +81111,7 @@
         <v>2</v>
       </c>
       <c r="N2434" s="35" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V2434" s="35"/>
     </row>
@@ -81135,7 +81135,7 @@
         <v>3</v>
       </c>
       <c r="N2435" s="35" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="V2435" s="35"/>
     </row>
@@ -81159,13 +81159,13 @@
         <v>4</v>
       </c>
       <c r="N2436" s="35" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="O2436" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2436" s="35" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="2437" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81188,7 +81188,7 @@
         <v>5</v>
       </c>
       <c r="N2437" s="35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="V2437" s="35"/>
     </row>
@@ -81212,7 +81212,7 @@
         <v>6</v>
       </c>
       <c r="N2438" s="35" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="V2438" s="35"/>
     </row>
@@ -81236,7 +81236,7 @@
         <v>7</v>
       </c>
       <c r="N2439" s="35" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="V2439" s="35"/>
     </row>
@@ -81260,7 +81260,7 @@
         <v>8</v>
       </c>
       <c r="N2440" s="35" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="V2440" s="35"/>
     </row>
@@ -81284,7 +81284,7 @@
         <v>9</v>
       </c>
       <c r="N2441" s="35" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="V2441" s="35"/>
     </row>
@@ -81308,7 +81308,7 @@
         <v>10</v>
       </c>
       <c r="N2442" s="35" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="V2442" s="35"/>
     </row>
@@ -81332,7 +81332,7 @@
         <v>11</v>
       </c>
       <c r="N2443" s="35" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="V2443" s="35"/>
     </row>
@@ -81356,7 +81356,7 @@
         <v>12</v>
       </c>
       <c r="N2444" s="35" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="V2444" s="35"/>
     </row>
@@ -81383,7 +81383,7 @@
         <v>13</v>
       </c>
       <c r="N2445" s="35" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="V2445" s="35"/>
     </row>
@@ -81410,7 +81410,7 @@
         <v>14</v>
       </c>
       <c r="N2446" s="35" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="V2446" s="35"/>
     </row>
@@ -81437,7 +81437,7 @@
         <v>15</v>
       </c>
       <c r="N2447" s="35" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="V2447" s="35"/>
     </row>
@@ -81464,7 +81464,7 @@
         <v>16</v>
       </c>
       <c r="N2448" s="35" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="V2448" s="35"/>
     </row>
@@ -81488,7 +81488,7 @@
         <v>17</v>
       </c>
       <c r="N2449" s="35" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="V2449" s="35"/>
     </row>
@@ -81512,7 +81512,7 @@
         <v>18</v>
       </c>
       <c r="N2450" s="35" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="V2450" s="35"/>
     </row>
@@ -81536,7 +81536,7 @@
         <v>19</v>
       </c>
       <c r="N2451" s="35" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="V2451" s="35"/>
     </row>
@@ -81560,7 +81560,7 @@
         <v>20</v>
       </c>
       <c r="N2452" s="35" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V2452" s="35"/>
     </row>
@@ -81584,7 +81584,7 @@
         <v>21</v>
       </c>
       <c r="N2453" s="35" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="V2453" s="35"/>
     </row>
@@ -81608,7 +81608,7 @@
         <v>22</v>
       </c>
       <c r="N2454" s="35" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="V2454" s="35"/>
     </row>
@@ -81632,7 +81632,7 @@
         <v>23</v>
       </c>
       <c r="N2455" s="35" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="V2455" s="35"/>
     </row>
@@ -81656,7 +81656,7 @@
         <v>24</v>
       </c>
       <c r="N2456" s="35" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="V2456" s="35"/>
     </row>
@@ -81680,13 +81680,13 @@
         <v>25</v>
       </c>
       <c r="N2457" s="35" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="O2457" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2457" s="35" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="2458" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81709,7 +81709,7 @@
         <v>26</v>
       </c>
       <c r="N2458" s="35" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="V2458" s="35"/>
     </row>
@@ -81733,13 +81733,13 @@
         <v>27</v>
       </c>
       <c r="N2459" s="35" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="V2459" s="35"/>
     </row>
     <row r="2460" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2460" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="I2460" s="38" t="s">
         <v>73</v>
@@ -81760,13 +81760,13 @@
         <v>28</v>
       </c>
       <c r="N2460" s="35" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="P2460" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2460" s="35" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="2461" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81787,7 +81787,7 @@
         <v>1</v>
       </c>
       <c r="N2461" s="35" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="V2461" s="35"/>
     </row>
@@ -81811,13 +81811,13 @@
         <v>2</v>
       </c>
       <c r="N2462" s="35" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O2462" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2462" s="35" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="2463" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81840,13 +81840,13 @@
         <v>3</v>
       </c>
       <c r="N2463" s="35" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="O2463" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2463" s="35" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="2464" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81869,7 +81869,7 @@
         <v>4</v>
       </c>
       <c r="N2464" s="35" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="V2464" s="35"/>
     </row>
@@ -81893,7 +81893,7 @@
         <v>5</v>
       </c>
       <c r="N2465" s="35" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="V2465" s="35"/>
     </row>
@@ -81917,7 +81917,7 @@
         <v>6</v>
       </c>
       <c r="N2466" s="35" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="V2466" s="35"/>
     </row>
@@ -81941,7 +81941,7 @@
         <v>7</v>
       </c>
       <c r="N2467" s="35" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="V2467" s="35"/>
     </row>
@@ -81965,7 +81965,7 @@
         <v>8</v>
       </c>
       <c r="N2468" s="35" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="V2468" s="35"/>
     </row>
@@ -81989,7 +81989,7 @@
         <v>9</v>
       </c>
       <c r="N2469" s="35" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="V2469" s="35"/>
     </row>
@@ -82013,13 +82013,13 @@
         <v>10</v>
       </c>
       <c r="N2470" s="35" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="O2470" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2470" s="35" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="2471" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82042,7 +82042,7 @@
         <v>11</v>
       </c>
       <c r="N2471" s="35" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="V2471" s="35"/>
     </row>
@@ -82066,13 +82066,13 @@
         <v>12</v>
       </c>
       <c r="N2472" s="35" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="O2472" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2472" s="35" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2473" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82095,7 +82095,7 @@
         <v>13</v>
       </c>
       <c r="N2473" s="35" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="V2473" s="35"/>
     </row>
@@ -82119,7 +82119,7 @@
         <v>14</v>
       </c>
       <c r="N2474" s="35" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="V2474" s="35"/>
     </row>
@@ -82143,7 +82143,7 @@
         <v>15</v>
       </c>
       <c r="N2475" s="35" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="V2475" s="35"/>
     </row>
@@ -82167,13 +82167,13 @@
         <v>16</v>
       </c>
       <c r="N2476" s="35" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="O2476" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2476" s="35" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="2477" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82196,7 +82196,7 @@
         <v>17</v>
       </c>
       <c r="N2477" s="35" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="V2477" s="35"/>
     </row>
@@ -82220,13 +82220,13 @@
         <v>18</v>
       </c>
       <c r="N2478" s="35" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="O2478" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2478" s="35" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="2479" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82249,7 +82249,7 @@
         <v>19</v>
       </c>
       <c r="N2479" s="35" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V2479" s="35"/>
     </row>
@@ -82273,13 +82273,13 @@
         <v>20</v>
       </c>
       <c r="N2480" s="35" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="O2480" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2480" s="35" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="2481" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82302,7 +82302,7 @@
         <v>21</v>
       </c>
       <c r="N2481" s="35" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V2481" s="35"/>
     </row>
@@ -82326,7 +82326,7 @@
         <v>22</v>
       </c>
       <c r="N2482" s="35" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="O2482" s="8" t="s">
         <v>78</v>
@@ -82335,7 +82335,7 @@
         <v>79</v>
       </c>
       <c r="V2482" s="35" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="2483" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82356,7 +82356,7 @@
         <v>1</v>
       </c>
       <c r="N2483" s="35" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V2483" s="35"/>
     </row>
@@ -82407,7 +82407,7 @@
         <v>3</v>
       </c>
       <c r="N2485" s="35" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="V2485" s="35"/>
     </row>
@@ -82431,7 +82431,7 @@
         <v>4</v>
       </c>
       <c r="N2486" s="35" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="V2486" s="35"/>
     </row>
@@ -82455,7 +82455,7 @@
         <v>5</v>
       </c>
       <c r="N2487" s="35" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="V2487" s="35"/>
     </row>
@@ -82479,7 +82479,7 @@
         <v>6</v>
       </c>
       <c r="N2488" s="35" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="V2488" s="35"/>
     </row>
@@ -82503,7 +82503,7 @@
         <v>7</v>
       </c>
       <c r="N2489" s="35" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="V2489" s="35"/>
     </row>
@@ -82527,7 +82527,7 @@
         <v>8</v>
       </c>
       <c r="N2490" s="35" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="O2490" s="8" t="s">
         <v>78</v>
@@ -82536,7 +82536,7 @@
         <v>79</v>
       </c>
       <c r="V2490" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="2491" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82607,7 +82607,7 @@
         <v>11</v>
       </c>
       <c r="N2493" s="35" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="V2493" s="35"/>
     </row>
@@ -82637,7 +82637,7 @@
         <v>78</v>
       </c>
       <c r="V2494" s="35" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="2495" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82756,13 +82756,13 @@
         <v>17</v>
       </c>
       <c r="N2499" s="35" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O2499" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2499" s="35" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="2500" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82785,13 +82785,13 @@
         <v>18</v>
       </c>
       <c r="N2500" s="35" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="P2500" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2500" s="35" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="2501" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82812,7 +82812,7 @@
         <v>1</v>
       </c>
       <c r="N2501" s="35" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="V2501" s="35"/>
     </row>
@@ -82860,7 +82860,7 @@
         <v>3</v>
       </c>
       <c r="N2503" s="35" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="V2503" s="35"/>
     </row>
@@ -82884,7 +82884,7 @@
         <v>4</v>
       </c>
       <c r="N2504" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="V2504" s="35"/>
     </row>
@@ -82908,13 +82908,13 @@
         <v>5</v>
       </c>
       <c r="N2505" s="35" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="O2505" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2505" s="35" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="2506" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82940,7 +82940,7 @@
         <v>6</v>
       </c>
       <c r="N2506" s="35" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="V2506" s="35"/>
     </row>
@@ -83003,7 +83003,7 @@
         <v>8</v>
       </c>
       <c r="N2508" s="35" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="V2508" s="35"/>
     </row>
@@ -83027,7 +83027,7 @@
         <v>9</v>
       </c>
       <c r="N2509" s="35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="V2509" s="35"/>
     </row>
@@ -83099,7 +83099,7 @@
         <v>12</v>
       </c>
       <c r="N2512" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="V2512" s="35"/>
     </row>
@@ -83123,7 +83123,7 @@
         <v>13</v>
       </c>
       <c r="N2513" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="V2513" s="35"/>
     </row>
@@ -83147,13 +83147,13 @@
         <v>14</v>
       </c>
       <c r="N2514" s="35" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="O2514" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2514" s="35" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="2515" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83176,7 +83176,7 @@
         <v>15</v>
       </c>
       <c r="N2515" s="35" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="V2515" s="35"/>
     </row>
@@ -83200,7 +83200,7 @@
         <v>16</v>
       </c>
       <c r="N2516" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V2516" s="35"/>
     </row>
@@ -83278,7 +83278,7 @@
         <v>78</v>
       </c>
       <c r="V2519" s="35" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="2520" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83325,7 +83325,7 @@
         <v>21</v>
       </c>
       <c r="N2521" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="V2521" s="35"/>
     </row>
@@ -83373,7 +83373,7 @@
         <v>23</v>
       </c>
       <c r="N2523" s="35" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="V2523" s="35"/>
     </row>
@@ -83403,7 +83403,7 @@
         <v>78</v>
       </c>
       <c r="V2524" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="2525" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83426,13 +83426,13 @@
         <v>25</v>
       </c>
       <c r="N2525" s="35" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="P2525" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2525" s="35" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="2526" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83549,7 +83549,7 @@
         <v>5</v>
       </c>
       <c r="N2530" s="35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="V2530" s="35"/>
     </row>
@@ -83645,7 +83645,7 @@
         <v>9</v>
       </c>
       <c r="N2534" s="35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="V2534" s="35"/>
     </row>
@@ -83669,7 +83669,7 @@
         <v>10</v>
       </c>
       <c r="N2535" s="35" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="V2535" s="35"/>
     </row>
@@ -83813,7 +83813,7 @@
         <v>16</v>
       </c>
       <c r="N2541" s="35" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="V2541" s="35"/>
     </row>
@@ -83888,7 +83888,7 @@
         <v>19</v>
       </c>
       <c r="N2544" s="35" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="V2544" s="35"/>
     </row>
@@ -83912,7 +83912,7 @@
         <v>20</v>
       </c>
       <c r="N2545" s="35" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="V2545" s="35"/>
     </row>
@@ -84008,7 +84008,7 @@
         <v>24</v>
       </c>
       <c r="N2549" s="35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="V2549" s="35"/>
     </row>
@@ -84104,7 +84104,7 @@
         <v>28</v>
       </c>
       <c r="N2553" s="35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="V2553" s="35"/>
     </row>
@@ -84128,7 +84128,7 @@
         <v>29</v>
       </c>
       <c r="N2554" s="35" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="V2554" s="35"/>
     </row>
@@ -84152,7 +84152,7 @@
         <v>30</v>
       </c>
       <c r="N2555" s="35" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="V2555" s="35"/>
     </row>
@@ -84296,13 +84296,13 @@
         <v>36</v>
       </c>
       <c r="N2561" s="35" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="S2561" s="8" t="s">
         <v>119</v>
       </c>
       <c r="T2561" s="8" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="V2561" s="35"/>
     </row>
@@ -84326,7 +84326,7 @@
         <v>37</v>
       </c>
       <c r="N2562" s="35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="V2562" s="35"/>
     </row>
@@ -84350,7 +84350,7 @@
         <v>38</v>
       </c>
       <c r="N2563" s="35" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V2563" s="35"/>
     </row>
@@ -84398,13 +84398,13 @@
         <v>40</v>
       </c>
       <c r="N2565" s="35" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="O2565" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V2565" s="35" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="2566" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84523,7 +84523,7 @@
         <v>45</v>
       </c>
       <c r="N2570" s="35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="V2570" s="35"/>
     </row>
@@ -84619,7 +84619,7 @@
         <v>49</v>
       </c>
       <c r="N2574" s="35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="V2574" s="35"/>
     </row>
@@ -84643,7 +84643,7 @@
         <v>50</v>
       </c>
       <c r="N2575" s="35" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="V2575" s="35"/>
     </row>
@@ -84787,7 +84787,7 @@
         <v>56</v>
       </c>
       <c r="N2581" s="35" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="V2581" s="35"/>
     </row>
@@ -84811,7 +84811,7 @@
         <v>57</v>
       </c>
       <c r="N2582" s="35" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V2582" s="35"/>
     </row>
@@ -84835,7 +84835,7 @@
         <v>58</v>
       </c>
       <c r="N2583" s="35" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="O2583" s="8" t="s">
         <v>78</v>
@@ -84844,7 +84844,7 @@
         <v>79</v>
       </c>
       <c r="V2583" s="35" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="2584" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE76AB71-76A2-4B06-AC0B-6D712041E855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F4422-4BEA-4779-9749-7983C631008B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6667" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6666" uniqueCount="1721">
   <si>
     <t>Passage</t>
   </si>
@@ -5843,10 +5843,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1646" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V1648" sqref="V1648"/>
+      <selection pane="bottomLeft" activeCell="U239" sqref="U239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15187,9 +15187,7 @@
       <c r="R239" s="8"/>
       <c r="S239" s="8"/>
       <c r="T239" s="8"/>
-      <c r="U239" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="U239" s="8"/>
       <c r="V239" s="35"/>
     </row>
     <row r="240" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F4422-4BEA-4779-9749-7983C631008B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE6F50D-F542-49A5-9A8F-63264AEC9ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6666" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6665" uniqueCount="1721">
   <si>
     <t>Passage</t>
   </si>
@@ -4098,9 +4098,6 @@
     <t>yatkA#maq itiq yat - kAqmaqH</t>
   </si>
   <si>
-    <t>eqte iti# eqte</t>
-  </si>
-  <si>
     <t>SaqtaqruqdrIyaqmiti# Sata - ruqdrIya$m</t>
   </si>
   <si>
@@ -5191,6 +5188,9 @@
   </si>
   <si>
     <t>jAqtaqveqdaqH</t>
+  </si>
+  <si>
+    <t>eqte ityeqte</t>
   </si>
 </sst>
 </file>
@@ -5843,10 +5843,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U239" sqref="U239"/>
+      <selection pane="bottomLeft" activeCell="U553" sqref="U553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6483,7 +6483,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>78</v>
@@ -11932,7 +11932,7 @@
       <c r="T149" s="8"/>
       <c r="U149" s="8"/>
       <c r="V149" s="35" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="150" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12104,7 +12104,7 @@
         <v>119</v>
       </c>
       <c r="T154" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="U154" s="8"/>
       <c r="V154" s="35"/>
@@ -12200,7 +12200,7 @@
         <v>8</v>
       </c>
       <c r="N157" s="35" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="O157" s="8" t="s">
         <v>78</v>
@@ -12214,7 +12214,7 @@
       <c r="T157" s="8"/>
       <c r="U157" s="8"/>
       <c r="V157" s="35" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="158" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12518,7 +12518,7 @@
         <v>17</v>
       </c>
       <c r="N166" s="35" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="O166" s="7"/>
       <c r="P166" s="8" t="s">
@@ -12530,7 +12530,7 @@
       <c r="T166" s="8"/>
       <c r="U166" s="8"/>
       <c r="V166" s="35" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="167" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13227,7 +13227,7 @@
         <v>36</v>
       </c>
       <c r="N185" s="35" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="O185" s="7"/>
       <c r="P185" s="8" t="s">
@@ -13239,7 +13239,7 @@
       <c r="T185" s="8"/>
       <c r="U185" s="8"/>
       <c r="V185" s="35" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="186" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13445,7 +13445,7 @@
         <v>42</v>
       </c>
       <c r="N191" s="35" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="O191" s="8" t="s">
         <v>78</v>
@@ -13459,7 +13459,7 @@
       <c r="T191" s="8"/>
       <c r="U191" s="8"/>
       <c r="V191" s="35" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="192" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13699,7 +13699,7 @@
         <v>49</v>
       </c>
       <c r="N198" s="35" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="O198" s="7"/>
       <c r="P198" s="8" t="s">
@@ -13711,7 +13711,7 @@
       <c r="T198" s="8"/>
       <c r="U198" s="8"/>
       <c r="V198" s="35" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="199" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14933,7 +14933,7 @@
         <v>83</v>
       </c>
       <c r="N232" s="36" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="O232" s="8" t="s">
         <v>78</v>
@@ -15107,7 +15107,7 @@
         <v>88</v>
       </c>
       <c r="N237" s="35" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="O237" s="7"/>
       <c r="P237" s="8" t="s">
@@ -15119,7 +15119,7 @@
       <c r="T237" s="8"/>
       <c r="U237" s="8"/>
       <c r="V237" s="35" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="238" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15387,7 +15387,7 @@
         <v>96</v>
       </c>
       <c r="N245" s="35" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="O245" s="7"/>
       <c r="P245" s="8" t="s">
@@ -15399,7 +15399,7 @@
       <c r="T245" s="8"/>
       <c r="U245" s="8"/>
       <c r="V245" s="35" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="246" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15805,7 +15805,7 @@
         <v>108</v>
       </c>
       <c r="N257" s="36" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="O257" s="8" t="s">
         <v>78</v>
@@ -16419,7 +16419,7 @@
         <v>125</v>
       </c>
       <c r="N274" s="35" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="O274" s="8" t="s">
         <v>78</v>
@@ -16433,7 +16433,7 @@
       <c r="T274" s="8"/>
       <c r="U274" s="8"/>
       <c r="V274" s="35" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="275" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16795,7 +16795,7 @@
         <v>135</v>
       </c>
       <c r="N284" s="35" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="O284" s="7"/>
       <c r="P284" s="8" t="s">
@@ -16807,7 +16807,7 @@
       <c r="T284" s="8"/>
       <c r="U284" s="8"/>
       <c r="V284" s="35" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="285" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17050,7 +17050,7 @@
         <v>142</v>
       </c>
       <c r="N291" s="35" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="O291" s="8" t="s">
         <v>78</v>
@@ -17064,7 +17064,7 @@
       <c r="T291" s="8"/>
       <c r="U291" s="8"/>
       <c r="V291" s="35" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="292" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17479,7 +17479,7 @@
         <v>154</v>
       </c>
       <c r="N303" s="35" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="O303" s="7"/>
       <c r="P303" s="8" t="s">
@@ -17491,7 +17491,7 @@
       <c r="T303" s="8"/>
       <c r="U303" s="8"/>
       <c r="V303" s="35" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="304" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17823,7 +17823,7 @@
         <v>164</v>
       </c>
       <c r="N313" s="35" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="O313" s="7"/>
       <c r="P313" s="8" t="s">
@@ -17837,7 +17837,7 @@
         <v>129</v>
       </c>
       <c r="V313" s="35" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="314" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18087,7 +18087,7 @@
       <c r="T320" s="8"/>
       <c r="U320" s="8"/>
       <c r="V320" s="35" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="321" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18297,7 +18297,7 @@
         <v>177</v>
       </c>
       <c r="N326" s="35" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="O326" s="7"/>
       <c r="P326" s="8" t="s">
@@ -18309,7 +18309,7 @@
       <c r="T326" s="8"/>
       <c r="U326" s="8"/>
       <c r="V326" s="35" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="327" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18589,7 +18589,7 @@
       <c r="T334" s="8"/>
       <c r="U334" s="8"/>
       <c r="V334" s="35" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="335" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18971,7 +18971,7 @@
       <c r="T345" s="8"/>
       <c r="U345" s="8"/>
       <c r="V345" s="35" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="346" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19313,7 +19313,7 @@
         <v>206</v>
       </c>
       <c r="N355" s="35" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="O355" s="7"/>
       <c r="P355" s="8" t="s">
@@ -19325,7 +19325,7 @@
       <c r="T355" s="8"/>
       <c r="U355" s="8"/>
       <c r="V355" s="35" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="356" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20383,10 +20383,10 @@
       <c r="Q385" s="8"/>
       <c r="R385" s="8"/>
       <c r="S385" s="8" t="s">
+        <v>1682</v>
+      </c>
+      <c r="T385" s="8" t="s">
         <v>1683</v>
-      </c>
-      <c r="T385" s="8" t="s">
-        <v>1684</v>
       </c>
       <c r="U385" s="8"/>
       <c r="V385" s="35"/>
@@ -21071,7 +21071,7 @@
         <v>255</v>
       </c>
       <c r="N404" s="36" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="O404" s="8" t="s">
         <v>78</v>
@@ -21771,7 +21771,7 @@
         <v>275</v>
       </c>
       <c r="N424" s="35" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="O424" s="8" t="s">
         <v>78</v>
@@ -21785,7 +21785,7 @@
       <c r="T424" s="8"/>
       <c r="U424" s="8"/>
       <c r="V424" s="35" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="425" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22021,7 +22021,7 @@
         <v>7</v>
       </c>
       <c r="N431" s="35" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="O431" s="8" t="s">
         <v>78</v>
@@ -22035,7 +22035,7 @@
       <c r="T431" s="8"/>
       <c r="U431" s="8"/>
       <c r="V431" s="35" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="432" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22449,7 +22449,7 @@
         <v>19</v>
       </c>
       <c r="N443" s="35" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="O443" s="7"/>
       <c r="P443" s="8" t="s">
@@ -22461,7 +22461,7 @@
       <c r="T443" s="8"/>
       <c r="U443" s="8"/>
       <c r="V443" s="35" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="444" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22783,7 +22783,7 @@
         <v>106</v>
       </c>
       <c r="T452" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="U452" s="8"/>
       <c r="V452" s="35"/>
@@ -24020,7 +24020,7 @@
         <v>63</v>
       </c>
       <c r="N487" s="35" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="O487" s="7"/>
       <c r="P487" s="8" t="s">
@@ -24032,7 +24032,7 @@
       <c r="T487" s="8"/>
       <c r="U487" s="8"/>
       <c r="V487" s="35" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="488" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24162,7 +24162,7 @@
         <v>67</v>
       </c>
       <c r="N491" s="35" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="O491" s="7"/>
       <c r="P491" s="8" t="s">
@@ -24174,7 +24174,7 @@
       <c r="T491" s="8"/>
       <c r="U491" s="8"/>
       <c r="V491" s="35" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="492" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25964,8 +25964,8 @@
       <c r="S542" s="8"/>
       <c r="T542" s="8"/>
       <c r="U542" s="8"/>
-      <c r="V542" s="35" t="s">
-        <v>1356</v>
+      <c r="V542" s="36" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="543" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26207,7 +26207,7 @@
       <c r="T549" s="8"/>
       <c r="U549" s="8"/>
       <c r="V549" s="35" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="550" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26343,9 +26343,7 @@
       <c r="R553" s="8"/>
       <c r="S553" s="8"/>
       <c r="T553" s="8"/>
-      <c r="U553" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="U553" s="8"/>
       <c r="V553" s="35"/>
     </row>
     <row r="554" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27100,7 +27098,7 @@
       <c r="T575" s="8"/>
       <c r="U575" s="8"/>
       <c r="V575" s="35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="576" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27344,7 +27342,7 @@
       <c r="T582" s="8"/>
       <c r="U582" s="8"/>
       <c r="V582" s="35" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="583" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27380,7 +27378,7 @@
         <v>106</v>
       </c>
       <c r="T583" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="U583" s="8"/>
       <c r="V583" s="35"/>
@@ -27408,7 +27406,7 @@
         <v>160</v>
       </c>
       <c r="N584" s="35" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="O584" s="8" t="s">
         <v>78</v>
@@ -27420,7 +27418,7 @@
       <c r="T584" s="8"/>
       <c r="U584" s="8"/>
       <c r="V584" s="35" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="585" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28308,10 +28306,10 @@
       <c r="Q610" s="8"/>
       <c r="R610" s="8"/>
       <c r="S610" s="8" t="s">
+        <v>1686</v>
+      </c>
+      <c r="T610" s="8" t="s">
         <v>1687</v>
-      </c>
-      <c r="T610" s="8" t="s">
-        <v>1688</v>
       </c>
       <c r="U610" s="8"/>
       <c r="V610" s="35"/>
@@ -28627,7 +28625,7 @@
     </row>
     <row r="620" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A620" s="8" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B620" s="45"/>
       <c r="D620" s="17"/>
@@ -28662,7 +28660,7 @@
       <c r="T620" s="8"/>
       <c r="U620" s="8"/>
       <c r="V620" s="35" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="621" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29060,7 +29058,7 @@
       <c r="T631" s="14"/>
       <c r="U631" s="14"/>
       <c r="V631" s="35" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="632" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29086,7 +29084,7 @@
         <v>208</v>
       </c>
       <c r="N632" s="36" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="O632" s="8" t="s">
         <v>78</v>
@@ -29098,7 +29096,7 @@
       <c r="T632" s="8"/>
       <c r="U632" s="8"/>
       <c r="V632" s="36" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="633" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29724,7 +29722,7 @@
       <c r="T650" s="8"/>
       <c r="U650" s="8"/>
       <c r="V650" s="35" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="651" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29763,7 +29761,7 @@
       <c r="T651" s="8"/>
       <c r="U651" s="8"/>
       <c r="V651" s="36" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="652" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29985,7 +29983,7 @@
       <c r="T657" s="8"/>
       <c r="U657" s="8"/>
       <c r="V657" s="35" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="658" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30419,7 +30417,7 @@
       <c r="S670" s="8"/>
       <c r="T670" s="8"/>
       <c r="V670" s="35" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="671" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30542,7 +30540,7 @@
       <c r="S674" s="8"/>
       <c r="T674" s="8"/>
       <c r="V674" s="35" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="675" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30728,7 +30726,7 @@
       <c r="S680" s="8"/>
       <c r="T680" s="8"/>
       <c r="V680" s="35" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="681" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31488,7 +31486,7 @@
       <c r="S705" s="8"/>
       <c r="T705" s="8"/>
       <c r="V705" s="35" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="706" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31559,7 +31557,7 @@
     </row>
     <row r="708" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A708" s="8" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G708" s="46" t="s">
         <v>152</v>
@@ -31598,7 +31596,7 @@
     </row>
     <row r="709" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A709" s="8" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G709" s="46" t="s">
         <v>152</v>
@@ -31672,7 +31670,7 @@
       <c r="S710" s="8"/>
       <c r="T710" s="8"/>
       <c r="V710" s="35" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="711" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32445,7 +32443,7 @@
       <c r="S735" s="8"/>
       <c r="T735" s="8"/>
       <c r="V735" s="35" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="736" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32482,7 +32480,7 @@
       <c r="S736" s="8"/>
       <c r="T736" s="8"/>
       <c r="V736" s="35" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="737" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32587,7 +32585,7 @@
       <c r="S739" s="8"/>
       <c r="T739" s="8"/>
       <c r="V739" s="35" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="740" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32711,7 +32709,7 @@
       <c r="S743" s="8"/>
       <c r="T743" s="8"/>
       <c r="V743" s="35" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="744" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32775,7 +32773,7 @@
       <c r="S745" s="8"/>
       <c r="T745" s="8"/>
       <c r="V745" s="35" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="746" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32798,7 +32796,7 @@
         <v>322</v>
       </c>
       <c r="N746" s="35" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="O746" s="7"/>
       <c r="P746" s="8" t="s">
@@ -32812,7 +32810,7 @@
         <v>129</v>
       </c>
       <c r="V746" s="35" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="747" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33077,7 +33075,7 @@
         <v>331</v>
       </c>
       <c r="N755" s="35" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="O755" s="8" t="s">
         <v>78</v>
@@ -33090,7 +33088,7 @@
       <c r="S755" s="8"/>
       <c r="T755" s="8"/>
       <c r="V755" s="35" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="756" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33453,7 +33451,7 @@
         <v>343</v>
       </c>
       <c r="N767" s="35" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="O767" s="7"/>
       <c r="P767" s="8" t="s">
@@ -33464,7 +33462,7 @@
       <c r="S767" s="8"/>
       <c r="T767" s="8"/>
       <c r="V767" s="35" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="768" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33528,7 +33526,7 @@
       <c r="S769" s="8"/>
       <c r="T769" s="8"/>
       <c r="V769" s="35" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="770" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33623,7 +33621,7 @@
       <c r="S772" s="8"/>
       <c r="T772" s="8"/>
       <c r="V772" s="35" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="773" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33710,7 +33708,7 @@
         <v>351</v>
       </c>
       <c r="N775" s="36" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="O775" s="8" t="s">
         <v>78</v>
@@ -33723,7 +33721,7 @@
       <c r="S775" s="8"/>
       <c r="T775" s="8"/>
       <c r="V775" s="35" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="776" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33817,7 +33815,7 @@
       <c r="S778" s="8"/>
       <c r="T778" s="8"/>
       <c r="V778" s="35" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="779" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34024,7 +34022,7 @@
         <v>361</v>
       </c>
       <c r="N785" s="35" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="O785" s="7"/>
       <c r="P785" s="8" t="s">
@@ -34035,7 +34033,7 @@
       <c r="S785" s="8"/>
       <c r="T785" s="8"/>
       <c r="V785" s="35" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="786" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34072,7 +34070,7 @@
       <c r="S786" s="8"/>
       <c r="T786" s="8"/>
       <c r="V786" s="35" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="787" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34339,7 +34337,7 @@
       <c r="S794" s="8"/>
       <c r="T794" s="8"/>
       <c r="V794" s="35" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="795" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34392,7 +34390,7 @@
         <v>372</v>
       </c>
       <c r="N796" s="35" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="O796" s="7"/>
       <c r="P796" s="8" t="s">
@@ -34406,7 +34404,7 @@
         <v>129</v>
       </c>
       <c r="V796" s="35" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="797" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34470,7 +34468,7 @@
       <c r="S798" s="8"/>
       <c r="T798" s="8"/>
       <c r="V798" s="35" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="799" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34715,7 +34713,7 @@
         <v>382</v>
       </c>
       <c r="N806" s="35" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="O806" s="7"/>
       <c r="P806" s="8" t="s">
@@ -34726,7 +34724,7 @@
       <c r="S806" s="8"/>
       <c r="T806" s="8"/>
       <c r="V806" s="35" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="807" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34760,7 +34758,7 @@
       <c r="S807" s="8"/>
       <c r="T807" s="8"/>
       <c r="V807" s="35" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="808" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35006,7 +35004,7 @@
       <c r="S815" s="8"/>
       <c r="T815" s="8"/>
       <c r="V815" s="35" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="816" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35341,7 +35339,7 @@
     </row>
     <row r="827" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A827" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="I827" s="38" t="s">
         <v>35</v>
@@ -35362,7 +35360,7 @@
         <v>403</v>
       </c>
       <c r="N827" s="35" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="O827" s="7"/>
       <c r="P827" s="8" t="s">
@@ -35373,7 +35371,7 @@
       <c r="S827" s="8"/>
       <c r="T827" s="8"/>
       <c r="V827" s="35" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="828" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35765,7 +35763,7 @@
       <c r="S840" s="8"/>
       <c r="T840" s="8"/>
       <c r="V840" s="35" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="841" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35829,7 +35827,7 @@
       <c r="S842" s="8"/>
       <c r="T842" s="8"/>
       <c r="V842" s="35" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="843" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35925,7 +35923,7 @@
         <v>163</v>
       </c>
       <c r="T845" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="V845" s="35"/>
     </row>
@@ -36113,7 +36111,7 @@
         <v>119</v>
       </c>
       <c r="T851" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="V851" s="35"/>
     </row>
@@ -36148,7 +36146,7 @@
       <c r="S852" s="8"/>
       <c r="T852" s="8"/>
       <c r="V852" s="35" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="853" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36662,7 +36660,7 @@
       <c r="S869" s="8"/>
       <c r="T869" s="8"/>
       <c r="V869" s="35" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="870" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37634,7 +37632,7 @@
         <v>119</v>
       </c>
       <c r="T901" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V901" s="35"/>
     </row>
@@ -37762,7 +37760,7 @@
         <v>119</v>
       </c>
       <c r="T905" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="V905" s="35"/>
     </row>
@@ -37892,7 +37890,7 @@
         <v>119</v>
       </c>
       <c r="T909" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="V909" s="35"/>
     </row>
@@ -38019,7 +38017,7 @@
         <v>119</v>
       </c>
       <c r="T913" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="V913" s="35"/>
     </row>
@@ -38143,7 +38141,7 @@
         <v>119</v>
       </c>
       <c r="T917" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="V917" s="35"/>
     </row>
@@ -38477,7 +38475,7 @@
       <c r="S928" s="8"/>
       <c r="T928" s="8"/>
       <c r="V928" s="35" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="929" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38635,7 +38633,7 @@
       <c r="S933" s="8"/>
       <c r="T933" s="8"/>
       <c r="V933" s="35" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="934" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38859,10 +38857,10 @@
       <c r="Q940" s="8"/>
       <c r="R940" s="8"/>
       <c r="S940" s="8" t="s">
+        <v>1692</v>
+      </c>
+      <c r="T940" s="8" t="s">
         <v>1693</v>
-      </c>
-      <c r="T940" s="8" t="s">
-        <v>1694</v>
       </c>
       <c r="V940" s="35"/>
     </row>
@@ -38936,7 +38934,7 @@
       <c r="S942" s="8"/>
       <c r="T942" s="8"/>
       <c r="V942" s="35" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="943" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39669,7 +39667,7 @@
       <c r="S966" s="8"/>
       <c r="T966" s="8"/>
       <c r="V966" s="35" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="967" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40490,7 +40488,7 @@
       <c r="S992" s="8"/>
       <c r="T992" s="8"/>
       <c r="V992" s="35" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="993" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40948,7 +40946,7 @@
       <c r="S1006" s="8"/>
       <c r="T1006" s="8"/>
       <c r="V1006" s="35" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1007" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41244,7 +41242,7 @@
       <c r="S1015" s="8"/>
       <c r="T1015" s="8"/>
       <c r="V1015" s="35" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1016" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41466,7 +41464,7 @@
       <c r="S1022" s="8"/>
       <c r="T1022" s="8"/>
       <c r="V1022" s="35" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1023" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41746,7 +41744,7 @@
       <c r="S1031" s="8"/>
       <c r="T1031" s="8"/>
       <c r="V1031" s="35" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1032" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42178,7 +42176,7 @@
       <c r="S1045" s="8"/>
       <c r="T1045" s="8"/>
       <c r="V1045" s="35" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1046" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43079,7 +43077,7 @@
       <c r="S1074" s="8"/>
       <c r="T1074" s="8"/>
       <c r="V1074" s="35" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1075" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43514,7 +43512,7 @@
       <c r="S1088" s="8"/>
       <c r="T1088" s="8"/>
       <c r="V1088" s="35" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1089" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44321,7 +44319,7 @@
       <c r="S1114" s="8"/>
       <c r="T1114" s="8"/>
       <c r="V1114" s="35" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1115" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44385,7 +44383,7 @@
       <c r="S1116" s="8"/>
       <c r="T1116" s="8"/>
       <c r="V1116" s="35" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1117" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44510,7 +44508,7 @@
       <c r="S1120" s="8"/>
       <c r="T1120" s="8"/>
       <c r="V1120" s="35" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1121" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44545,7 +44543,7 @@
       <c r="S1121" s="8"/>
       <c r="T1121" s="8"/>
       <c r="V1121" s="35" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1122" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44613,7 +44611,7 @@
       <c r="S1123" s="8"/>
       <c r="T1123" s="8"/>
       <c r="V1123" s="35" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1124" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44650,7 +44648,7 @@
       <c r="S1124" s="8"/>
       <c r="T1124" s="8"/>
       <c r="V1124" s="35" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1125" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44687,7 +44685,7 @@
       <c r="S1125" s="8"/>
       <c r="T1125" s="8"/>
       <c r="V1125" s="35" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1126" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44821,7 +44819,7 @@
         <v>106</v>
       </c>
       <c r="T1129" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="V1129" s="35"/>
     </row>
@@ -45157,7 +45155,7 @@
       <c r="S1139" s="8"/>
       <c r="T1139" s="8"/>
       <c r="V1139" s="35" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1140" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45322,7 +45320,7 @@
         <v>106</v>
       </c>
       <c r="T1144" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="V1144" s="35"/>
     </row>
@@ -45390,12 +45388,12 @@
       <c r="S1146" s="8"/>
       <c r="T1146" s="8"/>
       <c r="V1146" s="35" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1147" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1147" s="55" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H1147" s="42" t="s">
         <v>108</v>
@@ -45419,7 +45417,7 @@
         <v>320</v>
       </c>
       <c r="N1147" s="56" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="O1147" s="8" t="s">
         <v>78</v>
@@ -45430,7 +45428,7 @@
       <c r="S1147" s="8"/>
       <c r="T1147" s="8"/>
       <c r="V1147" s="35" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1148" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45496,7 +45494,7 @@
       <c r="S1149" s="8"/>
       <c r="T1149" s="8"/>
       <c r="V1149" s="35" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1150" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46193,7 +46191,7 @@
     </row>
     <row r="1172" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1172" s="8" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="I1172" s="38" t="s">
         <v>42</v>
@@ -46225,7 +46223,7 @@
       <c r="S1172" s="8"/>
       <c r="T1172" s="8"/>
       <c r="V1172" s="35" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1173" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46377,7 +46375,7 @@
       <c r="S1177" s="8"/>
       <c r="T1177" s="8"/>
       <c r="V1177" s="35" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1178" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47353,7 +47351,7 @@
       <c r="S1209" s="8"/>
       <c r="T1209" s="8"/>
       <c r="V1209" s="35" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1210" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47477,7 +47475,7 @@
       <c r="S1213" s="8"/>
       <c r="T1213" s="8"/>
       <c r="V1213" s="35" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1214" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48174,7 +48172,7 @@
         <v>119</v>
       </c>
       <c r="T1236" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="V1236" s="35"/>
     </row>
@@ -48238,7 +48236,7 @@
         <v>119</v>
       </c>
       <c r="T1238" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V1238" s="35"/>
     </row>
@@ -48663,7 +48661,7 @@
       <c r="S1252" s="8"/>
       <c r="T1252" s="8"/>
       <c r="V1252" s="35" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1253" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48851,7 +48849,7 @@
       <c r="S1258" s="8"/>
       <c r="T1258" s="8"/>
       <c r="V1258" s="35" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1259" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48885,7 +48883,7 @@
       <c r="S1259" s="8"/>
       <c r="T1259" s="8"/>
       <c r="V1259" s="35" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1260" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48919,7 +48917,7 @@
       <c r="S1260" s="8"/>
       <c r="T1260" s="8"/>
       <c r="V1260" s="35" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1261" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48953,7 +48951,7 @@
       <c r="S1261" s="8"/>
       <c r="T1261" s="8"/>
       <c r="V1261" s="35" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1262" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49139,7 +49137,7 @@
       <c r="S1267" s="8"/>
       <c r="T1267" s="8"/>
       <c r="V1267" s="35" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1268" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49268,7 +49266,7 @@
       <c r="S1271" s="8"/>
       <c r="T1271" s="8"/>
       <c r="V1271" s="35" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1272" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49302,7 +49300,7 @@
       <c r="S1272" s="8"/>
       <c r="T1272" s="8"/>
       <c r="V1272" s="35" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1273" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49335,7 +49333,7 @@
       <c r="S1273" s="8"/>
       <c r="T1273" s="8"/>
       <c r="V1273" s="35" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1274" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49905,7 +49903,7 @@
       <c r="S1291" s="8"/>
       <c r="T1291" s="8"/>
       <c r="U1291" s="8" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="V1291" s="35"/>
     </row>
@@ -50009,7 +50007,7 @@
       <c r="S1294" s="8"/>
       <c r="T1294" s="8"/>
       <c r="V1294" s="35" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1295" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50073,7 +50071,7 @@
       <c r="S1296" s="8"/>
       <c r="T1296" s="8"/>
       <c r="V1296" s="35" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1297" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50096,7 +50094,7 @@
         <v>125</v>
       </c>
       <c r="N1297" s="35" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O1297" s="8" t="s">
         <v>78</v>
@@ -50109,7 +50107,7 @@
       <c r="S1297" s="8"/>
       <c r="T1297" s="8"/>
       <c r="V1297" s="35" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1298" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50286,7 +50284,7 @@
         <v>131</v>
       </c>
       <c r="N1303" s="35" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="O1303" s="7"/>
       <c r="P1303" s="8" t="s">
@@ -50297,7 +50295,7 @@
       <c r="S1303" s="8"/>
       <c r="T1303" s="8"/>
       <c r="V1303" s="35" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1304" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50582,7 +50580,7 @@
       <c r="S1312" s="8"/>
       <c r="T1312" s="8"/>
       <c r="V1312" s="35" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1313" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50617,7 +50615,7 @@
       <c r="S1313" s="8"/>
       <c r="T1313" s="8"/>
       <c r="V1313" s="35" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1314" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50796,7 +50794,7 @@
         <v>147</v>
       </c>
       <c r="N1319" s="35" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="O1319" s="7"/>
       <c r="P1319" s="8" t="s">
@@ -50807,7 +50805,7 @@
       <c r="S1319" s="8"/>
       <c r="T1319" s="8"/>
       <c r="V1319" s="35" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1320" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50997,7 +50995,7 @@
       <c r="S1325" s="8"/>
       <c r="T1325" s="8"/>
       <c r="V1325" s="35" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1326" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51058,7 +51056,7 @@
         <v>155</v>
       </c>
       <c r="N1327" s="35" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="O1327" s="8"/>
       <c r="P1327" s="8" t="s">
@@ -51069,7 +51067,7 @@
       <c r="S1327" s="8"/>
       <c r="T1327" s="8"/>
       <c r="V1327" s="35" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1328" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51306,7 +51304,7 @@
       <c r="S1334" s="8"/>
       <c r="T1334" s="8"/>
       <c r="V1334" s="35" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1335" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52123,7 +52121,7 @@
       <c r="S1360" s="8"/>
       <c r="T1360" s="8"/>
       <c r="V1360" s="35" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1361" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52267,7 +52265,7 @@
       <c r="S1364" s="8"/>
       <c r="T1364" s="8"/>
       <c r="V1364" s="35" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1365" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52775,7 +52773,7 @@
       <c r="S1380" s="8"/>
       <c r="T1380" s="8"/>
       <c r="V1380" s="35" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1381" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53340,7 +53338,7 @@
       <c r="S1398" s="8"/>
       <c r="T1398" s="8"/>
       <c r="V1398" s="35" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1399" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53375,7 +53373,7 @@
       <c r="S1399" s="8"/>
       <c r="T1399" s="8"/>
       <c r="V1399" s="35" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1400" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53473,7 +53471,7 @@
       <c r="S1402" s="8"/>
       <c r="T1402" s="8"/>
       <c r="V1402" s="36" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1403" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53763,7 +53761,7 @@
       <c r="S1411" s="8"/>
       <c r="T1411" s="8"/>
       <c r="V1411" s="35" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1412" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53835,7 +53833,7 @@
       <c r="S1413" s="8"/>
       <c r="T1413" s="8"/>
       <c r="V1413" s="35" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1414" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54163,7 +54161,7 @@
       <c r="S1423" s="8"/>
       <c r="T1423" s="8"/>
       <c r="V1423" s="35" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1424" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54477,7 +54475,7 @@
       <c r="S1433" s="8"/>
       <c r="T1433" s="8"/>
       <c r="V1433" s="35" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1434" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54605,7 +54603,7 @@
       <c r="S1437" s="8"/>
       <c r="T1437" s="8"/>
       <c r="V1437" s="35" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1438" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54671,7 +54669,7 @@
       <c r="S1439" s="8"/>
       <c r="T1439" s="8"/>
       <c r="V1439" s="35" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1440" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54737,7 +54735,7 @@
       <c r="S1441" s="8"/>
       <c r="T1441" s="8"/>
       <c r="V1441" s="35" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1442" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54896,7 +54894,7 @@
       <c r="S1446" s="8"/>
       <c r="T1446" s="8"/>
       <c r="V1446" s="35" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1447" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55024,7 +55022,7 @@
       <c r="S1450" s="8"/>
       <c r="T1450" s="8"/>
       <c r="V1450" s="35" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1451" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55351,7 +55349,7 @@
       <c r="S1460" s="11"/>
       <c r="T1460" s="11"/>
       <c r="V1460" s="35" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1461" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55796,7 +55794,7 @@
     </row>
     <row r="1475" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1475" s="8" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C1475" s="30"/>
       <c r="H1475" s="26"/>
@@ -55830,7 +55828,7 @@
       <c r="S1475" s="8"/>
       <c r="T1475" s="8"/>
       <c r="V1475" s="35" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1476" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55896,7 +55894,7 @@
       <c r="S1477" s="8"/>
       <c r="T1477" s="8"/>
       <c r="V1477" s="35" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1478" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55932,7 +55930,7 @@
       <c r="S1478" s="8"/>
       <c r="T1478" s="8"/>
       <c r="V1478" s="35" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1479" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56094,7 +56092,7 @@
       <c r="S1483" s="8"/>
       <c r="T1483" s="8"/>
       <c r="V1483" s="35" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1484" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56160,7 +56158,7 @@
       <c r="S1485" s="8"/>
       <c r="T1485" s="8"/>
       <c r="V1485" s="35" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1486" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56224,10 +56222,10 @@
       <c r="Q1487" s="8"/>
       <c r="R1487" s="8"/>
       <c r="S1487" s="8" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="T1487" s="8" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="V1487" s="35"/>
     </row>
@@ -56327,7 +56325,7 @@
       <c r="S1490" s="8"/>
       <c r="T1490" s="8"/>
       <c r="V1490" s="35" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1491" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56455,7 +56453,7 @@
       <c r="S1494" s="8"/>
       <c r="T1494" s="8"/>
       <c r="V1494" s="35" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1495" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56510,7 +56508,7 @@
         <v>21</v>
       </c>
       <c r="N1496" s="35" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="O1496" s="7"/>
       <c r="P1496" s="8" t="s">
@@ -56521,7 +56519,7 @@
       <c r="S1496" s="8"/>
       <c r="T1496" s="8"/>
       <c r="V1496" s="35" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1497" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56593,7 +56591,7 @@
       <c r="S1498" s="8"/>
       <c r="T1498" s="8"/>
       <c r="V1498" s="35" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1499" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56797,7 +56795,7 @@
       <c r="S1504" s="8"/>
       <c r="T1504" s="8"/>
       <c r="V1504" s="35" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1505" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56821,7 +56819,7 @@
         <v>30</v>
       </c>
       <c r="N1505" s="35" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="O1505" s="8" t="s">
         <v>78</v>
@@ -56834,7 +56832,7 @@
       <c r="S1505" s="8"/>
       <c r="T1505" s="8"/>
       <c r="V1505" s="35" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1506" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56869,7 +56867,7 @@
       <c r="S1506" s="8"/>
       <c r="T1506" s="8"/>
       <c r="V1506" s="35" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1507" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56904,7 +56902,7 @@
       <c r="S1507" s="8"/>
       <c r="T1507" s="8"/>
       <c r="V1507" s="35" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1508" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57119,7 +57117,7 @@
         <v>39</v>
       </c>
       <c r="N1514" s="35" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="O1514" s="8" t="s">
         <v>78</v>
@@ -57132,7 +57130,7 @@
       <c r="S1514" s="8"/>
       <c r="T1514" s="8"/>
       <c r="V1514" s="35" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1515" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57251,7 +57249,7 @@
         <v>43</v>
       </c>
       <c r="N1518" s="35" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="O1518" s="8" t="s">
         <v>78</v>
@@ -57262,7 +57260,7 @@
       <c r="S1518" s="8"/>
       <c r="T1518" s="8"/>
       <c r="V1518" s="35" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1519" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57328,7 +57326,7 @@
       <c r="S1520" s="8"/>
       <c r="T1520" s="8"/>
       <c r="V1520" s="35" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1521" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57425,7 +57423,7 @@
       <c r="S1523" s="8"/>
       <c r="T1523" s="8"/>
       <c r="V1523" s="35" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1524" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57491,7 +57489,7 @@
       <c r="S1525" s="8"/>
       <c r="T1525" s="8"/>
       <c r="V1525" s="35" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1526" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57525,7 +57523,7 @@
       <c r="S1526" s="8"/>
       <c r="T1526" s="8"/>
       <c r="V1526" s="35" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1527" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57560,7 +57558,7 @@
       <c r="S1527" s="8"/>
       <c r="T1527" s="8"/>
       <c r="V1527" s="35" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1528" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57595,7 +57593,7 @@
       <c r="S1528" s="8"/>
       <c r="T1528" s="8"/>
       <c r="V1528" s="35" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1529" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57704,7 +57702,7 @@
       <c r="S1531" s="8"/>
       <c r="T1531" s="8"/>
       <c r="V1531" s="35" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1532" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58018,7 +58016,7 @@
       <c r="S1541" s="8"/>
       <c r="T1541" s="8"/>
       <c r="V1541" s="35" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1542" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58041,7 +58039,7 @@
         <v>67</v>
       </c>
       <c r="N1542" s="35" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="O1542" s="7"/>
       <c r="P1542" s="8" t="s">
@@ -58052,7 +58050,7 @@
       <c r="S1542" s="8"/>
       <c r="T1542" s="8"/>
       <c r="V1542" s="35" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1543" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58137,7 +58135,7 @@
       <c r="S1544" s="8"/>
       <c r="T1544" s="8"/>
       <c r="V1544" s="35" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1545" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58212,7 +58210,7 @@
       <c r="S1546" s="8"/>
       <c r="T1546" s="8"/>
       <c r="V1546" s="35" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1547" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58355,7 +58353,7 @@
         <v>76</v>
       </c>
       <c r="N1551" s="35" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="O1551" s="7"/>
       <c r="P1551" s="8" t="s">
@@ -58366,7 +58364,7 @@
       <c r="S1551" s="8"/>
       <c r="T1551" s="8"/>
       <c r="V1551" s="35" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1552" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58400,7 +58398,7 @@
       <c r="S1552" s="8"/>
       <c r="T1552" s="8"/>
       <c r="V1552" s="35" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1553" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58434,7 +58432,7 @@
       <c r="S1553" s="8"/>
       <c r="T1553" s="8"/>
       <c r="V1553" s="35" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1554" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58547,7 +58545,7 @@
         <v>82</v>
       </c>
       <c r="N1557" s="35" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="O1557" s="7"/>
       <c r="P1557" s="8" t="s">
@@ -58558,7 +58556,7 @@
       <c r="S1557" s="8"/>
       <c r="T1557" s="8"/>
       <c r="V1557" s="35" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1558" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58741,7 +58739,7 @@
         <v>119</v>
       </c>
       <c r="T1563" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V1563" s="35"/>
     </row>
@@ -58795,7 +58793,7 @@
         <v>90</v>
       </c>
       <c r="N1565" s="35" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="O1565" s="7"/>
       <c r="P1565" s="8" t="s">
@@ -58806,7 +58804,7 @@
       <c r="S1565" s="8"/>
       <c r="T1565" s="8"/>
       <c r="V1565" s="35" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1566" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58931,7 +58929,7 @@
       <c r="S1569" s="8"/>
       <c r="T1569" s="8"/>
       <c r="V1569" s="35" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1570" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59085,7 +59083,7 @@
       <c r="S1574" s="8"/>
       <c r="T1574" s="8"/>
       <c r="V1574" s="35" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1575" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59178,7 +59176,7 @@
       <c r="S1577" s="8"/>
       <c r="T1577" s="8"/>
       <c r="V1577" s="35" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1578" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59211,7 +59209,7 @@
         <v>119</v>
       </c>
       <c r="T1578" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V1578" s="35"/>
     </row>
@@ -59289,13 +59287,13 @@
         <v>106</v>
       </c>
       <c r="N1581" s="35" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="P1581" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1581" s="35" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1582" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59477,7 +59475,7 @@
         <v>112</v>
       </c>
       <c r="N1587" s="35" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="O1587" s="8" t="s">
         <v>78</v>
@@ -59486,7 +59484,7 @@
         <v>79</v>
       </c>
       <c r="V1587" s="35" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1588" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59635,7 +59633,7 @@
         <v>119</v>
       </c>
       <c r="T1593" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V1593" s="35"/>
     </row>
@@ -59683,13 +59681,13 @@
         <v>120</v>
       </c>
       <c r="N1595" s="35" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="P1595" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1595" s="35" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1596" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59865,13 +59863,13 @@
         <v>127</v>
       </c>
       <c r="N1602" s="35" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="P1602" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1602" s="35" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1603" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60020,7 +60018,7 @@
         <v>119</v>
       </c>
       <c r="T1608" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V1608" s="35"/>
     </row>
@@ -60068,13 +60066,13 @@
         <v>135</v>
       </c>
       <c r="N1610" s="35" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="P1610" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1610" s="35" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1611" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60160,7 +60158,7 @@
         <v>78</v>
       </c>
       <c r="V1613" s="35" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1614" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60255,7 +60253,7 @@
         <v>142</v>
       </c>
       <c r="N1617" s="35" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="O1617" s="8" t="s">
         <v>78</v>
@@ -60264,7 +60262,7 @@
         <v>79</v>
       </c>
       <c r="V1617" s="35" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1618" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60413,7 +60411,7 @@
         <v>119</v>
       </c>
       <c r="T1623" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V1623" s="35"/>
     </row>
@@ -60461,13 +60459,13 @@
         <v>150</v>
       </c>
       <c r="N1625" s="35" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="P1625" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1625" s="35" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1626" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60544,7 +60542,7 @@
         <v>78</v>
       </c>
       <c r="V1628" s="35" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1629" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60645,7 +60643,7 @@
         <v>79</v>
       </c>
       <c r="V1632" s="35" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1633" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60722,7 +60720,7 @@
         <v>78</v>
       </c>
       <c r="V1635" s="35" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1636" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60751,7 +60749,7 @@
         <v>119</v>
       </c>
       <c r="T1636" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V1636" s="35"/>
     </row>
@@ -60805,7 +60803,7 @@
     </row>
     <row r="1639" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1639" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="I1639" s="38" t="s">
         <v>51</v>
@@ -60826,13 +60824,13 @@
         <v>164</v>
       </c>
       <c r="N1639" s="35" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="P1639" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1639" s="35" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1640" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60934,7 +60932,7 @@
         <v>78</v>
       </c>
       <c r="V1643" s="35" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1644" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61053,13 +61051,13 @@
         <v>9</v>
       </c>
       <c r="N1648" s="36" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="O1648" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1648" s="35" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1649" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61106,7 +61104,7 @@
         <v>11</v>
       </c>
       <c r="N1650" s="35" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="P1650" s="8" t="s">
         <v>79</v>
@@ -61115,7 +61113,7 @@
         <v>129</v>
       </c>
       <c r="V1650" s="35" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1651" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61378,7 +61376,7 @@
         <v>110</v>
       </c>
       <c r="V1660" s="35" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1661" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61407,7 +61405,7 @@
         <v>78</v>
       </c>
       <c r="V1661" s="35" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1662" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61859,7 +61857,7 @@
         <v>78</v>
       </c>
       <c r="V1679" s="35" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1680" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61966,7 +61964,7 @@
         <v>119</v>
       </c>
       <c r="T1683" s="8" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="V1683" s="35"/>
     </row>
@@ -62113,7 +62111,7 @@
         <v>78</v>
       </c>
       <c r="V1688" s="35" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1689" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62306,13 +62304,13 @@
         <v>57</v>
       </c>
       <c r="N1696" s="35" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="O1696" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1696" s="35" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1697" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62812,7 +62810,7 @@
         <v>79</v>
       </c>
       <c r="V1716" s="35" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1717" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62913,7 +62911,7 @@
         <v>78</v>
       </c>
       <c r="V1720" s="35" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1721" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62966,7 +62964,7 @@
         <v>78</v>
       </c>
       <c r="V1722" s="35" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1723" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63022,7 +63020,7 @@
         <v>79</v>
       </c>
       <c r="V1724" s="35" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1725" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63643,7 +63641,7 @@
         <v>78</v>
       </c>
       <c r="V1749" s="35" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1750" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63773,7 +63771,7 @@
         <v>78</v>
       </c>
       <c r="V1754" s="35" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1755" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63826,7 +63824,7 @@
         <v>78</v>
       </c>
       <c r="V1756" s="35" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1757" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63879,7 +63877,7 @@
         <v>78</v>
       </c>
       <c r="V1758" s="35" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1759" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64028,7 +64026,7 @@
         <v>78</v>
       </c>
       <c r="V1764" s="35" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1765" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64129,7 +64127,7 @@
         <v>78</v>
       </c>
       <c r="V1768" s="35" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1769" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64283,7 +64281,7 @@
         <v>78</v>
       </c>
       <c r="V1774" s="35" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1775" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64509,7 +64507,7 @@
         <v>78</v>
       </c>
       <c r="V1783" s="35" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1784" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64929,7 +64927,7 @@
         <v>78</v>
       </c>
       <c r="V1799" s="35" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1800" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65006,7 +65004,7 @@
         <v>78</v>
       </c>
       <c r="V1802" s="35" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1803" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65035,7 +65033,7 @@
         <v>78</v>
       </c>
       <c r="V1803" s="35" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1804" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65064,7 +65062,7 @@
         <v>78</v>
       </c>
       <c r="V1804" s="35" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1805" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65093,7 +65091,7 @@
         <v>79</v>
       </c>
       <c r="V1805" s="35" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1806" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65151,7 +65149,7 @@
     </row>
     <row r="1808" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1808" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="G1808" s="46" t="s">
         <v>153</v>
@@ -65187,7 +65185,7 @@
     </row>
     <row r="1809" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1809" s="8" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="G1809" s="46" t="s">
         <v>153</v>
@@ -65223,7 +65221,7 @@
     </row>
     <row r="1810" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1810" s="8" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="G1810" s="46" t="s">
         <v>153</v>
@@ -65310,7 +65308,7 @@
         <v>78</v>
       </c>
       <c r="V1812" s="35" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1813" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65333,7 +65331,7 @@
         <v>8</v>
       </c>
       <c r="N1813" s="35" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="O1813" s="8" t="s">
         <v>78</v>
@@ -65342,7 +65340,7 @@
         <v>79</v>
       </c>
       <c r="V1813" s="35" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1814" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65562,7 +65560,7 @@
         <v>17</v>
       </c>
       <c r="N1822" s="35" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="O1822" s="8" t="s">
         <v>78</v>
@@ -65571,7 +65569,7 @@
         <v>79</v>
       </c>
       <c r="V1822" s="35" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1823" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65702,7 +65700,7 @@
         <v>78</v>
       </c>
       <c r="V1827" s="35" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1828" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65823,7 +65821,7 @@
         <v>26</v>
       </c>
       <c r="N1831" s="35" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="O1831" s="8" t="s">
         <v>78</v>
@@ -65834,7 +65832,7 @@
       <c r="S1831" s="8"/>
       <c r="T1831" s="8"/>
       <c r="V1831" s="35" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1832" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66079,7 +66077,7 @@
         <v>78</v>
       </c>
       <c r="V1840" s="35" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1841" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66129,13 +66127,13 @@
         <v>37</v>
       </c>
       <c r="N1842" s="35" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="P1842" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V1842" s="35" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1843" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66610,7 +66608,7 @@
     </row>
     <row r="1862" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1862" s="8" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="I1862" s="38" t="s">
         <v>56</v>
@@ -66715,7 +66713,7 @@
         <v>78</v>
       </c>
       <c r="V1865" s="35" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1866" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66840,7 +66838,7 @@
     </row>
     <row r="1871" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1871" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I1871" s="38" t="s">
         <v>56</v>
@@ -66870,7 +66868,7 @@
     </row>
     <row r="1872" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1872" s="8" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="I1872" s="38" t="s">
         <v>56</v>
@@ -67559,7 +67557,7 @@
         <v>78</v>
       </c>
       <c r="V1898" s="35" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1899" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67708,7 +67706,7 @@
         <v>78</v>
       </c>
       <c r="V1904" s="35" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1905" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67737,7 +67735,7 @@
         <v>78</v>
       </c>
       <c r="V1905" s="35" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1906" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68397,7 +68395,7 @@
         <v>78</v>
       </c>
       <c r="V1932" s="35" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1933" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68642,7 +68640,7 @@
         <v>78</v>
       </c>
       <c r="V1942" s="35" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1943" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69107,7 +69105,7 @@
         <v>78</v>
       </c>
       <c r="V1961" s="35" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1962" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69624,7 +69622,7 @@
         <v>78</v>
       </c>
       <c r="V1982" s="35" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1983" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69701,7 +69699,7 @@
         <v>78</v>
       </c>
       <c r="V1985" s="35" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1986" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70072,7 +70070,7 @@
         <v>78</v>
       </c>
       <c r="V2000" s="35" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="2001" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70250,7 +70248,7 @@
         <v>78</v>
       </c>
       <c r="V2007" s="35" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="2008" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70423,7 +70421,7 @@
         <v>78</v>
       </c>
       <c r="V2014" s="35" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="2015" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70820,7 +70818,7 @@
         <v>225</v>
       </c>
       <c r="N2030" s="35" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="O2030" s="8" t="s">
         <v>78</v>
@@ -70829,7 +70827,7 @@
         <v>79</v>
       </c>
       <c r="V2030" s="35" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="2031" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71446,7 +71444,7 @@
         <v>23</v>
       </c>
       <c r="N2053" s="36" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="V2053" s="35"/>
     </row>
@@ -71650,7 +71648,7 @@
         <v>31</v>
       </c>
       <c r="N2061" s="36" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="V2061" s="35"/>
     </row>
@@ -72025,7 +72023,7 @@
         <v>78</v>
       </c>
       <c r="V2076" s="35" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="2077" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72154,7 +72152,7 @@
         <v>78</v>
       </c>
       <c r="V2081" s="35" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="2082" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72255,7 +72253,7 @@
         <v>78</v>
       </c>
       <c r="V2085" s="35" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="2086" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72356,7 +72354,7 @@
         <v>78</v>
       </c>
       <c r="V2089" s="35" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2090" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72409,7 +72407,7 @@
         <v>78</v>
       </c>
       <c r="V2091" s="35" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2092" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72611,10 +72609,10 @@
         <v>989</v>
       </c>
       <c r="S2099" s="8" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="T2099" s="8" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="V2099" s="35"/>
     </row>
@@ -72868,7 +72866,7 @@
         <v>78</v>
       </c>
       <c r="V2109" s="35" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="2110" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72948,7 +72946,7 @@
         <v>78</v>
       </c>
       <c r="V2112" s="35" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="2113" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73265,7 +73263,7 @@
         <v>78</v>
       </c>
       <c r="V2125" s="36" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2126" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73461,7 +73459,7 @@
         <v>78</v>
       </c>
       <c r="V2133" s="35" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="2134" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73514,7 +73512,7 @@
         <v>78</v>
       </c>
       <c r="V2135" s="35" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2136" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74317,7 +74315,7 @@
         <v>78</v>
       </c>
       <c r="V2168" s="35" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="2169" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74613,13 +74611,13 @@
         <v>150</v>
       </c>
       <c r="N2180" s="35" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="P2180" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2180" s="35" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="2181" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74814,7 +74812,7 @@
         <v>78</v>
       </c>
       <c r="V2188" s="35" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="2189" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75035,7 +75033,7 @@
         <v>78</v>
       </c>
       <c r="V2197" s="35" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2198" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75088,7 +75086,7 @@
         <v>78</v>
       </c>
       <c r="V2199" s="35" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2200" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75159,7 +75157,7 @@
         <v>22</v>
       </c>
       <c r="N2202" s="35" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="O2202" s="8" t="s">
         <v>78</v>
@@ -75168,7 +75166,7 @@
         <v>79</v>
       </c>
       <c r="V2202" s="35" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="2203" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75219,7 +75217,7 @@
         <v>78</v>
       </c>
       <c r="V2204" s="35" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2205" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75320,7 +75318,7 @@
         <v>78</v>
       </c>
       <c r="V2208" s="35" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2209" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75352,7 +75350,7 @@
         <v>78</v>
       </c>
       <c r="V2209" s="35" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="2210" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75465,7 +75463,7 @@
         <v>78</v>
       </c>
       <c r="V2213" s="35" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2214" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75521,7 +75519,7 @@
         <v>78</v>
       </c>
       <c r="V2215" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="2216" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75550,7 +75548,7 @@
         <v>78</v>
       </c>
       <c r="V2216" s="35" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2217" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75627,7 +75625,7 @@
         <v>78</v>
       </c>
       <c r="V2219" s="35" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2220" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75656,7 +75654,7 @@
         <v>82</v>
       </c>
       <c r="V2220" s="35" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2221" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75685,7 +75683,7 @@
         <v>78</v>
       </c>
       <c r="V2221" s="35" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="2222" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75714,7 +75712,7 @@
         <v>78</v>
       </c>
       <c r="V2222" s="35" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="2223" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75833,7 +75831,7 @@
         <v>25</v>
       </c>
       <c r="N2227" s="35" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="O2227" s="8" t="s">
         <v>78</v>
@@ -75842,7 +75840,7 @@
         <v>79</v>
       </c>
       <c r="V2227" s="35" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="2228" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76085,7 +76083,7 @@
         <v>78</v>
       </c>
       <c r="V2237" s="35" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="2238" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76186,7 +76184,7 @@
         <v>78</v>
       </c>
       <c r="V2241" s="35" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="2242" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76239,7 +76237,7 @@
         <v>78</v>
       </c>
       <c r="V2243" s="35" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2244" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76364,7 +76362,7 @@
         <v>78</v>
       </c>
       <c r="V2248" s="35" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="2249" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76393,7 +76391,7 @@
         <v>78</v>
       </c>
       <c r="V2249" s="35" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="2250" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76422,7 +76420,7 @@
         <v>79</v>
       </c>
       <c r="V2250" s="35" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="2251" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76521,7 +76519,7 @@
         <v>78</v>
       </c>
       <c r="V2254" s="35" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="2255" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76598,7 +76596,7 @@
         <v>78</v>
       </c>
       <c r="V2257" s="35" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="2258" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76627,7 +76625,7 @@
         <v>78</v>
       </c>
       <c r="V2258" s="35" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="2259" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76656,7 +76654,7 @@
         <v>78</v>
       </c>
       <c r="V2259" s="35" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2260" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76709,7 +76707,7 @@
         <v>78</v>
       </c>
       <c r="V2261" s="35" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="2262" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76834,7 +76832,7 @@
         <v>78</v>
       </c>
       <c r="V2266" s="35" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="2267" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76911,7 +76909,7 @@
         <v>78</v>
       </c>
       <c r="V2269" s="35" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="2270" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76964,13 +76962,13 @@
         <v>21</v>
       </c>
       <c r="N2271" s="35" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="P2271" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2271" s="35" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="2272" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76997,7 +76995,7 @@
         <v>78</v>
       </c>
       <c r="V2272" s="35" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="2273" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77026,7 +77024,7 @@
         <v>78</v>
       </c>
       <c r="V2273" s="35" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="2274" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77055,7 +77053,7 @@
         <v>82</v>
       </c>
       <c r="V2274" s="35" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="2275" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77108,7 +77106,7 @@
         <v>82</v>
       </c>
       <c r="V2276" s="35" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="2277" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77137,7 +77135,7 @@
         <v>78</v>
       </c>
       <c r="V2277" s="35" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="2278" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77160,7 +77158,7 @@
         <v>7</v>
       </c>
       <c r="N2278" s="35" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="O2278" s="8" t="s">
         <v>82</v>
@@ -77195,7 +77193,7 @@
         <v>78</v>
       </c>
       <c r="V2279" s="35" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="2280" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77464,7 +77462,7 @@
         <v>78</v>
       </c>
       <c r="V2290" s="35" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="2291" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77517,7 +77515,7 @@
         <v>78</v>
       </c>
       <c r="V2292" s="35" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="2293" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77540,13 +77538,13 @@
         <v>22</v>
       </c>
       <c r="N2293" s="35" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="P2293" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2293" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="2294" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77747,7 +77745,7 @@
         <v>78</v>
       </c>
       <c r="V2301" s="35" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="2302" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77992,7 +77990,7 @@
         <v>78</v>
       </c>
       <c r="V2311" s="35" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="2312" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78069,7 +78067,7 @@
     </row>
     <row r="2315" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2315" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I2315" s="38" t="s">
         <v>67</v>
@@ -78090,13 +78088,13 @@
         <v>22</v>
       </c>
       <c r="N2315" s="35" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="P2315" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2315" s="35" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="2316" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78171,7 +78169,7 @@
         <v>78</v>
       </c>
       <c r="V2318" s="35" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="2319" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78200,7 +78198,7 @@
         <v>78</v>
       </c>
       <c r="V2319" s="35" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="2320" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78301,7 +78299,7 @@
         <v>78</v>
       </c>
       <c r="V2323" s="35" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2324" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78690,7 +78688,7 @@
         <v>79</v>
       </c>
       <c r="V2339" s="35" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="2340" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78765,7 +78763,7 @@
         <v>78</v>
       </c>
       <c r="V2342" s="35" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="2343" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78794,7 +78792,7 @@
         <v>78</v>
       </c>
       <c r="V2343" s="35" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="2344" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78847,7 +78845,7 @@
         <v>78</v>
       </c>
       <c r="V2345" s="35" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="2346" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78924,7 +78922,7 @@
         <v>78</v>
       </c>
       <c r="V2348" s="35" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="2349" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78977,7 +78975,7 @@
         <v>78</v>
       </c>
       <c r="V2350" s="35" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2351" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79030,7 +79028,7 @@
         <v>78</v>
       </c>
       <c r="V2352" s="35" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="2353" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79202,13 +79200,13 @@
         <v>20</v>
       </c>
       <c r="N2359" s="35" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="P2359" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2359" s="35" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="2360" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79235,7 +79233,7 @@
         <v>78</v>
       </c>
       <c r="V2360" s="35" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="2361" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79312,7 +79310,7 @@
         <v>78</v>
       </c>
       <c r="V2363" s="35" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="2364" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79365,7 +79363,7 @@
         <v>78</v>
       </c>
       <c r="V2365" s="35" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="2366" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79394,7 +79392,7 @@
         <v>78</v>
       </c>
       <c r="V2366" s="35" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="2367" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79423,7 +79421,7 @@
         <v>78</v>
       </c>
       <c r="V2367" s="35" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="2368" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79452,7 +79450,7 @@
         <v>78</v>
       </c>
       <c r="V2368" s="35" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="2369" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79505,7 +79503,7 @@
         <v>78</v>
       </c>
       <c r="V2370" s="35" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="2371" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79558,7 +79556,7 @@
         <v>78</v>
       </c>
       <c r="V2372" s="35" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="2373" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79611,7 +79609,7 @@
         <v>78</v>
       </c>
       <c r="V2374" s="35" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2375" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79634,13 +79632,13 @@
         <v>16</v>
       </c>
       <c r="N2375" s="35" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="P2375" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2375" s="35" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="2376" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79667,7 +79665,7 @@
         <v>119</v>
       </c>
       <c r="T2376" s="8" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="V2376" s="35"/>
     </row>
@@ -79961,7 +79959,7 @@
         <v>78</v>
       </c>
       <c r="V2388" s="35" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="2389" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80086,7 +80084,7 @@
         <v>78</v>
       </c>
       <c r="V2393" s="35" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="2394" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80217,7 +80215,7 @@
         <v>78</v>
       </c>
       <c r="V2398" s="35" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="2399" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80273,7 +80271,7 @@
         <v>78</v>
       </c>
       <c r="V2400" s="35" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="2401" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80350,7 +80348,7 @@
         <v>79</v>
       </c>
       <c r="V2403" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="2404" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80449,7 +80447,7 @@
         <v>78</v>
       </c>
       <c r="V2407" s="35" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="2408" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80987,7 +80985,7 @@
         <v>78</v>
       </c>
       <c r="V2429" s="35" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="2430" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81058,13 +81056,13 @@
         <v>29</v>
       </c>
       <c r="N2432" s="35" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="P2432" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2432" s="35" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="2433" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81163,7 +81161,7 @@
         <v>78</v>
       </c>
       <c r="V2436" s="35" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="2437" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81684,7 +81682,7 @@
         <v>78</v>
       </c>
       <c r="V2457" s="35" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="2458" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81737,7 +81735,7 @@
     </row>
     <row r="2460" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2460" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="I2460" s="38" t="s">
         <v>73</v>
@@ -81758,13 +81756,13 @@
         <v>28</v>
       </c>
       <c r="N2460" s="35" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="P2460" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2460" s="35" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="2461" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81815,7 +81813,7 @@
         <v>78</v>
       </c>
       <c r="V2462" s="35" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="2463" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81844,7 +81842,7 @@
         <v>78</v>
       </c>
       <c r="V2463" s="35" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="2464" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82017,7 +82015,7 @@
         <v>78</v>
       </c>
       <c r="V2470" s="35" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="2471" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82070,7 +82068,7 @@
         <v>78</v>
       </c>
       <c r="V2472" s="35" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="2473" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82171,7 +82169,7 @@
         <v>78</v>
       </c>
       <c r="V2476" s="35" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2477" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82224,7 +82222,7 @@
         <v>78</v>
       </c>
       <c r="V2478" s="35" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="2479" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82277,7 +82275,7 @@
         <v>78</v>
       </c>
       <c r="V2480" s="35" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="2481" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82324,7 +82322,7 @@
         <v>22</v>
       </c>
       <c r="N2482" s="35" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="O2482" s="8" t="s">
         <v>78</v>
@@ -82333,7 +82331,7 @@
         <v>79</v>
       </c>
       <c r="V2482" s="35" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="2483" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82525,7 +82523,7 @@
         <v>8</v>
       </c>
       <c r="N2490" s="35" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="O2490" s="8" t="s">
         <v>78</v>
@@ -82534,7 +82532,7 @@
         <v>79</v>
       </c>
       <c r="V2490" s="35" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="2491" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82635,7 +82633,7 @@
         <v>78</v>
       </c>
       <c r="V2494" s="35" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="2495" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82760,7 +82758,7 @@
         <v>78</v>
       </c>
       <c r="V2499" s="35" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="2500" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82783,13 +82781,13 @@
         <v>18</v>
       </c>
       <c r="N2500" s="35" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="P2500" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2500" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="2501" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82912,7 +82910,7 @@
         <v>78</v>
       </c>
       <c r="V2505" s="35" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="2506" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83151,7 +83149,7 @@
         <v>78</v>
       </c>
       <c r="V2514" s="35" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="2515" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83424,13 +83422,13 @@
         <v>25</v>
       </c>
       <c r="N2525" s="35" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="P2525" s="8" t="s">
         <v>79</v>
       </c>
       <c r="V2525" s="35" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="2526" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84300,7 +84298,7 @@
         <v>119</v>
       </c>
       <c r="T2561" s="8" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="V2561" s="35"/>
     </row>
@@ -84402,7 +84400,7 @@
         <v>78</v>
       </c>
       <c r="V2565" s="35" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="2566" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84842,7 +84840,7 @@
         <v>79</v>
       </c>
       <c r="V2583" s="35" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="2584" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE6F50D-F542-49A5-9A8F-63264AEC9ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4AD706-BC99-4352-B1BD-DA8E93B78330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4956,9 +4956,6 @@
     <t>rucaq itiq ruca#H</t>
   </si>
   <si>
-    <t>bRuqhaqspaqteq iti# bRuhaspate</t>
-  </si>
-  <si>
     <t>rucaqmitiq ruca$m</t>
   </si>
   <si>
@@ -5191,6 +5188,9 @@
   </si>
   <si>
     <t>eqte ityeqte</t>
+  </si>
+  <si>
+    <t>bRuqhaqspaqtaq iti# bRuhaspate</t>
   </si>
 </sst>
 </file>
@@ -5843,10 +5843,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1304" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U553" sqref="U553"/>
+      <selection pane="bottomLeft" activeCell="V1311" sqref="V1311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -12104,7 +12104,7 @@
         <v>119</v>
       </c>
       <c r="T154" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="U154" s="8"/>
       <c r="V154" s="35"/>
@@ -12518,7 +12518,7 @@
         <v>17</v>
       </c>
       <c r="N166" s="35" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="O166" s="7"/>
       <c r="P166" s="8" t="s">
@@ -14933,7 +14933,7 @@
         <v>83</v>
       </c>
       <c r="N232" s="36" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="O232" s="8" t="s">
         <v>78</v>
@@ -15805,7 +15805,7 @@
         <v>108</v>
       </c>
       <c r="N257" s="36" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="O257" s="8" t="s">
         <v>78</v>
@@ -20383,10 +20383,10 @@
       <c r="Q385" s="8"/>
       <c r="R385" s="8"/>
       <c r="S385" s="8" t="s">
+        <v>1681</v>
+      </c>
+      <c r="T385" s="8" t="s">
         <v>1682</v>
-      </c>
-      <c r="T385" s="8" t="s">
-        <v>1683</v>
       </c>
       <c r="U385" s="8"/>
       <c r="V385" s="35"/>
@@ -21071,7 +21071,7 @@
         <v>255</v>
       </c>
       <c r="N404" s="36" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="O404" s="8" t="s">
         <v>78</v>
@@ -22783,7 +22783,7 @@
         <v>106</v>
       </c>
       <c r="T452" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="U452" s="8"/>
       <c r="V452" s="35"/>
@@ -25965,7 +25965,7 @@
       <c r="T542" s="8"/>
       <c r="U542" s="8"/>
       <c r="V542" s="36" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="543" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27378,7 +27378,7 @@
         <v>106</v>
       </c>
       <c r="T583" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="U583" s="8"/>
       <c r="V583" s="35"/>
@@ -28306,10 +28306,10 @@
       <c r="Q610" s="8"/>
       <c r="R610" s="8"/>
       <c r="S610" s="8" t="s">
+        <v>1685</v>
+      </c>
+      <c r="T610" s="8" t="s">
         <v>1686</v>
-      </c>
-      <c r="T610" s="8" t="s">
-        <v>1687</v>
       </c>
       <c r="U610" s="8"/>
       <c r="V610" s="35"/>
@@ -28625,7 +28625,7 @@
     </row>
     <row r="620" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A620" s="8" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B620" s="45"/>
       <c r="D620" s="17"/>
@@ -29084,7 +29084,7 @@
         <v>208</v>
       </c>
       <c r="N632" s="36" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="O632" s="8" t="s">
         <v>78</v>
@@ -29096,7 +29096,7 @@
       <c r="T632" s="8"/>
       <c r="U632" s="8"/>
       <c r="V632" s="36" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="633" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -31557,7 +31557,7 @@
     </row>
     <row r="708" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A708" s="8" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G708" s="46" t="s">
         <v>152</v>
@@ -31596,7 +31596,7 @@
     </row>
     <row r="709" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A709" s="8" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G709" s="46" t="s">
         <v>152</v>
@@ -33708,7 +33708,7 @@
         <v>351</v>
       </c>
       <c r="N775" s="36" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="O775" s="8" t="s">
         <v>78</v>
@@ -35339,7 +35339,7 @@
     </row>
     <row r="827" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A827" s="8" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="I827" s="38" t="s">
         <v>35</v>
@@ -35923,7 +35923,7 @@
         <v>163</v>
       </c>
       <c r="T845" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="V845" s="35"/>
     </row>
@@ -36111,7 +36111,7 @@
         <v>119</v>
       </c>
       <c r="T851" s="8" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="V851" s="35"/>
     </row>
@@ -37632,7 +37632,7 @@
         <v>119</v>
       </c>
       <c r="T901" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="V901" s="35"/>
     </row>
@@ -37760,7 +37760,7 @@
         <v>119</v>
       </c>
       <c r="T905" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V905" s="35"/>
     </row>
@@ -37890,7 +37890,7 @@
         <v>119</v>
       </c>
       <c r="T909" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V909" s="35"/>
     </row>
@@ -38017,7 +38017,7 @@
         <v>119</v>
       </c>
       <c r="T913" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V913" s="35"/>
     </row>
@@ -38141,7 +38141,7 @@
         <v>119</v>
       </c>
       <c r="T917" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V917" s="35"/>
     </row>
@@ -38857,10 +38857,10 @@
       <c r="Q940" s="8"/>
       <c r="R940" s="8"/>
       <c r="S940" s="8" t="s">
+        <v>1691</v>
+      </c>
+      <c r="T940" s="8" t="s">
         <v>1692</v>
-      </c>
-      <c r="T940" s="8" t="s">
-        <v>1693</v>
       </c>
       <c r="V940" s="35"/>
     </row>
@@ -44819,7 +44819,7 @@
         <v>106</v>
       </c>
       <c r="T1129" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="V1129" s="35"/>
     </row>
@@ -45320,7 +45320,7 @@
         <v>106</v>
       </c>
       <c r="T1144" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="V1144" s="35"/>
     </row>
@@ -45393,7 +45393,7 @@
     </row>
     <row r="1147" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1147" s="55" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H1147" s="42" t="s">
         <v>108</v>
@@ -45417,7 +45417,7 @@
         <v>320</v>
       </c>
       <c r="N1147" s="56" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="O1147" s="8" t="s">
         <v>78</v>
@@ -46191,7 +46191,7 @@
     </row>
     <row r="1172" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1172" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="I1172" s="38" t="s">
         <v>42</v>
@@ -48172,7 +48172,7 @@
         <v>119</v>
       </c>
       <c r="T1236" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V1236" s="35"/>
     </row>
@@ -48236,7 +48236,7 @@
         <v>119</v>
       </c>
       <c r="T1238" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="V1238" s="35"/>
     </row>
@@ -49903,7 +49903,7 @@
       <c r="S1291" s="8"/>
       <c r="T1291" s="8"/>
       <c r="U1291" s="8" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="V1291" s="35"/>
     </row>
@@ -50804,8 +50804,8 @@
       <c r="R1319" s="8"/>
       <c r="S1319" s="8"/>
       <c r="T1319" s="8"/>
-      <c r="V1319" s="35" t="s">
-        <v>1642</v>
+      <c r="V1319" s="36" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="1320" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51304,7 +51304,7 @@
       <c r="S1334" s="8"/>
       <c r="T1334" s="8"/>
       <c r="V1334" s="35" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1335" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55794,7 +55794,7 @@
     </row>
     <row r="1475" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1475" s="8" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C1475" s="30"/>
       <c r="H1475" s="26"/>
@@ -56158,7 +56158,7 @@
       <c r="S1485" s="8"/>
       <c r="T1485" s="8"/>
       <c r="V1485" s="35" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1486" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56222,10 +56222,10 @@
       <c r="Q1487" s="8"/>
       <c r="R1487" s="8"/>
       <c r="S1487" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="T1487" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="V1487" s="35"/>
     </row>
@@ -56519,7 +56519,7 @@
       <c r="S1496" s="8"/>
       <c r="T1496" s="8"/>
       <c r="V1496" s="35" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1497" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56832,7 +56832,7 @@
       <c r="S1505" s="8"/>
       <c r="T1505" s="8"/>
       <c r="V1505" s="35" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1506" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57423,7 +57423,7 @@
       <c r="S1523" s="8"/>
       <c r="T1523" s="8"/>
       <c r="V1523" s="35" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1524" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57702,7 +57702,7 @@
       <c r="S1531" s="8"/>
       <c r="T1531" s="8"/>
       <c r="V1531" s="35" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1532" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58050,7 +58050,7 @@
       <c r="S1542" s="8"/>
       <c r="T1542" s="8"/>
       <c r="V1542" s="35" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1543" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58364,7 +58364,7 @@
       <c r="S1551" s="8"/>
       <c r="T1551" s="8"/>
       <c r="V1551" s="35" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1552" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58556,7 +58556,7 @@
       <c r="S1557" s="8"/>
       <c r="T1557" s="8"/>
       <c r="V1557" s="35" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1558" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58739,7 +58739,7 @@
         <v>119</v>
       </c>
       <c r="T1563" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="V1563" s="35"/>
     </row>
@@ -58804,7 +58804,7 @@
       <c r="S1565" s="8"/>
       <c r="T1565" s="8"/>
       <c r="V1565" s="35" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1566" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59083,7 +59083,7 @@
       <c r="S1574" s="8"/>
       <c r="T1574" s="8"/>
       <c r="V1574" s="35" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1575" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59209,7 +59209,7 @@
         <v>119</v>
       </c>
       <c r="T1578" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="V1578" s="35"/>
     </row>
@@ -59293,7 +59293,7 @@
         <v>79</v>
       </c>
       <c r="V1581" s="35" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1582" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59484,7 +59484,7 @@
         <v>79</v>
       </c>
       <c r="V1587" s="35" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1588" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59633,7 +59633,7 @@
         <v>119</v>
       </c>
       <c r="T1593" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="V1593" s="35"/>
     </row>
@@ -59687,7 +59687,7 @@
         <v>79</v>
       </c>
       <c r="V1595" s="35" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1596" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59869,7 +59869,7 @@
         <v>79</v>
       </c>
       <c r="V1602" s="35" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1603" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60018,7 +60018,7 @@
         <v>119</v>
       </c>
       <c r="T1608" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="V1608" s="35"/>
     </row>
@@ -60072,7 +60072,7 @@
         <v>79</v>
       </c>
       <c r="V1610" s="35" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1611" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60262,7 +60262,7 @@
         <v>79</v>
       </c>
       <c r="V1617" s="35" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1618" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60411,7 +60411,7 @@
         <v>119</v>
       </c>
       <c r="T1623" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="V1623" s="35"/>
     </row>
@@ -60465,7 +60465,7 @@
         <v>79</v>
       </c>
       <c r="V1625" s="35" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1626" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60643,7 +60643,7 @@
         <v>79</v>
       </c>
       <c r="V1632" s="35" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1633" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60749,7 +60749,7 @@
         <v>119</v>
       </c>
       <c r="T1636" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="V1636" s="35"/>
     </row>
@@ -60803,7 +60803,7 @@
     </row>
     <row r="1639" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1639" s="8" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="I1639" s="38" t="s">
         <v>51</v>
@@ -60830,7 +60830,7 @@
         <v>79</v>
       </c>
       <c r="V1639" s="35" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1640" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61051,7 +61051,7 @@
         <v>9</v>
       </c>
       <c r="N1648" s="36" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="O1648" s="8" t="s">
         <v>78</v>
@@ -61113,7 +61113,7 @@
         <v>129</v>
       </c>
       <c r="V1650" s="35" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1651" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61964,7 +61964,7 @@
         <v>119</v>
       </c>
       <c r="T1683" s="8" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="V1683" s="35"/>
     </row>
@@ -62304,13 +62304,13 @@
         <v>57</v>
       </c>
       <c r="N1696" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O1696" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1696" s="35" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1697" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65091,7 +65091,7 @@
         <v>79</v>
       </c>
       <c r="V1805" s="35" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1806" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65149,7 +65149,7 @@
     </row>
     <row r="1808" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1808" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G1808" s="46" t="s">
         <v>153</v>
@@ -65185,7 +65185,7 @@
     </row>
     <row r="1809" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1809" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="G1809" s="46" t="s">
         <v>153</v>
@@ -65221,7 +65221,7 @@
     </row>
     <row r="1810" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1810" s="8" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="G1810" s="46" t="s">
         <v>153</v>
@@ -65340,7 +65340,7 @@
         <v>79</v>
       </c>
       <c r="V1813" s="35" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1814" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65569,7 +65569,7 @@
         <v>79</v>
       </c>
       <c r="V1822" s="35" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1823" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65832,7 +65832,7 @@
       <c r="S1831" s="8"/>
       <c r="T1831" s="8"/>
       <c r="V1831" s="35" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1832" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66133,7 +66133,7 @@
         <v>79</v>
       </c>
       <c r="V1842" s="35" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1843" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66608,7 +66608,7 @@
     </row>
     <row r="1862" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1862" s="8" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="I1862" s="38" t="s">
         <v>56</v>
@@ -66838,7 +66838,7 @@
     </row>
     <row r="1871" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1871" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="I1871" s="38" t="s">
         <v>56</v>
@@ -66868,7 +66868,7 @@
     </row>
     <row r="1872" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1872" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="I1872" s="38" t="s">
         <v>56</v>
@@ -70827,7 +70827,7 @@
         <v>79</v>
       </c>
       <c r="V2030" s="35" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="2031" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71444,7 +71444,7 @@
         <v>23</v>
       </c>
       <c r="N2053" s="36" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="V2053" s="35"/>
     </row>
@@ -71648,7 +71648,7 @@
         <v>31</v>
       </c>
       <c r="N2061" s="36" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="V2061" s="35"/>
     </row>
@@ -72609,10 +72609,10 @@
         <v>989</v>
       </c>
       <c r="S2099" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="T2099" s="8" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="V2099" s="35"/>
     </row>
@@ -74617,7 +74617,7 @@
         <v>79</v>
       </c>
       <c r="V2180" s="35" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="2181" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75166,7 +75166,7 @@
         <v>79</v>
       </c>
       <c r="V2202" s="35" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="2203" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75840,7 +75840,7 @@
         <v>79</v>
       </c>
       <c r="V2227" s="35" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="2228" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76420,7 +76420,7 @@
         <v>79</v>
       </c>
       <c r="V2250" s="35" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="2251" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76968,7 +76968,7 @@
         <v>79</v>
       </c>
       <c r="V2271" s="35" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="2272" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77158,7 +77158,7 @@
         <v>7</v>
       </c>
       <c r="N2278" s="35" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="O2278" s="8" t="s">
         <v>82</v>
@@ -77544,7 +77544,7 @@
         <v>79</v>
       </c>
       <c r="V2293" s="35" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="2294" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78067,7 +78067,7 @@
     </row>
     <row r="2315" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2315" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="I2315" s="38" t="s">
         <v>67</v>
@@ -78094,7 +78094,7 @@
         <v>79</v>
       </c>
       <c r="V2315" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="2316" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79206,7 +79206,7 @@
         <v>79</v>
       </c>
       <c r="V2359" s="35" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="2360" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79638,7 +79638,7 @@
         <v>79</v>
       </c>
       <c r="V2375" s="35" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="2376" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79665,7 +79665,7 @@
         <v>119</v>
       </c>
       <c r="T2376" s="8" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="V2376" s="35"/>
     </row>
@@ -80348,7 +80348,7 @@
         <v>79</v>
       </c>
       <c r="V2403" s="35" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="2404" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81062,7 +81062,7 @@
         <v>79</v>
       </c>
       <c r="V2432" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="2433" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81735,7 +81735,7 @@
     </row>
     <row r="2460" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2460" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I2460" s="38" t="s">
         <v>73</v>
@@ -81762,7 +81762,7 @@
         <v>79</v>
       </c>
       <c r="V2460" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="2461" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82331,7 +82331,7 @@
         <v>79</v>
       </c>
       <c r="V2482" s="35" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="2483" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82532,7 +82532,7 @@
         <v>79</v>
       </c>
       <c r="V2490" s="35" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="2491" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82787,7 +82787,7 @@
         <v>79</v>
       </c>
       <c r="V2500" s="35" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="2501" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83428,7 +83428,7 @@
         <v>79</v>
       </c>
       <c r="V2525" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="2526" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84298,7 +84298,7 @@
         <v>119</v>
       </c>
       <c r="T2561" s="8" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="V2561" s="35"/>
     </row>

--- a/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 5.7 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FE1DA6-758E-494D-8AE8-11251E08529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61877EA1-7E0B-444E-95ED-173CBF3296A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6663" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6661" uniqueCount="1721">
   <si>
     <t>Passage</t>
   </si>
@@ -5109,9 +5109,6 @@
     <t>S[r]+N[r]</t>
   </si>
   <si>
-    <t>svaqyaqmciH</t>
-  </si>
-  <si>
     <t>svaqyaqmciqtiriti# svayaM - ciqtiH</t>
   </si>
   <si>
@@ -5191,6 +5188,9 @@
   </si>
   <si>
     <t>sIqdaqteti# sIdata</t>
+  </si>
+  <si>
+    <t>svaqyaq~jciqtiH</t>
   </si>
 </sst>
 </file>
@@ -5843,10 +5843,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1598" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1721" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U1612" sqref="U1612"/>
+      <selection pane="bottomLeft" activeCell="U1737" sqref="U1737"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -14933,7 +14933,7 @@
         <v>83</v>
       </c>
       <c r="N232" s="36" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="O232" s="8" t="s">
         <v>78</v>
@@ -15805,7 +15805,7 @@
         <v>108</v>
       </c>
       <c r="N257" s="36" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="O257" s="8" t="s">
         <v>78</v>
@@ -21071,7 +21071,7 @@
         <v>255</v>
       </c>
       <c r="N404" s="36" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="O404" s="8" t="s">
         <v>78</v>
@@ -25965,7 +25965,7 @@
       <c r="T542" s="8"/>
       <c r="U542" s="8"/>
       <c r="V542" s="36" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="543" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28625,7 +28625,7 @@
     </row>
     <row r="620" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A620" s="8" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B620" s="45"/>
       <c r="D620" s="17"/>
@@ -29084,7 +29084,7 @@
         <v>208</v>
       </c>
       <c r="N632" s="36" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="O632" s="8" t="s">
         <v>78</v>
@@ -29096,7 +29096,7 @@
       <c r="T632" s="8"/>
       <c r="U632" s="8"/>
       <c r="V632" s="36" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="633" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -33708,7 +33708,7 @@
         <v>351</v>
       </c>
       <c r="N775" s="36" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="O775" s="8" t="s">
         <v>78</v>
@@ -35339,7 +35339,7 @@
     </row>
     <row r="827" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A827" s="8" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="I827" s="38" t="s">
         <v>35</v>
@@ -45393,7 +45393,7 @@
     </row>
     <row r="1147" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1147" s="55" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H1147" s="42" t="s">
         <v>108</v>
@@ -45417,7 +45417,7 @@
         <v>320</v>
       </c>
       <c r="N1147" s="56" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="O1147" s="8" t="s">
         <v>78</v>
@@ -46191,7 +46191,7 @@
     </row>
     <row r="1172" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1172" s="8" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="I1172" s="38" t="s">
         <v>42</v>
@@ -50805,7 +50805,7 @@
       <c r="S1319" s="8"/>
       <c r="T1319" s="8"/>
       <c r="V1319" s="36" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1320" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55794,7 +55794,7 @@
     </row>
     <row r="1475" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1475" s="8" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C1475" s="30"/>
       <c r="H1475" s="26"/>
@@ -57315,7 +57315,7 @@
         <v>45</v>
       </c>
       <c r="N1520" s="36" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="O1520" s="8" t="s">
         <v>78</v>
@@ -58364,7 +58364,7 @@
       <c r="S1551" s="8"/>
       <c r="T1551" s="8"/>
       <c r="V1551" s="36" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1552" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60797,7 +60797,7 @@
     </row>
     <row r="1639" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1639" s="8" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="I1639" s="38" t="s">
         <v>51</v>
@@ -61045,7 +61045,7 @@
         <v>9</v>
       </c>
       <c r="N1648" s="36" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="O1648" s="8" t="s">
         <v>78</v>
@@ -62297,14 +62297,14 @@
         <f t="shared" si="81"/>
         <v>57</v>
       </c>
-      <c r="N1696" s="35" t="s">
-        <v>1693</v>
+      <c r="N1696" s="36" t="s">
+        <v>1720</v>
       </c>
       <c r="O1696" s="8" t="s">
         <v>78</v>
       </c>
       <c r="V1696" s="35" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1697" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62674,9 +62674,6 @@
       <c r="N1711" s="53" t="s">
         <v>888</v>
       </c>
-      <c r="U1711" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="V1711" s="35"/>
     </row>
     <row r="1712" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63337,9 +63334,6 @@
       </c>
       <c r="N1737" s="53" t="s">
         <v>888</v>
-      </c>
-      <c r="U1737" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="V1737" s="35"/>
     </row>
@@ -65143,7 +65137,7 @@
     </row>
     <row r="1808" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1808" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="G1808" s="46" t="s">
         <v>153</v>
@@ -65179,7 +65173,7 @@
     </row>
     <row r="1809" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1809" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="G1809" s="46" t="s">
         <v>153</v>
@@ -65215,7 +65209,7 @@
     </row>
     <row r="1810" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1810" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="G1810" s="46" t="s">
         <v>153</v>
@@ -66602,7 +66596,7 @@
     </row>
     <row r="1862" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1862" s="8" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="I1862" s="38" t="s">
         <v>56</v>
@@ -66832,7 +66826,7 @@
     </row>
     <row r="1871" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1871" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I1871" s="38" t="s">
         <v>56</v>
@@ -66862,7 +66856,7 @@
     </row>
     <row r="1872" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1872" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="I1872" s="38" t="s">
         <v>56</v>
@@ -71438,7 +71432,7 @@
         <v>23</v>
       </c>
       <c r="N2053" s="36" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="V2053" s="35"/>
     </row>
@@ -71642,7 +71636,7 @@
         <v>31</v>
       </c>
       <c r="N2061" s="36" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="V2061" s="35"/>
     </row>
@@ -77152,7 +77146,7 @@
         <v>7</v>
       </c>
       <c r="N2278" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O2278" s="8" t="s">
         <v>82</v>
@@ -78061,7 +78055,7 @@
     </row>
     <row r="2315" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2315" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="I2315" s="38" t="s">
         <v>67</v>
@@ -81729,7 +81723,7 @@
     </row>
     <row r="2460" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2460" s="8" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="I2460" s="38" t="s">
         <v>73</v>
